--- a/csv/taikoSongs/TimelineCreator.xlsx
+++ b/csv/taikoSongs/TimelineCreator.xlsx
@@ -8,15 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Github\FFXIV_Auxiliary_Tools\csv\taikoSongs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AB618201-CA6F-48B6-876A-7BDB4FD5D49F}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{358A43F9-9DE1-4418-A338-C4758166575F}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1950" yWindow="1950" windowWidth="27675" windowHeight="11310" xr2:uid="{915F0882-252E-4FB9-BEA3-EEC9BD447592}"/>
+    <workbookView xWindow="2295" yWindow="2295" windowWidth="27675" windowHeight="11310" xr2:uid="{915F0882-252E-4FB9-BEA3-EEC9BD447592}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$D$489</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0">Sheet1!$A$1:$B$465</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="301" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="277" uniqueCount="26">
   <si>
     <t>Time</t>
   </si>
@@ -66,9 +66,6 @@
     <t>武士 casts 必杀剑·回天 on 武士</t>
   </si>
   <si>
-    <t>武士 begins casting 纷乱雪月花 on 暗之巫女</t>
-  </si>
-  <si>
     <t>武士 casts 纷乱雪月花 on 暗之巫女</t>
   </si>
   <si>
@@ -76,9 +73,6 @@
   </si>
   <si>
     <t>武士 casts 心眼 on 武士</t>
-  </si>
-  <si>
-    <t>武士 begins casting 彼岸花 on 暗之巫女</t>
   </si>
   <si>
     <t>武士 casts 彼岸花 on 暗之巫女</t>
@@ -118,18 +112,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="等线"/>
-      <family val="2"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C5700"/>
       <name val="等线"/>
       <family val="2"/>
       <charset val="134"/>
@@ -143,17 +129,12 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -165,33 +146,74 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="47" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="0" xfId="1" applyNumberFormat="1">
-      <alignment vertical="center"/>
-    </xf>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="适中" xfId="1" builtinId="28"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="6">
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFFC7CE"/>
+          <bgColor rgb="FF000000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFFC7CE"/>
+          <bgColor rgb="FF000000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFFC7CE"/>
+          <bgColor rgb="FF000000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -501,17 +523,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3D1C7327-950C-4441-8E2E-10DE95E47A2B}">
-  <dimension ref="A1:D489"/>
+  <dimension ref="A1:D465"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="M36" sqref="M36"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="7.25" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="38.75" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9" style="2"/>
+    <col min="3" max="3" width="5.875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="11" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -530,9 +552,9 @@
       <c r="B2" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="3">
-        <f>SECOND(A2)+MINUTE(A2)*60</f>
-        <v>1</v>
+      <c r="C2" s="1" t="str">
+        <f t="shared" ref="C2:C42" si="0">TEXT(LEFT(TEXT(A2,"mm:ss.0"),2)&amp;TEXT(A2,"ss.0"),"0.0")</f>
+        <v>1.0</v>
       </c>
       <c r="D2" t="str">
         <f>_xll.RegexString(B2,"^.+[  ]cast.*?[  ](.+?)( on .+)*$",1,1)</f>
@@ -546,9 +568,9 @@
       <c r="B3" t="s">
         <v>3</v>
       </c>
-      <c r="C3" s="3">
-        <f t="shared" ref="C3:C65" si="0">SECOND(A3)+MINUTE(A3)*60</f>
-        <v>2</v>
+      <c r="C3" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>2.3</v>
       </c>
       <c r="D3" t="str">
         <f>_xll.RegexString(B3,"^.+[  ]cast.*?[  ](.+?)( on .+)*$",1,1)</f>
@@ -562,9 +584,9 @@
       <c r="B4" t="s">
         <v>4</v>
       </c>
-      <c r="C4" s="3">
+      <c r="C4" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>4</v>
+        <v>4.0</v>
       </c>
       <c r="D4" t="str">
         <f>_xll.RegexString(B4,"^.+[  ]cast.*?[  ](.+?)( on .+)*$",1,1)</f>
@@ -578,9 +600,9 @@
       <c r="B5" t="s">
         <v>5</v>
       </c>
-      <c r="C5" s="3">
+      <c r="C5" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="D5" t="str">
         <f>_xll.RegexString(B5,"^.+[  ]cast.*?[  ](.+?)( on .+)*$",1,1)</f>
@@ -594,9 +616,9 @@
       <c r="B6" t="s">
         <v>2</v>
       </c>
-      <c r="C6" s="3">
+      <c r="C6" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>9</v>
+        <v>8.6</v>
       </c>
       <c r="D6" t="str">
         <f>_xll.RegexString(B6,"^.+[  ]cast.*?[  ](.+?)( on .+)*$",1,1)</f>
@@ -610,9 +632,9 @@
       <c r="B7" t="s">
         <v>6</v>
       </c>
-      <c r="C7" s="3">
+      <c r="C7" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>11</v>
+        <v>10.7</v>
       </c>
       <c r="D7" t="str">
         <f>_xll.RegexString(B7,"^.+[  ]cast.*?[  ](.+?)( on .+)*$",1,1)</f>
@@ -626,9 +648,9 @@
       <c r="B8" t="s">
         <v>7</v>
       </c>
-      <c r="C8" s="3">
+      <c r="C8" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>11</v>
+        <v>11.5</v>
       </c>
       <c r="D8" t="str">
         <f>_xll.RegexString(B8,"^.+[  ]cast.*?[  ](.+?)( on .+)*$",1,1)</f>
@@ -642,9 +664,9 @@
       <c r="B9" t="s">
         <v>8</v>
       </c>
-      <c r="C9" s="3">
+      <c r="C9" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>13</v>
+        <v>12.9</v>
       </c>
       <c r="D9" t="str">
         <f>_xll.RegexString(B9,"^.+[  ]cast.*?[  ](.+?)( on .+)*$",1,1)</f>
@@ -658,9 +680,9 @@
       <c r="B10" t="s">
         <v>9</v>
       </c>
-      <c r="C10" s="3">
+      <c r="C10" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>14</v>
+        <v>13.6</v>
       </c>
       <c r="D10" t="str">
         <f>_xll.RegexString(B10,"^.+[  ]cast.*?[  ](.+?)( on .+)*$",1,1)</f>
@@ -674,9 +696,9 @@
       <c r="B11" t="s">
         <v>10</v>
       </c>
-      <c r="C11" s="3">
+      <c r="C11" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>15</v>
+        <v>15.0</v>
       </c>
       <c r="D11" t="str">
         <f>_xll.RegexString(B11,"^.+[  ]cast.*?[  ](.+?)( on .+)*$",1,1)</f>
@@ -690,9 +712,9 @@
       <c r="B12" t="s">
         <v>11</v>
       </c>
-      <c r="C12" s="3">
+      <c r="C12" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>16</v>
+        <v>15.8</v>
       </c>
       <c r="D12" t="str">
         <f>_xll.RegexString(B12,"^.+[  ]cast.*?[  ](.+?)( on .+)*$",1,1)</f>
@@ -701,14 +723,14 @@
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A13" s="1">
-        <v>1.9864583333333333E-4</v>
+        <v>2.0740740740740743E-4</v>
       </c>
       <c r="B13" t="s">
         <v>12</v>
       </c>
-      <c r="C13" s="3">
+      <c r="C13" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>17</v>
+        <v>17.9</v>
       </c>
       <c r="D13" t="str">
         <f>_xll.RegexString(B13,"^.+[  ]cast.*?[  ](.+?)( on .+)*$",1,1)</f>
@@ -717,318 +739,318 @@
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A14" s="1">
-        <v>2.0740740740740743E-4</v>
+        <v>2.2341435185185189E-4</v>
       </c>
       <c r="B14" t="s">
         <v>13</v>
       </c>
-      <c r="C14" s="3">
+      <c r="C14" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>18</v>
+        <v>19.3</v>
       </c>
       <c r="D14" t="str">
         <f>_xll.RegexString(B14,"^.+[  ]cast.*?[  ](.+?)( on .+)*$",1,1)</f>
-        <v>纷乱雪月花</v>
+        <v>回返雪月花</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A15" s="1">
-        <v>2.2341435185185189E-4</v>
+        <v>2.3166666666666661E-4</v>
       </c>
       <c r="B15" t="s">
         <v>14</v>
       </c>
-      <c r="C15" s="3">
+      <c r="C15" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>19</v>
+        <v>20.0</v>
       </c>
       <c r="D15" t="str">
         <f>_xll.RegexString(B15,"^.+[  ]cast.*?[  ](.+?)( on .+)*$",1,1)</f>
-        <v>回返雪月花</v>
+        <v>心眼</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A16" s="1">
-        <v>2.3166666666666661E-4</v>
+        <v>2.4869212962962958E-4</v>
       </c>
       <c r="B16" t="s">
-        <v>15</v>
-      </c>
-      <c r="C16" s="3">
+        <v>8</v>
+      </c>
+      <c r="C16" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>20</v>
+        <v>21.5</v>
       </c>
       <c r="D16" t="str">
         <f>_xll.RegexString(B16,"^.+[  ]cast.*?[  ](.+?)( on .+)*$",1,1)</f>
-        <v>心眼</v>
+        <v>月光</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A17" s="1">
-        <v>2.4869212962962958E-4</v>
+        <v>2.569560185185185E-4</v>
       </c>
       <c r="B17" t="s">
-        <v>8</v>
-      </c>
-      <c r="C17" s="3">
+        <v>11</v>
+      </c>
+      <c r="C17" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>21</v>
+        <v>22.2</v>
       </c>
       <c r="D17" t="str">
         <f>_xll.RegexString(B17,"^.+[  ]cast.*?[  ](.+?)( on .+)*$",1,1)</f>
-        <v>月光</v>
+        <v>必杀剑·回天</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A18" s="1">
-        <v>2.569560185185185E-4</v>
+        <v>2.822800925925926E-4</v>
       </c>
       <c r="B18" t="s">
-        <v>11</v>
-      </c>
-      <c r="C18" s="3">
+        <v>15</v>
+      </c>
+      <c r="C18" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>22</v>
+        <v>24.4</v>
       </c>
       <c r="D18" t="str">
         <f>_xll.RegexString(B18,"^.+[  ]cast.*?[  ](.+?)( on .+)*$",1,1)</f>
-        <v>必杀剑·回天</v>
+        <v>彼岸花</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A19" s="1">
-        <v>2.7350694444444444E-4</v>
+        <v>2.895138888888889E-4</v>
       </c>
       <c r="B19" t="s">
         <v>16</v>
       </c>
-      <c r="C19" s="3">
+      <c r="C19" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>24</v>
+        <v>25.0</v>
       </c>
       <c r="D19" t="str">
         <f>_xll.RegexString(B19,"^.+[  ]cast.*?[  ](.+?)( on .+)*$",1,1)</f>
-        <v>彼岸花</v>
+        <v>照破</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A20" s="1">
-        <v>2.822800925925926E-4</v>
+        <v>2.9829861111111111E-4</v>
       </c>
       <c r="B20" t="s">
-        <v>17</v>
-      </c>
-      <c r="C20" s="3">
+        <v>8</v>
+      </c>
+      <c r="C20" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>24</v>
+        <v>25.8</v>
       </c>
       <c r="D20" t="str">
         <f>_xll.RegexString(B20,"^.+[  ]cast.*?[  ](.+?)( on .+)*$",1,1)</f>
-        <v>彼岸花</v>
+        <v>月光</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A21" s="1">
-        <v>2.895138888888889E-4</v>
+        <v>3.0755787037037042E-4</v>
       </c>
       <c r="B21" t="s">
-        <v>18</v>
-      </c>
-      <c r="C21" s="3">
+        <v>17</v>
+      </c>
+      <c r="C21" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>25</v>
+        <v>26.6</v>
       </c>
       <c r="D21" t="str">
         <f>_xll.RegexString(B21,"^.+[  ]cast.*?[  ](.+?)( on .+)*$",1,1)</f>
-        <v>照破</v>
+        <v>必杀剑·星眼</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A22" s="1">
-        <v>2.9829861111111111E-4</v>
+        <v>3.2302083333333331E-4</v>
       </c>
       <c r="B22" t="s">
-        <v>8</v>
-      </c>
-      <c r="C22" s="3">
+        <v>2</v>
+      </c>
+      <c r="C22" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>26</v>
+        <v>27.9</v>
       </c>
       <c r="D22" t="str">
         <f>_xll.RegexString(B22,"^.+[  ]cast.*?[  ](.+?)( on .+)*$",1,1)</f>
-        <v>月光</v>
+        <v>刃风</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A23" s="1">
-        <v>3.0755787037037042E-4</v>
+        <v>3.3075231481481475E-4</v>
       </c>
       <c r="B23" t="s">
-        <v>19</v>
-      </c>
-      <c r="C23" s="3">
+        <v>18</v>
+      </c>
+      <c r="C23" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>27</v>
+        <v>28.6</v>
       </c>
       <c r="D23" t="str">
         <f>_xll.RegexString(B23,"^.+[  ]cast.*?[  ](.+?)( on .+)*$",1,1)</f>
-        <v>必杀剑·星眼</v>
+        <v>必杀剑·震天</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A24" s="1">
-        <v>3.2302083333333331E-4</v>
+        <v>3.4831018518518522E-4</v>
       </c>
       <c r="B24" t="s">
-        <v>2</v>
-      </c>
-      <c r="C24" s="3">
+        <v>4</v>
+      </c>
+      <c r="C24" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>28</v>
+        <v>30.1</v>
       </c>
       <c r="D24" t="str">
         <f>_xll.RegexString(B24,"^.+[  ]cast.*?[  ](.+?)( on .+)*$",1,1)</f>
-        <v>刃风</v>
+        <v>士风</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A25" s="1">
-        <v>3.3075231481481475E-4</v>
+        <v>3.7310185185185184E-4</v>
       </c>
       <c r="B25" t="s">
-        <v>20</v>
-      </c>
-      <c r="C25" s="3">
+        <v>5</v>
+      </c>
+      <c r="C25" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>29</v>
+        <v>32.2</v>
       </c>
       <c r="D25" t="str">
         <f>_xll.RegexString(B25,"^.+[  ]cast.*?[  ](.+?)( on .+)*$",1,1)</f>
-        <v>必杀剑·震天</v>
+        <v>花车</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A26" s="1">
-        <v>3.4831018518518522E-4</v>
+        <v>3.9789351851851851E-4</v>
       </c>
       <c r="B26" t="s">
-        <v>4</v>
-      </c>
-      <c r="C26" s="3">
+        <v>2</v>
+      </c>
+      <c r="C26" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>30</v>
+        <v>34.4</v>
       </c>
       <c r="D26" t="str">
         <f>_xll.RegexString(B26,"^.+[  ]cast.*?[  ](.+?)( on .+)*$",1,1)</f>
-        <v>士风</v>
+        <v>刃风</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A27" s="1">
-        <v>3.7310185185185184E-4</v>
+        <v>4.2269675925925933E-4</v>
       </c>
       <c r="B27" t="s">
-        <v>5</v>
-      </c>
-      <c r="C27" s="3">
+        <v>10</v>
+      </c>
+      <c r="C27" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>32</v>
+        <v>36.5</v>
       </c>
       <c r="D27" t="str">
         <f>_xll.RegexString(B27,"^.+[  ]cast.*?[  ](.+?)( on .+)*$",1,1)</f>
-        <v>花车</v>
+        <v>雪风</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A28" s="1">
-        <v>3.9789351851851851E-4</v>
+        <v>4.3509259259259255E-4</v>
       </c>
       <c r="B28" t="s">
-        <v>2</v>
-      </c>
-      <c r="C28" s="3">
+        <v>11</v>
+      </c>
+      <c r="C28" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>34</v>
+        <v>37.6</v>
       </c>
       <c r="D28" t="str">
         <f>_xll.RegexString(B28,"^.+[  ]cast.*?[  ](.+?)( on .+)*$",1,1)</f>
-        <v>刃风</v>
+        <v>必杀剑·回天</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A29" s="1">
-        <v>4.2269675925925933E-4</v>
+        <v>4.5628472222222224E-4</v>
       </c>
       <c r="B29" t="s">
-        <v>10</v>
-      </c>
-      <c r="C29" s="3">
+        <v>12</v>
+      </c>
+      <c r="C29" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>37</v>
+        <v>39.4</v>
       </c>
       <c r="D29" t="str">
         <f>_xll.RegexString(B29,"^.+[  ]cast.*?[  ](.+?)( on .+)*$",1,1)</f>
-        <v>雪风</v>
+        <v>纷乱雪月花</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A30" s="1">
-        <v>4.3509259259259255E-4</v>
+        <v>4.7231481481481479E-4</v>
       </c>
       <c r="B30" t="s">
-        <v>11</v>
-      </c>
-      <c r="C30" s="3">
+        <v>2</v>
+      </c>
+      <c r="C30" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>38</v>
+        <v>40.8</v>
       </c>
       <c r="D30" t="str">
         <f>_xll.RegexString(B30,"^.+[  ]cast.*?[  ](.+?)( on .+)*$",1,1)</f>
-        <v>必杀剑·回天</v>
+        <v>刃风</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A31" s="1">
-        <v>4.4749999999999998E-4</v>
+        <v>4.976041666666667E-4</v>
       </c>
       <c r="B31" t="s">
-        <v>12</v>
-      </c>
-      <c r="C31" s="3">
+        <v>6</v>
+      </c>
+      <c r="C31" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>39</v>
+        <v>43.0</v>
       </c>
       <c r="D31" t="str">
         <f>_xll.RegexString(B31,"^.+[  ]cast.*?[  ](.+?)( on .+)*$",1,1)</f>
-        <v>纷乱雪月花</v>
+        <v>阵风</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A32" s="1">
-        <v>4.5628472222222224E-4</v>
+        <v>5.2236111111111114E-4</v>
       </c>
       <c r="B32" t="s">
-        <v>13</v>
-      </c>
-      <c r="C32" s="3">
+        <v>8</v>
+      </c>
+      <c r="C32" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>39</v>
+        <v>45.1</v>
       </c>
       <c r="D32" t="str">
         <f>_xll.RegexString(B32,"^.+[  ]cast.*?[  ](.+?)( on .+)*$",1,1)</f>
-        <v>纷乱雪月花</v>
+        <v>月光</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A33" s="1">
-        <v>4.7231481481481479E-4</v>
+        <v>5.4712962962962962E-4</v>
       </c>
       <c r="B33" t="s">
         <v>2</v>
       </c>
-      <c r="C33" s="3">
+      <c r="C33" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>41</v>
+        <v>47.3</v>
       </c>
       <c r="D33" t="str">
         <f>_xll.RegexString(B33,"^.+[  ]cast.*?[  ](.+?)( on .+)*$",1,1)</f>
@@ -1037,222 +1059,222 @@
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A34" s="1">
-        <v>4.976041666666667E-4</v>
+        <v>5.7193287037037033E-4</v>
       </c>
       <c r="B34" t="s">
-        <v>6</v>
-      </c>
-      <c r="C34" s="3">
+        <v>4</v>
+      </c>
+      <c r="C34" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>43</v>
+        <v>49.4</v>
       </c>
       <c r="D34" t="str">
         <f>_xll.RegexString(B34,"^.+[  ]cast.*?[  ](.+?)( on .+)*$",1,1)</f>
-        <v>阵风</v>
+        <v>士风</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A35" s="1">
-        <v>5.2236111111111114E-4</v>
+        <v>5.8123842592592591E-4</v>
       </c>
       <c r="B35" t="s">
-        <v>8</v>
-      </c>
-      <c r="C35" s="3">
+        <v>14</v>
+      </c>
+      <c r="C35" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>45</v>
+        <v>50.2</v>
       </c>
       <c r="D35" t="str">
         <f>_xll.RegexString(B35,"^.+[  ]cast.*?[  ](.+?)( on .+)*$",1,1)</f>
-        <v>月光</v>
+        <v>心眼</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A36" s="1">
-        <v>5.4712962962962962E-4</v>
+        <v>5.9674768518518518E-4</v>
       </c>
       <c r="B36" t="s">
-        <v>2</v>
-      </c>
-      <c r="C36" s="3">
+        <v>5</v>
+      </c>
+      <c r="C36" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>47</v>
+        <v>51.6</v>
       </c>
       <c r="D36" t="str">
         <f>_xll.RegexString(B36,"^.+[  ]cast.*?[  ](.+?)( on .+)*$",1,1)</f>
-        <v>刃风</v>
+        <v>花车</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A37" s="1">
-        <v>5.7193287037037033E-4</v>
+        <v>6.0552083333333334E-4</v>
       </c>
       <c r="B37" t="s">
-        <v>4</v>
-      </c>
-      <c r="C37" s="3">
+        <v>18</v>
+      </c>
+      <c r="C37" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>49</v>
+        <v>52.3</v>
       </c>
       <c r="D37" t="str">
         <f>_xll.RegexString(B37,"^.+[  ]cast.*?[  ](.+?)( on .+)*$",1,1)</f>
-        <v>士风</v>
+        <v>必杀剑·震天</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A38" s="1">
-        <v>5.8123842592592591E-4</v>
+        <v>6.2152777777777781E-4</v>
       </c>
       <c r="B38" t="s">
-        <v>15</v>
-      </c>
-      <c r="C38" s="3">
+        <v>2</v>
+      </c>
+      <c r="C38" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>50</v>
+        <v>53.7</v>
       </c>
       <c r="D38" t="str">
         <f>_xll.RegexString(B38,"^.+[  ]cast.*?[  ](.+?)( on .+)*$",1,1)</f>
-        <v>心眼</v>
+        <v>刃风</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A39" s="1">
-        <v>5.9674768518518518E-4</v>
+        <v>6.3392361111111115E-4</v>
       </c>
       <c r="B39" t="s">
-        <v>5</v>
-      </c>
-      <c r="C39" s="3">
+        <v>17</v>
+      </c>
+      <c r="C39" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>52</v>
+        <v>54.8</v>
       </c>
       <c r="D39" t="str">
         <f>_xll.RegexString(B39,"^.+[  ]cast.*?[  ](.+?)( on .+)*$",1,1)</f>
-        <v>花车</v>
+        <v>必杀剑·星眼</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A40" s="1">
-        <v>6.0552083333333334E-4</v>
+        <v>6.4634259259259256E-4</v>
       </c>
       <c r="B40" t="s">
-        <v>20</v>
-      </c>
-      <c r="C40" s="3">
+        <v>10</v>
+      </c>
+      <c r="C40" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>52</v>
+        <v>55.8</v>
       </c>
       <c r="D40" t="str">
         <f>_xll.RegexString(B40,"^.+[  ]cast.*?[  ](.+?)( on .+)*$",1,1)</f>
-        <v>必杀剑·震天</v>
+        <v>雪风</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A41" s="1">
-        <v>6.2152777777777781E-4</v>
+        <v>6.5564814814814815E-4</v>
       </c>
       <c r="B41" t="s">
-        <v>2</v>
-      </c>
-      <c r="C41" s="3">
+        <v>11</v>
+      </c>
+      <c r="C41" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>54</v>
+        <v>56.6</v>
       </c>
       <c r="D41" t="str">
         <f>_xll.RegexString(B41,"^.+[  ]cast.*?[  ](.+?)( on .+)*$",1,1)</f>
-        <v>刃风</v>
+        <v>必杀剑·回天</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A42" s="1">
-        <v>6.3392361111111115E-4</v>
+        <v>6.7988425925925931E-4</v>
       </c>
       <c r="B42" t="s">
-        <v>19</v>
-      </c>
-      <c r="C42" s="3">
+        <v>12</v>
+      </c>
+      <c r="C42" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>55</v>
+        <v>58.7</v>
       </c>
       <c r="D42" t="str">
         <f>_xll.RegexString(B42,"^.+[  ]cast.*?[  ](.+?)( on .+)*$",1,1)</f>
-        <v>必杀剑·星眼</v>
+        <v>纷乱雪月花</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A43" s="1">
-        <v>6.4634259259259256E-4</v>
+        <v>6.9586805555555558E-4</v>
       </c>
       <c r="B43" t="s">
-        <v>10</v>
-      </c>
-      <c r="C43" s="3">
-        <f t="shared" si="0"/>
-        <v>56</v>
+        <v>2</v>
+      </c>
+      <c r="C43" s="1" t="str">
+        <f t="shared" ref="C43:C106" si="1">TEXT(LEFT(TEXT(A43,"mm:ss.0"),2)&amp;TEXT(A43,"ss.0"),"0.0")</f>
+        <v>100.1</v>
       </c>
       <c r="D43" t="str">
         <f>_xll.RegexString(B43,"^.+[  ]cast.*?[  ](.+?)( on .+)*$",1,1)</f>
-        <v>雪风</v>
+        <v>刃风</v>
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A44" s="1">
-        <v>6.5564814814814815E-4</v>
+        <v>7.2055555555555555E-4</v>
       </c>
       <c r="B44" t="s">
-        <v>11</v>
-      </c>
-      <c r="C44" s="3">
-        <f t="shared" si="0"/>
-        <v>57</v>
+        <v>10</v>
+      </c>
+      <c r="C44" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>102.3</v>
       </c>
       <c r="D44" t="str">
         <f>_xll.RegexString(B44,"^.+[  ]cast.*?[  ](.+?)( on .+)*$",1,1)</f>
-        <v>必杀剑·回天</v>
+        <v>雪风</v>
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A45" s="1">
-        <v>6.71099537037037E-4</v>
+        <v>7.2828703703703695E-4</v>
       </c>
       <c r="B45" t="s">
-        <v>12</v>
-      </c>
-      <c r="C45" s="3">
-        <f t="shared" si="0"/>
-        <v>58</v>
+        <v>3</v>
+      </c>
+      <c r="C45" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>102.9</v>
       </c>
       <c r="D45" t="str">
         <f>_xll.RegexString(B45,"^.+[  ]cast.*?[  ](.+?)( on .+)*$",1,1)</f>
-        <v>纷乱雪月花</v>
+        <v>意气冲天</v>
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A46" s="1">
-        <v>6.7988425925925931E-4</v>
+        <v>7.3652777777777779E-4</v>
       </c>
       <c r="B46" t="s">
-        <v>13</v>
-      </c>
-      <c r="C46" s="3">
-        <f t="shared" si="0"/>
-        <v>59</v>
+        <v>19</v>
+      </c>
+      <c r="C46" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>103.6</v>
       </c>
       <c r="D46" t="str">
         <f>_xll.RegexString(B46,"^.+[  ]cast.*?[  ](.+?)( on .+)*$",1,1)</f>
-        <v>纷乱雪月花</v>
+        <v>叶隐</v>
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A47" s="1">
-        <v>6.9586805555555558E-4</v>
+        <v>7.4582175925925933E-4</v>
       </c>
       <c r="B47" t="s">
         <v>2</v>
       </c>
-      <c r="C47" s="3">
-        <f t="shared" si="0"/>
-        <v>60</v>
+      <c r="C47" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>104.4</v>
       </c>
       <c r="D47" t="str">
         <f>_xll.RegexString(B47,"^.+[  ]cast.*?[  ](.+?)( on .+)*$",1,1)</f>
@@ -1261,126 +1283,126 @@
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A48" s="1">
-        <v>7.2055555555555555E-4</v>
+        <v>7.5358796296296296E-4</v>
       </c>
       <c r="B48" t="s">
-        <v>10</v>
-      </c>
-      <c r="C48" s="3">
-        <f t="shared" si="0"/>
-        <v>62</v>
+        <v>18</v>
+      </c>
+      <c r="C48" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>105.1</v>
       </c>
       <c r="D48" t="str">
         <f>_xll.RegexString(B48,"^.+[  ]cast.*?[  ](.+?)( on .+)*$",1,1)</f>
-        <v>雪风</v>
+        <v>必杀剑·震天</v>
       </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A49" s="1">
-        <v>7.2828703703703695E-4</v>
+        <v>7.6237268518518527E-4</v>
       </c>
       <c r="B49" t="s">
-        <v>3</v>
-      </c>
-      <c r="C49" s="3">
-        <f t="shared" si="0"/>
-        <v>63</v>
+        <v>14</v>
+      </c>
+      <c r="C49" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>105.9</v>
       </c>
       <c r="D49" t="str">
         <f>_xll.RegexString(B49,"^.+[  ]cast.*?[  ](.+?)( on .+)*$",1,1)</f>
-        <v>意气冲天</v>
+        <v>心眼</v>
       </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A50" s="1">
-        <v>7.3652777777777779E-4</v>
+        <v>7.7113425925925928E-4</v>
       </c>
       <c r="B50" t="s">
-        <v>21</v>
-      </c>
-      <c r="C50" s="3">
-        <f t="shared" si="0"/>
-        <v>64</v>
+        <v>6</v>
+      </c>
+      <c r="C50" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>106.6</v>
       </c>
       <c r="D50" t="str">
         <f>_xll.RegexString(B50,"^.+[  ]cast.*?[  ](.+?)( on .+)*$",1,1)</f>
-        <v>叶隐</v>
+        <v>阵风</v>
       </c>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A51" s="1">
-        <v>7.4582175925925933E-4</v>
+        <v>7.7938657407407394E-4</v>
       </c>
       <c r="B51" t="s">
-        <v>2</v>
-      </c>
-      <c r="C51" s="3">
-        <f t="shared" si="0"/>
-        <v>64</v>
+        <v>18</v>
+      </c>
+      <c r="C51" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>107.3</v>
       </c>
       <c r="D51" t="str">
         <f>_xll.RegexString(B51,"^.+[  ]cast.*?[  ](.+?)( on .+)*$",1,1)</f>
-        <v>刃风</v>
+        <v>必杀剑·震天</v>
       </c>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A52" s="1">
-        <v>7.5358796296296296E-4</v>
+        <v>7.9642361111111103E-4</v>
       </c>
       <c r="B52" t="s">
-        <v>20</v>
-      </c>
-      <c r="C52" s="3">
-        <f t="shared" si="0"/>
-        <v>65</v>
+        <v>8</v>
+      </c>
+      <c r="C52" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>108.8</v>
       </c>
       <c r="D52" t="str">
         <f>_xll.RegexString(B52,"^.+[  ]cast.*?[  ](.+?)( on .+)*$",1,1)</f>
-        <v>必杀剑·震天</v>
+        <v>月光</v>
       </c>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A53" s="1">
-        <v>7.6237268518518527E-4</v>
+        <v>8.0519675925925908E-4</v>
       </c>
       <c r="B53" t="s">
-        <v>15</v>
-      </c>
-      <c r="C53" s="3">
-        <f t="shared" si="0"/>
-        <v>66</v>
+        <v>20</v>
+      </c>
+      <c r="C53" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>109.6</v>
       </c>
       <c r="D53" t="str">
         <f>_xll.RegexString(B53,"^.+[  ]cast.*?[  ](.+?)( on .+)*$",1,1)</f>
-        <v>心眼</v>
+        <v>必杀剑·晓天</v>
       </c>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A54" s="1">
-        <v>7.7113425925925928E-4</v>
+        <v>8.2119212962962962E-4</v>
       </c>
       <c r="B54" t="s">
-        <v>6</v>
-      </c>
-      <c r="C54" s="3">
-        <f t="shared" si="0"/>
-        <v>67</v>
+        <v>2</v>
+      </c>
+      <c r="C54" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>111.0</v>
       </c>
       <c r="D54" t="str">
         <f>_xll.RegexString(B54,"^.+[  ]cast.*?[  ](.+?)( on .+)*$",1,1)</f>
-        <v>阵风</v>
+        <v>刃风</v>
       </c>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A55" s="1">
-        <v>7.7938657407407394E-4</v>
+        <v>8.2943287037037046E-4</v>
       </c>
       <c r="B55" t="s">
-        <v>20</v>
-      </c>
-      <c r="C55" s="3">
-        <f t="shared" si="0"/>
-        <v>67</v>
+        <v>18</v>
+      </c>
+      <c r="C55" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>111.7</v>
       </c>
       <c r="D55" t="str">
         <f>_xll.RegexString(B55,"^.+[  ]cast.*?[  ](.+?)( on .+)*$",1,1)</f>
@@ -1389,1294 +1411,1294 @@
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A56" s="1">
-        <v>7.9642361111111103E-4</v>
+        <v>8.4594907407407405E-4</v>
       </c>
       <c r="B56" t="s">
-        <v>8</v>
-      </c>
-      <c r="C56" s="3">
-        <f t="shared" si="0"/>
-        <v>69</v>
+        <v>10</v>
+      </c>
+      <c r="C56" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>113.1</v>
       </c>
       <c r="D56" t="str">
         <f>_xll.RegexString(B56,"^.+[  ]cast.*?[  ](.+?)( on .+)*$",1,1)</f>
-        <v>月光</v>
+        <v>雪风</v>
       </c>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A57" s="1">
-        <v>8.0519675925925908E-4</v>
+        <v>8.5369212962962959E-4</v>
       </c>
       <c r="B57" t="s">
-        <v>22</v>
-      </c>
-      <c r="C57" s="3">
-        <f t="shared" si="0"/>
-        <v>70</v>
+        <v>9</v>
+      </c>
+      <c r="C57" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>113.8</v>
       </c>
       <c r="D57" t="str">
         <f>_xll.RegexString(B57,"^.+[  ]cast.*?[  ](.+?)( on .+)*$",1,1)</f>
-        <v>必杀剑·晓天</v>
+        <v>明镜止水</v>
       </c>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A58" s="1">
-        <v>8.2119212962962962E-4</v>
+        <v>8.7069444444444445E-4</v>
       </c>
       <c r="B58" t="s">
-        <v>2</v>
-      </c>
-      <c r="C58" s="3">
-        <f t="shared" si="0"/>
-        <v>71</v>
+        <v>5</v>
+      </c>
+      <c r="C58" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>115.2</v>
       </c>
       <c r="D58" t="str">
         <f>_xll.RegexString(B58,"^.+[  ]cast.*?[  ](.+?)( on .+)*$",1,1)</f>
-        <v>刃风</v>
+        <v>花车</v>
       </c>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A59" s="1">
-        <v>8.2943287037037046E-4</v>
+        <v>8.7947916666666676E-4</v>
       </c>
       <c r="B59" t="s">
-        <v>20</v>
-      </c>
-      <c r="C59" s="3">
-        <f t="shared" si="0"/>
-        <v>72</v>
+        <v>11</v>
+      </c>
+      <c r="C59" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>116.0</v>
       </c>
       <c r="D59" t="str">
         <f>_xll.RegexString(B59,"^.+[  ]cast.*?[  ](.+?)( on .+)*$",1,1)</f>
-        <v>必杀剑·震天</v>
+        <v>必杀剑·回天</v>
       </c>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A60" s="1">
-        <v>8.4594907407407405E-4</v>
+        <v>9.0425925925925927E-4</v>
       </c>
       <c r="B60" t="s">
-        <v>10</v>
-      </c>
-      <c r="C60" s="3">
-        <f t="shared" si="0"/>
-        <v>73</v>
+        <v>12</v>
+      </c>
+      <c r="C60" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>118.1</v>
       </c>
       <c r="D60" t="str">
         <f>_xll.RegexString(B60,"^.+[  ]cast.*?[  ](.+?)( on .+)*$",1,1)</f>
-        <v>雪风</v>
+        <v>纷乱雪月花</v>
       </c>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A61" s="1">
-        <v>8.5369212962962959E-4</v>
+        <v>9.1146990740740739E-4</v>
       </c>
       <c r="B61" t="s">
-        <v>9</v>
-      </c>
-      <c r="C61" s="3">
-        <f t="shared" si="0"/>
-        <v>74</v>
+        <v>16</v>
+      </c>
+      <c r="C61" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>118.8</v>
       </c>
       <c r="D61" t="str">
         <f>_xll.RegexString(B61,"^.+[  ]cast.*?[  ](.+?)( on .+)*$",1,1)</f>
-        <v>明镜止水</v>
+        <v>照破</v>
       </c>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A62" s="1">
-        <v>8.7069444444444445E-4</v>
+        <v>9.2025462962962948E-4</v>
       </c>
       <c r="B62" t="s">
-        <v>5</v>
-      </c>
-      <c r="C62" s="3">
-        <f t="shared" si="0"/>
-        <v>75</v>
+        <v>13</v>
+      </c>
+      <c r="C62" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>119.5</v>
       </c>
       <c r="D62" t="str">
         <f>_xll.RegexString(B62,"^.+[  ]cast.*?[  ](.+?)( on .+)*$",1,1)</f>
-        <v>花车</v>
+        <v>回返雪月花</v>
       </c>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A63" s="1">
-        <v>8.7947916666666676E-4</v>
+        <v>9.2899305555555563E-4</v>
       </c>
       <c r="B63" t="s">
-        <v>11</v>
-      </c>
-      <c r="C63" s="3">
-        <f t="shared" si="0"/>
-        <v>76</v>
+        <v>17</v>
+      </c>
+      <c r="C63" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>120.3</v>
       </c>
       <c r="D63" t="str">
         <f>_xll.RegexString(B63,"^.+[  ]cast.*?[  ](.+?)( on .+)*$",1,1)</f>
-        <v>必杀剑·回天</v>
+        <v>必杀剑·星眼</v>
       </c>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A64" s="1">
-        <v>8.9547453703703707E-4</v>
+        <v>9.4552083333333337E-4</v>
       </c>
       <c r="B64" t="s">
-        <v>12</v>
-      </c>
-      <c r="C64" s="3">
-        <f t="shared" si="0"/>
-        <v>77</v>
+        <v>8</v>
+      </c>
+      <c r="C64" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>121.7</v>
       </c>
       <c r="D64" t="str">
         <f>_xll.RegexString(B64,"^.+[  ]cast.*?[  ](.+?)( on .+)*$",1,1)</f>
-        <v>纷乱雪月花</v>
+        <v>月光</v>
       </c>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A65" s="1">
-        <v>9.0425925925925927E-4</v>
+        <v>9.5326388888888891E-4</v>
       </c>
       <c r="B65" t="s">
-        <v>13</v>
-      </c>
-      <c r="C65" s="3">
-        <f t="shared" si="0"/>
-        <v>78</v>
+        <v>11</v>
+      </c>
+      <c r="C65" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>122.4</v>
       </c>
       <c r="D65" t="str">
         <f>_xll.RegexString(B65,"^.+[  ]cast.*?[  ](.+?)( on .+)*$",1,1)</f>
-        <v>纷乱雪月花</v>
+        <v>必杀剑·回天</v>
       </c>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A66" s="1">
-        <v>9.1146990740740739E-4</v>
+        <v>9.7907407407407405E-4</v>
       </c>
       <c r="B66" t="s">
-        <v>18</v>
-      </c>
-      <c r="C66" s="3">
-        <f t="shared" ref="C66:C129" si="1">SECOND(A66)+MINUTE(A66)*60</f>
-        <v>79</v>
+        <v>15</v>
+      </c>
+      <c r="C66" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>124.6</v>
       </c>
       <c r="D66" t="str">
         <f>_xll.RegexString(B66,"^.+[  ]cast.*?[  ](.+?)( on .+)*$",1,1)</f>
-        <v>照破</v>
+        <v>彼岸花</v>
       </c>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A67" s="1">
-        <v>9.2025462962962948E-4</v>
+        <v>9.863194444444444E-4</v>
       </c>
       <c r="B67" t="s">
-        <v>14</v>
-      </c>
-      <c r="C67" s="3">
+        <v>21</v>
+      </c>
+      <c r="C67" s="1" t="str">
         <f t="shared" si="1"/>
-        <v>80</v>
+        <v>125.2</v>
       </c>
       <c r="D67" t="str">
         <f>_xll.RegexString(B67,"^.+[  ]cast.*?[  ](.+?)( on .+)*$",1,1)</f>
-        <v>回返雪月花</v>
+        <v>真北</v>
       </c>
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A68" s="1">
-        <v>9.2899305555555563E-4</v>
+        <v>9.9510416666666649E-4</v>
       </c>
       <c r="B68" t="s">
-        <v>19</v>
-      </c>
-      <c r="C68" s="3">
+        <v>8</v>
+      </c>
+      <c r="C68" s="1" t="str">
         <f t="shared" si="1"/>
-        <v>80</v>
+        <v>126.0</v>
       </c>
       <c r="D68" t="str">
         <f>_xll.RegexString(B68,"^.+[  ]cast.*?[  ](.+?)( on .+)*$",1,1)</f>
-        <v>必杀剑·星眼</v>
+        <v>月光</v>
       </c>
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A69" s="1">
-        <v>9.4552083333333337E-4</v>
+        <v>1.0203587962962963E-3</v>
       </c>
       <c r="B69" t="s">
-        <v>8</v>
-      </c>
-      <c r="C69" s="3">
+        <v>2</v>
+      </c>
+      <c r="C69" s="1" t="str">
         <f t="shared" si="1"/>
-        <v>82</v>
+        <v>128.2</v>
       </c>
       <c r="D69" t="str">
         <f>_xll.RegexString(B69,"^.+[  ]cast.*?[  ](.+?)( on .+)*$",1,1)</f>
-        <v>月光</v>
+        <v>刃风</v>
       </c>
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A70" s="1">
-        <v>9.5326388888888891E-4</v>
+        <v>1.0291550925925926E-3</v>
       </c>
       <c r="B70" t="s">
-        <v>11</v>
-      </c>
-      <c r="C70" s="3">
+        <v>18</v>
+      </c>
+      <c r="C70" s="1" t="str">
         <f t="shared" si="1"/>
-        <v>82</v>
+        <v>128.9</v>
       </c>
       <c r="D70" t="str">
         <f>_xll.RegexString(B70,"^.+[  ]cast.*?[  ](.+?)( on .+)*$",1,1)</f>
-        <v>必杀剑·回天</v>
+        <v>必杀剑·震天</v>
       </c>
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A71" s="1">
-        <v>9.702777777777778E-4</v>
+        <v>1.0450925925925925E-3</v>
       </c>
       <c r="B71" t="s">
-        <v>16</v>
-      </c>
-      <c r="C71" s="3">
+        <v>4</v>
+      </c>
+      <c r="C71" s="1" t="str">
         <f t="shared" si="1"/>
-        <v>84</v>
+        <v>130.3</v>
       </c>
       <c r="D71" t="str">
         <f>_xll.RegexString(B71,"^.+[  ]cast.*?[  ](.+?)( on .+)*$",1,1)</f>
-        <v>彼岸花</v>
+        <v>士风</v>
       </c>
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A72" s="1">
-        <v>9.7907407407407405E-4</v>
+        <v>1.0734837962962961E-3</v>
       </c>
       <c r="B72" t="s">
-        <v>17</v>
-      </c>
-      <c r="C72" s="3">
+        <v>5</v>
+      </c>
+      <c r="C72" s="1" t="str">
         <f t="shared" si="1"/>
-        <v>85</v>
+        <v>132.7</v>
       </c>
       <c r="D72" t="str">
         <f>_xll.RegexString(B72,"^.+[  ]cast.*?[  ](.+?)( on .+)*$",1,1)</f>
-        <v>彼岸花</v>
+        <v>花车</v>
       </c>
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A73" s="1">
-        <v>9.863194444444444E-4</v>
+        <v>1.0982523148148147E-3</v>
       </c>
       <c r="B73" t="s">
-        <v>23</v>
-      </c>
-      <c r="C73" s="3">
+        <v>2</v>
+      </c>
+      <c r="C73" s="1" t="str">
         <f t="shared" si="1"/>
-        <v>85</v>
+        <v>134.9</v>
       </c>
       <c r="D73" t="str">
         <f>_xll.RegexString(B73,"^.+[  ]cast.*?[  ](.+?)( on .+)*$",1,1)</f>
-        <v>真北</v>
+        <v>刃风</v>
       </c>
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A74" s="1">
-        <v>9.9510416666666649E-4</v>
+        <v>1.1229861111111113E-3</v>
       </c>
       <c r="B74" t="s">
-        <v>8</v>
-      </c>
-      <c r="C74" s="3">
+        <v>10</v>
+      </c>
+      <c r="C74" s="1" t="str">
         <f t="shared" si="1"/>
-        <v>86</v>
+        <v>137.0</v>
       </c>
       <c r="D74" t="str">
         <f>_xll.RegexString(B74,"^.+[  ]cast.*?[  ](.+?)( on .+)*$",1,1)</f>
-        <v>月光</v>
+        <v>雪风</v>
       </c>
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A75" s="1">
-        <v>1.0203587962962963E-3</v>
+        <v>1.1338078703703703E-3</v>
       </c>
       <c r="B75" t="s">
-        <v>2</v>
-      </c>
-      <c r="C75" s="3">
+        <v>11</v>
+      </c>
+      <c r="C75" s="1" t="str">
         <f t="shared" si="1"/>
-        <v>88</v>
+        <v>138.0</v>
       </c>
       <c r="D75" t="str">
         <f>_xll.RegexString(B75,"^.+[  ]cast.*?[  ](.+?)( on .+)*$",1,1)</f>
-        <v>刃风</v>
+        <v>必杀剑·回天</v>
       </c>
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A76" s="1">
-        <v>1.0291550925925926E-3</v>
+        <v>1.1565162037037037E-3</v>
       </c>
       <c r="B76" t="s">
-        <v>20</v>
-      </c>
-      <c r="C76" s="3">
+        <v>12</v>
+      </c>
+      <c r="C76" s="1" t="str">
         <f t="shared" si="1"/>
-        <v>89</v>
+        <v>139.9</v>
       </c>
       <c r="D76" t="str">
         <f>_xll.RegexString(B76,"^.+[  ]cast.*?[  ](.+?)( on .+)*$",1,1)</f>
-        <v>必杀剑·震天</v>
+        <v>纷乱雪月花</v>
       </c>
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A77" s="1">
-        <v>1.0450925925925925E-3</v>
+        <v>1.164247685185185E-3</v>
       </c>
       <c r="B77" t="s">
-        <v>4</v>
-      </c>
-      <c r="C77" s="3">
+        <v>14</v>
+      </c>
+      <c r="C77" s="1" t="str">
         <f t="shared" si="1"/>
-        <v>90</v>
+        <v>140.6</v>
       </c>
       <c r="D77" t="str">
         <f>_xll.RegexString(B77,"^.+[  ]cast.*?[  ](.+?)( on .+)*$",1,1)</f>
-        <v>士风</v>
+        <v>心眼</v>
       </c>
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A78" s="1">
-        <v>1.0734837962962961E-3</v>
+        <v>1.172488425925926E-3</v>
       </c>
       <c r="B78" t="s">
-        <v>5</v>
-      </c>
-      <c r="C78" s="3">
+        <v>2</v>
+      </c>
+      <c r="C78" s="1" t="str">
         <f t="shared" si="1"/>
-        <v>93</v>
+        <v>141.3</v>
       </c>
       <c r="D78" t="str">
         <f>_xll.RegexString(B78,"^.+[  ]cast.*?[  ](.+?)( on .+)*$",1,1)</f>
-        <v>花车</v>
+        <v>刃风</v>
       </c>
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A79" s="1">
-        <v>1.0982523148148147E-3</v>
+        <v>1.1802083333333332E-3</v>
       </c>
       <c r="B79" t="s">
-        <v>2</v>
-      </c>
-      <c r="C79" s="3">
+        <v>16</v>
+      </c>
+      <c r="C79" s="1" t="str">
         <f t="shared" si="1"/>
-        <v>95</v>
+        <v>142.0</v>
       </c>
       <c r="D79" t="str">
         <f>_xll.RegexString(B79,"^.+[  ]cast.*?[  ](.+?)( on .+)*$",1,1)</f>
-        <v>刃风</v>
+        <v>照破</v>
       </c>
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A80" s="1">
-        <v>1.1229861111111113E-3</v>
+        <v>1.1972106481481482E-3</v>
       </c>
       <c r="B80" t="s">
-        <v>10</v>
-      </c>
-      <c r="C80" s="3">
+        <v>6</v>
+      </c>
+      <c r="C80" s="1" t="str">
         <f t="shared" si="1"/>
-        <v>97</v>
+        <v>143.4</v>
       </c>
       <c r="D80" t="str">
         <f>_xll.RegexString(B80,"^.+[  ]cast.*?[  ](.+?)( on .+)*$",1,1)</f>
-        <v>雪风</v>
+        <v>阵风</v>
       </c>
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A81" s="1">
-        <v>1.1338078703703703E-3</v>
+        <v>1.2054513888888889E-3</v>
       </c>
       <c r="B81" t="s">
-        <v>11</v>
-      </c>
-      <c r="C81" s="3">
+        <v>17</v>
+      </c>
+      <c r="C81" s="1" t="str">
         <f t="shared" si="1"/>
-        <v>98</v>
+        <v>144.2</v>
       </c>
       <c r="D81" t="str">
         <f>_xll.RegexString(B81,"^.+[  ]cast.*?[  ](.+?)( on .+)*$",1,1)</f>
-        <v>必杀剑·回天</v>
+        <v>必杀剑·星眼</v>
       </c>
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A82" s="1">
-        <v>1.1477546296296294E-3</v>
+        <v>1.2230208333333333E-3</v>
       </c>
       <c r="B82" t="s">
-        <v>12</v>
-      </c>
-      <c r="C82" s="3">
+        <v>8</v>
+      </c>
+      <c r="C82" s="1" t="str">
         <f t="shared" si="1"/>
-        <v>99</v>
+        <v>145.7</v>
       </c>
       <c r="D82" t="str">
         <f>_xll.RegexString(B82,"^.+[  ]cast.*?[  ](.+?)( on .+)*$",1,1)</f>
-        <v>纷乱雪月花</v>
+        <v>月光</v>
       </c>
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A83" s="1">
-        <v>1.1565162037037037E-3</v>
+        <v>1.2478009259259259E-3</v>
       </c>
       <c r="B83" t="s">
-        <v>13</v>
-      </c>
-      <c r="C83" s="3">
+        <v>2</v>
+      </c>
+      <c r="C83" s="1" t="str">
         <f t="shared" si="1"/>
-        <v>100</v>
+        <v>147.8</v>
       </c>
       <c r="D83" t="str">
         <f>_xll.RegexString(B83,"^.+[  ]cast.*?[  ](.+?)( on .+)*$",1,1)</f>
-        <v>纷乱雪月花</v>
+        <v>刃风</v>
       </c>
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A84" s="1">
-        <v>1.164247685185185E-3</v>
+        <v>1.2555324074074075E-3</v>
       </c>
       <c r="B84" t="s">
-        <v>15</v>
-      </c>
-      <c r="C84" s="3">
+        <v>18</v>
+      </c>
+      <c r="C84" s="1" t="str">
         <f t="shared" si="1"/>
-        <v>101</v>
+        <v>148.5</v>
       </c>
       <c r="D84" t="str">
         <f>_xll.RegexString(B84,"^.+[  ]cast.*?[  ](.+?)( on .+)*$",1,1)</f>
-        <v>心眼</v>
+        <v>必杀剑·震天</v>
       </c>
     </row>
     <row r="85" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A85" s="1">
-        <v>1.172488425925926E-3</v>
+        <v>1.2730439814814816E-3</v>
       </c>
       <c r="B85" t="s">
-        <v>2</v>
-      </c>
-      <c r="C85" s="3">
+        <v>4</v>
+      </c>
+      <c r="C85" s="1" t="str">
         <f t="shared" si="1"/>
-        <v>101</v>
+        <v>150.0</v>
       </c>
       <c r="D85" t="str">
         <f>_xll.RegexString(B85,"^.+[  ]cast.*?[  ](.+?)( on .+)*$",1,1)</f>
-        <v>刃风</v>
+        <v>士风</v>
       </c>
     </row>
     <row r="86" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A86" s="1">
-        <v>1.1802083333333332E-3</v>
+        <v>1.2977893518518518E-3</v>
       </c>
       <c r="B86" t="s">
-        <v>18</v>
-      </c>
-      <c r="C86" s="3">
+        <v>5</v>
+      </c>
+      <c r="C86" s="1" t="str">
         <f t="shared" si="1"/>
-        <v>102</v>
+        <v>152.1</v>
       </c>
       <c r="D86" t="str">
         <f>_xll.RegexString(B86,"^.+[  ]cast.*?[  ](.+?)( on .+)*$",1,1)</f>
-        <v>照破</v>
+        <v>花车</v>
       </c>
     </row>
     <row r="87" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A87" s="1">
-        <v>1.1972106481481482E-3</v>
+        <v>1.3225347222222223E-3</v>
       </c>
       <c r="B87" t="s">
-        <v>6</v>
-      </c>
-      <c r="C87" s="3">
+        <v>2</v>
+      </c>
+      <c r="C87" s="1" t="str">
         <f t="shared" si="1"/>
-        <v>103</v>
+        <v>154.3</v>
       </c>
       <c r="D87" t="str">
         <f>_xll.RegexString(B87,"^.+[  ]cast.*?[  ](.+?)( on .+)*$",1,1)</f>
-        <v>阵风</v>
+        <v>刃风</v>
       </c>
     </row>
     <row r="88" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A88" s="1">
-        <v>1.2054513888888889E-3</v>
+        <v>1.3385532407407408E-3</v>
       </c>
       <c r="B88" t="s">
-        <v>19</v>
-      </c>
-      <c r="C88" s="3">
+        <v>14</v>
+      </c>
+      <c r="C88" s="1" t="str">
         <f t="shared" si="1"/>
-        <v>104</v>
+        <v>155.7</v>
       </c>
       <c r="D88" t="str">
         <f>_xll.RegexString(B88,"^.+[  ]cast.*?[  ](.+?)( on .+)*$",1,1)</f>
-        <v>必杀剑·星眼</v>
+        <v>心眼</v>
       </c>
     </row>
     <row r="89" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A89" s="1">
-        <v>1.2230208333333333E-3</v>
+        <v>1.347326388888889E-3</v>
       </c>
       <c r="B89" t="s">
-        <v>8</v>
-      </c>
-      <c r="C89" s="3">
+        <v>10</v>
+      </c>
+      <c r="C89" s="1" t="str">
         <f t="shared" si="1"/>
-        <v>106</v>
+        <v>156.4</v>
       </c>
       <c r="D89" t="str">
         <f>_xll.RegexString(B89,"^.+[  ]cast.*?[  ](.+?)( on .+)*$",1,1)</f>
-        <v>月光</v>
+        <v>雪风</v>
       </c>
     </row>
     <row r="90" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A90" s="1">
-        <v>1.2478009259259259E-3</v>
+        <v>1.3566203703703702E-3</v>
       </c>
       <c r="B90" t="s">
-        <v>2</v>
-      </c>
-      <c r="C90" s="3">
+        <v>11</v>
+      </c>
+      <c r="C90" s="1" t="str">
         <f t="shared" si="1"/>
-        <v>108</v>
+        <v>157.2</v>
       </c>
       <c r="D90" t="str">
         <f>_xll.RegexString(B90,"^.+[  ]cast.*?[  ](.+?)( on .+)*$",1,1)</f>
-        <v>刃风</v>
+        <v>必杀剑·回天</v>
       </c>
     </row>
     <row r="91" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A91" s="1">
-        <v>1.2555324074074075E-3</v>
+        <v>1.3808680555555555E-3</v>
       </c>
       <c r="B91" t="s">
-        <v>20</v>
-      </c>
-      <c r="C91" s="3">
+        <v>12</v>
+      </c>
+      <c r="C91" s="1" t="str">
         <f t="shared" si="1"/>
-        <v>108</v>
+        <v>159.3</v>
       </c>
       <c r="D91" t="str">
         <f>_xll.RegexString(B91,"^.+[  ]cast.*?[  ](.+?)( on .+)*$",1,1)</f>
-        <v>必杀剑·震天</v>
+        <v>纷乱雪月花</v>
       </c>
     </row>
     <row r="92" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A92" s="1">
-        <v>1.2730439814814816E-3</v>
+        <v>1.3968287037037037E-3</v>
       </c>
       <c r="B92" t="s">
-        <v>4</v>
-      </c>
-      <c r="C92" s="3">
+        <v>2</v>
+      </c>
+      <c r="C92" s="1" t="str">
         <f t="shared" si="1"/>
-        <v>110</v>
+        <v>200.7</v>
       </c>
       <c r="D92" t="str">
         <f>_xll.RegexString(B92,"^.+[  ]cast.*?[  ](.+?)( on .+)*$",1,1)</f>
-        <v>士风</v>
+        <v>刃风</v>
       </c>
     </row>
     <row r="93" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A93" s="1">
-        <v>1.2977893518518518E-3</v>
+        <v>1.4215856481481482E-3</v>
       </c>
       <c r="B93" t="s">
-        <v>5</v>
-      </c>
-      <c r="C93" s="3">
+        <v>6</v>
+      </c>
+      <c r="C93" s="1" t="str">
         <f t="shared" si="1"/>
-        <v>112</v>
+        <v>202.8</v>
       </c>
       <c r="D93" t="str">
         <f>_xll.RegexString(B93,"^.+[  ]cast.*?[  ](.+?)( on .+)*$",1,1)</f>
-        <v>花车</v>
+        <v>阵风</v>
       </c>
     </row>
     <row r="94" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A94" s="1">
-        <v>1.3225347222222223E-3</v>
+        <v>1.4298379629629628E-3</v>
       </c>
       <c r="B94" t="s">
-        <v>2</v>
-      </c>
-      <c r="C94" s="3">
+        <v>3</v>
+      </c>
+      <c r="C94" s="1" t="str">
         <f t="shared" si="1"/>
-        <v>114</v>
+        <v>203.5</v>
       </c>
       <c r="D94" t="str">
         <f>_xll.RegexString(B94,"^.+[  ]cast.*?[  ](.+?)( on .+)*$",1,1)</f>
-        <v>刃风</v>
+        <v>意气冲天</v>
       </c>
     </row>
     <row r="95" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A95" s="1">
-        <v>1.3385532407407408E-3</v>
+        <v>1.4381134259259258E-3</v>
       </c>
       <c r="B95" t="s">
-        <v>15</v>
-      </c>
-      <c r="C95" s="3">
+        <v>21</v>
+      </c>
+      <c r="C95" s="1" t="str">
         <f t="shared" si="1"/>
-        <v>116</v>
+        <v>204.3</v>
       </c>
       <c r="D95" t="str">
         <f>_xll.RegexString(B95,"^.+[  ]cast.*?[  ](.+?)( on .+)*$",1,1)</f>
-        <v>心眼</v>
+        <v>真北</v>
       </c>
     </row>
     <row r="96" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A96" s="1">
-        <v>1.347326388888889E-3</v>
+        <v>1.4463773148148151E-3</v>
       </c>
       <c r="B96" t="s">
-        <v>10</v>
-      </c>
-      <c r="C96" s="3">
+        <v>8</v>
+      </c>
+      <c r="C96" s="1" t="str">
         <f t="shared" si="1"/>
-        <v>116</v>
+        <v>205.0</v>
       </c>
       <c r="D96" t="str">
         <f>_xll.RegexString(B96,"^.+[  ]cast.*?[  ](.+?)( on .+)*$",1,1)</f>
-        <v>雪风</v>
+        <v>月光</v>
       </c>
     </row>
     <row r="97" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A97" s="1">
-        <v>1.3566203703703702E-3</v>
+        <v>1.4592708333333333E-3</v>
       </c>
       <c r="B97" t="s">
-        <v>11</v>
-      </c>
-      <c r="C97" s="3">
+        <v>18</v>
+      </c>
+      <c r="C97" s="1" t="str">
         <f t="shared" si="1"/>
-        <v>117</v>
+        <v>206.1</v>
       </c>
       <c r="D97" t="str">
         <f>_xll.RegexString(B97,"^.+[  ]cast.*?[  ](.+?)( on .+)*$",1,1)</f>
-        <v>必杀剑·回天</v>
+        <v>必杀剑·震天</v>
       </c>
     </row>
     <row r="98" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A98" s="1">
-        <v>1.3721180555555555E-3</v>
+        <v>1.4721990740740739E-3</v>
       </c>
       <c r="B98" t="s">
-        <v>12</v>
-      </c>
-      <c r="C98" s="3">
+        <v>2</v>
+      </c>
+      <c r="C98" s="1" t="str">
         <f t="shared" si="1"/>
-        <v>119</v>
+        <v>207.2</v>
       </c>
       <c r="D98" t="str">
         <f>_xll.RegexString(B98,"^.+[  ]cast.*?[  ](.+?)( on .+)*$",1,1)</f>
-        <v>纷乱雪月花</v>
+        <v>刃风</v>
       </c>
     </row>
     <row r="99" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A99" s="1">
-        <v>1.3808680555555555E-3</v>
+        <v>1.4969675925925925E-3</v>
       </c>
       <c r="B99" t="s">
-        <v>13</v>
-      </c>
-      <c r="C99" s="3">
+        <v>4</v>
+      </c>
+      <c r="C99" s="1" t="str">
         <f t="shared" si="1"/>
-        <v>119</v>
+        <v>209.3</v>
       </c>
       <c r="D99" t="str">
         <f>_xll.RegexString(B99,"^.+[  ]cast.*?[  ](.+?)( on .+)*$",1,1)</f>
-        <v>纷乱雪月花</v>
+        <v>士风</v>
       </c>
     </row>
     <row r="100" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A100" s="1">
-        <v>1.3968287037037037E-3</v>
+        <v>1.5052314814814815E-3</v>
       </c>
       <c r="B100" t="s">
-        <v>2</v>
-      </c>
-      <c r="C100" s="3">
+        <v>17</v>
+      </c>
+      <c r="C100" s="1" t="str">
         <f t="shared" si="1"/>
-        <v>121</v>
+        <v>210.1</v>
       </c>
       <c r="D100" t="str">
         <f>_xll.RegexString(B100,"^.+[  ]cast.*?[  ](.+?)( on .+)*$",1,1)</f>
-        <v>刃风</v>
+        <v>必杀剑·星眼</v>
       </c>
     </row>
     <row r="101" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A101" s="1">
-        <v>1.4215856481481482E-3</v>
+        <v>1.5216782407407408E-3</v>
       </c>
       <c r="B101" t="s">
-        <v>6</v>
-      </c>
-      <c r="C101" s="3">
+        <v>5</v>
+      </c>
+      <c r="C101" s="1" t="str">
         <f t="shared" si="1"/>
-        <v>123</v>
+        <v>211.5</v>
       </c>
       <c r="D101" t="str">
         <f>_xll.RegexString(B101,"^.+[  ]cast.*?[  ](.+?)( on .+)*$",1,1)</f>
-        <v>阵风</v>
+        <v>花车</v>
       </c>
     </row>
     <row r="102" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A102" s="1">
-        <v>1.4298379629629628E-3</v>
+        <v>1.574803240740741E-3</v>
       </c>
       <c r="B102" t="s">
-        <v>3</v>
-      </c>
-      <c r="C102" s="3">
+        <v>20</v>
+      </c>
+      <c r="C102" s="1" t="str">
         <f t="shared" si="1"/>
-        <v>124</v>
+        <v>216.1</v>
       </c>
       <c r="D102" t="str">
         <f>_xll.RegexString(B102,"^.+[  ]cast.*?[  ](.+?)( on .+)*$",1,1)</f>
-        <v>意气冲天</v>
+        <v>必杀剑·晓天</v>
       </c>
     </row>
     <row r="103" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A103" s="1">
-        <v>1.4381134259259258E-3</v>
+        <v>1.5830324074074073E-3</v>
       </c>
       <c r="B103" t="s">
-        <v>23</v>
-      </c>
-      <c r="C103" s="3">
+        <v>2</v>
+      </c>
+      <c r="C103" s="1" t="str">
         <f t="shared" si="1"/>
-        <v>124</v>
+        <v>216.8</v>
       </c>
       <c r="D103" t="str">
         <f>_xll.RegexString(B103,"^.+[  ]cast.*?[  ](.+?)( on .+)*$",1,1)</f>
-        <v>真北</v>
+        <v>刃风</v>
       </c>
     </row>
     <row r="104" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A104" s="1">
-        <v>1.4463773148148151E-3</v>
+        <v>1.5918287037037038E-3</v>
       </c>
       <c r="B104" t="s">
-        <v>8</v>
-      </c>
-      <c r="C104" s="3">
+        <v>14</v>
+      </c>
+      <c r="C104" s="1" t="str">
         <f t="shared" si="1"/>
-        <v>125</v>
+        <v>217.5</v>
       </c>
       <c r="D104" t="str">
         <f>_xll.RegexString(B104,"^.+[  ]cast.*?[  ](.+?)( on .+)*$",1,1)</f>
-        <v>月光</v>
+        <v>心眼</v>
       </c>
     </row>
     <row r="105" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A105" s="1">
-        <v>1.4592708333333333E-3</v>
+        <v>1.6026504629629628E-3</v>
       </c>
       <c r="B105" t="s">
-        <v>20</v>
-      </c>
-      <c r="C105" s="3">
+        <v>7</v>
+      </c>
+      <c r="C105" s="1" t="str">
         <f t="shared" si="1"/>
-        <v>126</v>
+        <v>218.5</v>
       </c>
       <c r="D105" t="str">
         <f>_xll.RegexString(B105,"^.+[  ]cast.*?[  ](.+?)( on .+)*$",1,1)</f>
-        <v>必杀剑·震天</v>
+        <v>必杀剑·闪影</v>
       </c>
     </row>
     <row r="106" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A106" s="1">
-        <v>1.4721990740740739E-3</v>
+        <v>1.6114120370370371E-3</v>
       </c>
       <c r="B106" t="s">
-        <v>2</v>
-      </c>
-      <c r="C106" s="3">
+        <v>10</v>
+      </c>
+      <c r="C106" s="1" t="str">
         <f t="shared" si="1"/>
-        <v>127</v>
+        <v>219.2</v>
       </c>
       <c r="D106" t="str">
         <f>_xll.RegexString(B106,"^.+[  ]cast.*?[  ](.+?)( on .+)*$",1,1)</f>
-        <v>刃风</v>
+        <v>雪风</v>
       </c>
     </row>
     <row r="107" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A107" s="1">
-        <v>1.4969675925925925E-3</v>
+        <v>1.620150462962963E-3</v>
       </c>
       <c r="B107" t="s">
-        <v>4</v>
-      </c>
-      <c r="C107" s="3">
-        <f t="shared" si="1"/>
-        <v>129</v>
+        <v>9</v>
+      </c>
+      <c r="C107" s="1" t="str">
+        <f t="shared" ref="C107:C170" si="2">TEXT(LEFT(TEXT(A107,"mm:ss.0"),2)&amp;TEXT(A107,"ss.0"),"0.0")</f>
+        <v>220.0</v>
       </c>
       <c r="D107" t="str">
         <f>_xll.RegexString(B107,"^.+[  ]cast.*?[  ](.+?)( on .+)*$",1,1)</f>
-        <v>士风</v>
+        <v>明镜止水</v>
       </c>
     </row>
     <row r="108" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A108" s="1">
-        <v>1.5052314814814815E-3</v>
+        <v>1.6278819444444446E-3</v>
       </c>
       <c r="B108" t="s">
-        <v>19</v>
-      </c>
-      <c r="C108" s="3">
-        <f t="shared" si="1"/>
-        <v>130</v>
+        <v>11</v>
+      </c>
+      <c r="C108" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>220.6</v>
       </c>
       <c r="D108" t="str">
         <f>_xll.RegexString(B108,"^.+[  ]cast.*?[  ](.+?)( on .+)*$",1,1)</f>
-        <v>必杀剑·星眼</v>
+        <v>必杀剑·回天</v>
       </c>
     </row>
     <row r="109" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A109" s="1">
-        <v>1.5216782407407408E-3</v>
+        <v>1.6449189814814814E-3</v>
       </c>
       <c r="B109" t="s">
-        <v>5</v>
-      </c>
-      <c r="C109" s="3">
-        <f t="shared" si="1"/>
-        <v>131</v>
+        <v>12</v>
+      </c>
+      <c r="C109" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>222.1</v>
       </c>
       <c r="D109" t="str">
         <f>_xll.RegexString(B109,"^.+[  ]cast.*?[  ](.+?)( on .+)*$",1,1)</f>
-        <v>花车</v>
+        <v>纷乱雪月花</v>
       </c>
     </row>
     <row r="110" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A110" s="1">
-        <v>1.574803240740741E-3</v>
+        <v>1.6609143518518518E-3</v>
       </c>
       <c r="B110" t="s">
-        <v>22</v>
-      </c>
-      <c r="C110" s="3">
-        <f t="shared" si="1"/>
-        <v>136</v>
+        <v>13</v>
+      </c>
+      <c r="C110" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>223.5</v>
       </c>
       <c r="D110" t="str">
         <f>_xll.RegexString(B110,"^.+[  ]cast.*?[  ](.+?)( on .+)*$",1,1)</f>
-        <v>必杀剑·晓天</v>
+        <v>回返雪月花</v>
       </c>
     </row>
     <row r="111" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A111" s="1">
-        <v>1.5830324074074073E-3</v>
+        <v>1.6686574074074075E-3</v>
       </c>
       <c r="B111" t="s">
-        <v>2</v>
-      </c>
-      <c r="C111" s="3">
-        <f t="shared" si="1"/>
-        <v>137</v>
+        <v>16</v>
+      </c>
+      <c r="C111" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>224.2</v>
       </c>
       <c r="D111" t="str">
         <f>_xll.RegexString(B111,"^.+[  ]cast.*?[  ](.+?)( on .+)*$",1,1)</f>
-        <v>刃风</v>
+        <v>照破</v>
       </c>
     </row>
     <row r="112" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A112" s="1">
-        <v>1.5918287037037038E-3</v>
+        <v>1.6862037037037036E-3</v>
       </c>
       <c r="B112" t="s">
-        <v>15</v>
-      </c>
-      <c r="C112" s="3">
-        <f t="shared" si="1"/>
-        <v>138</v>
+        <v>8</v>
+      </c>
+      <c r="C112" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>225.7</v>
       </c>
       <c r="D112" t="str">
         <f>_xll.RegexString(B112,"^.+[  ]cast.*?[  ](.+?)( on .+)*$",1,1)</f>
-        <v>心眼</v>
+        <v>月光</v>
       </c>
     </row>
     <row r="113" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A113" s="1">
-        <v>1.6026504629629628E-3</v>
+        <v>1.6944444444444444E-3</v>
       </c>
       <c r="B113" t="s">
-        <v>7</v>
-      </c>
-      <c r="C113" s="3">
-        <f t="shared" si="1"/>
-        <v>138</v>
+        <v>11</v>
+      </c>
+      <c r="C113" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>226.4</v>
       </c>
       <c r="D113" t="str">
         <f>_xll.RegexString(B113,"^.+[  ]cast.*?[  ](.+?)( on .+)*$",1,1)</f>
-        <v>必杀剑·闪影</v>
+        <v>必杀剑·回天</v>
       </c>
     </row>
     <row r="114" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A114" s="1">
-        <v>1.6114120370370371E-3</v>
+        <v>1.7197337962962965E-3</v>
       </c>
       <c r="B114" t="s">
-        <v>10</v>
-      </c>
-      <c r="C114" s="3">
-        <f t="shared" si="1"/>
-        <v>139</v>
+        <v>15</v>
+      </c>
+      <c r="C114" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>228.6</v>
       </c>
       <c r="D114" t="str">
         <f>_xll.RegexString(B114,"^.+[  ]cast.*?[  ](.+?)( on .+)*$",1,1)</f>
-        <v>雪风</v>
+        <v>彼岸花</v>
       </c>
     </row>
     <row r="115" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A115" s="1">
-        <v>1.620150462962963E-3</v>
+        <v>1.7357060185185186E-3</v>
       </c>
       <c r="B115" t="s">
-        <v>9</v>
-      </c>
-      <c r="C115" s="3">
-        <f t="shared" si="1"/>
-        <v>140</v>
+        <v>8</v>
+      </c>
+      <c r="C115" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>230.0</v>
       </c>
       <c r="D115" t="str">
         <f>_xll.RegexString(B115,"^.+[  ]cast.*?[  ](.+?)( on .+)*$",1,1)</f>
-        <v>明镜止水</v>
+        <v>月光</v>
       </c>
     </row>
     <row r="116" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A116" s="1">
-        <v>1.6278819444444446E-3</v>
+        <v>1.7604861111111111E-3</v>
       </c>
       <c r="B116" t="s">
-        <v>11</v>
-      </c>
-      <c r="C116" s="3">
-        <f t="shared" si="1"/>
-        <v>141</v>
+        <v>5</v>
+      </c>
+      <c r="C116" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>232.1</v>
       </c>
       <c r="D116" t="str">
         <f>_xll.RegexString(B116,"^.+[  ]cast.*?[  ](.+?)( on .+)*$",1,1)</f>
-        <v>必杀剑·回天</v>
+        <v>花车</v>
       </c>
     </row>
     <row r="117" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A117" s="1">
-        <v>1.6361342592592593E-3</v>
+        <v>1.7692592592592593E-3</v>
       </c>
       <c r="B117" t="s">
-        <v>12</v>
-      </c>
-      <c r="C117" s="3">
-        <f t="shared" si="1"/>
-        <v>141</v>
+        <v>17</v>
+      </c>
+      <c r="C117" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>232.9</v>
       </c>
       <c r="D117" t="str">
         <f>_xll.RegexString(B117,"^.+[  ]cast.*?[  ](.+?)( on .+)*$",1,1)</f>
-        <v>纷乱雪月花</v>
+        <v>必杀剑·星眼</v>
       </c>
     </row>
     <row r="118" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A118" s="1">
-        <v>1.6449189814814814E-3</v>
+        <v>1.7852199074074075E-3</v>
       </c>
       <c r="B118" t="s">
-        <v>13</v>
-      </c>
-      <c r="C118" s="3">
-        <f t="shared" si="1"/>
-        <v>142</v>
+        <v>2</v>
+      </c>
+      <c r="C118" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>234.2</v>
       </c>
       <c r="D118" t="str">
         <f>_xll.RegexString(B118,"^.+[  ]cast.*?[  ](.+?)( on .+)*$",1,1)</f>
-        <v>纷乱雪月花</v>
+        <v>刃风</v>
       </c>
     </row>
     <row r="119" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A119" s="1">
-        <v>1.6609143518518518E-3</v>
+        <v>1.809988425925926E-3</v>
       </c>
       <c r="B119" t="s">
-        <v>14</v>
-      </c>
-      <c r="C119" s="3">
-        <f t="shared" si="1"/>
-        <v>144</v>
+        <v>10</v>
+      </c>
+      <c r="C119" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>236.4</v>
       </c>
       <c r="D119" t="str">
         <f>_xll.RegexString(B119,"^.+[  ]cast.*?[  ](.+?)( on .+)*$",1,1)</f>
-        <v>回返雪月花</v>
+        <v>雪风</v>
       </c>
     </row>
     <row r="120" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A120" s="1">
-        <v>1.6686574074074075E-3</v>
+        <v>1.8187268518518518E-3</v>
       </c>
       <c r="B120" t="s">
-        <v>18</v>
-      </c>
-      <c r="C120" s="3">
-        <f t="shared" si="1"/>
-        <v>144</v>
+        <v>11</v>
+      </c>
+      <c r="C120" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>237.1</v>
       </c>
       <c r="D120" t="str">
         <f>_xll.RegexString(B120,"^.+[  ]cast.*?[  ](.+?)( on .+)*$",1,1)</f>
-        <v>照破</v>
+        <v>必杀剑·回天</v>
       </c>
     </row>
     <row r="121" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A121" s="1">
-        <v>1.6862037037037036E-3</v>
+        <v>1.8439467592592594E-3</v>
       </c>
       <c r="B121" t="s">
-        <v>8</v>
-      </c>
-      <c r="C121" s="3">
-        <f t="shared" si="1"/>
-        <v>146</v>
+        <v>12</v>
+      </c>
+      <c r="C121" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>239.3</v>
       </c>
       <c r="D121" t="str">
         <f>_xll.RegexString(B121,"^.+[  ]cast.*?[  ](.+?)( on .+)*$",1,1)</f>
-        <v>月光</v>
+        <v>纷乱雪月花</v>
       </c>
     </row>
     <row r="122" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A122" s="1">
-        <v>1.6944444444444444E-3</v>
+        <v>1.8599189814814815E-3</v>
       </c>
       <c r="B122" t="s">
-        <v>11</v>
-      </c>
-      <c r="C122" s="3">
-        <f t="shared" si="1"/>
-        <v>146</v>
+        <v>2</v>
+      </c>
+      <c r="C122" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>240.7</v>
       </c>
       <c r="D122" t="str">
         <f>_xll.RegexString(B122,"^.+[  ]cast.*?[  ](.+?)( on .+)*$",1,1)</f>
-        <v>必杀剑·回天</v>
+        <v>刃风</v>
       </c>
     </row>
     <row r="123" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A123" s="1">
-        <v>1.7109490740740739E-3</v>
+        <v>1.8846527777777778E-3</v>
       </c>
       <c r="B123" t="s">
-        <v>16</v>
-      </c>
-      <c r="C123" s="3">
-        <f t="shared" si="1"/>
-        <v>148</v>
+        <v>6</v>
+      </c>
+      <c r="C123" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>242.8</v>
       </c>
       <c r="D123" t="str">
         <f>_xll.RegexString(B123,"^.+[  ]cast.*?[  ](.+?)( on .+)*$",1,1)</f>
-        <v>彼岸花</v>
+        <v>阵风</v>
       </c>
     </row>
     <row r="124" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A124" s="1">
-        <v>1.7197337962962965E-3</v>
+        <v>1.9093981481481481E-3</v>
       </c>
       <c r="B124" t="s">
-        <v>17</v>
-      </c>
-      <c r="C124" s="3">
-        <f t="shared" si="1"/>
-        <v>149</v>
+        <v>8</v>
+      </c>
+      <c r="C124" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>245.0</v>
       </c>
       <c r="D124" t="str">
         <f>_xll.RegexString(B124,"^.+[  ]cast.*?[  ](.+?)( on .+)*$",1,1)</f>
-        <v>彼岸花</v>
+        <v>月光</v>
       </c>
     </row>
     <row r="125" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A125" s="1">
-        <v>1.7357060185185186E-3</v>
+        <v>1.9347337962962964E-3</v>
       </c>
       <c r="B125" t="s">
-        <v>8</v>
-      </c>
-      <c r="C125" s="3">
-        <f t="shared" si="1"/>
-        <v>150</v>
+        <v>2</v>
+      </c>
+      <c r="C125" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>247.2</v>
       </c>
       <c r="D125" t="str">
         <f>_xll.RegexString(B125,"^.+[  ]cast.*?[  ](.+?)( on .+)*$",1,1)</f>
-        <v>月光</v>
+        <v>刃风</v>
       </c>
     </row>
     <row r="126" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A126" s="1">
-        <v>1.7604861111111111E-3</v>
+        <v>1.9445486111111111E-3</v>
       </c>
       <c r="B126" t="s">
-        <v>5</v>
-      </c>
-      <c r="C126" s="3">
-        <f t="shared" si="1"/>
-        <v>152</v>
+        <v>22</v>
+      </c>
+      <c r="C126" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>248.0</v>
       </c>
       <c r="D126" t="str">
         <f>_xll.RegexString(B126,"^.+[  ]cast.*?[  ](.+?)( on .+)*$",1,1)</f>
-        <v>花车</v>
+        <v>冲刺</v>
       </c>
     </row>
     <row r="127" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A127" s="1">
-        <v>1.7692592592592593E-3</v>
+        <v>1.959537037037037E-3</v>
       </c>
       <c r="B127" t="s">
-        <v>19</v>
-      </c>
-      <c r="C127" s="3">
-        <f t="shared" si="1"/>
-        <v>153</v>
+        <v>4</v>
+      </c>
+      <c r="C127" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>249.3</v>
       </c>
       <c r="D127" t="str">
         <f>_xll.RegexString(B127,"^.+[  ]cast.*?[  ](.+?)( on .+)*$",1,1)</f>
-        <v>必杀剑·星眼</v>
+        <v>士风</v>
       </c>
     </row>
     <row r="128" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A128" s="1">
-        <v>1.7852199074074075E-3</v>
+        <v>1.9678009259259258E-3</v>
       </c>
       <c r="B128" t="s">
-        <v>2</v>
-      </c>
-      <c r="C128" s="3">
-        <f t="shared" si="1"/>
-        <v>154</v>
+        <v>21</v>
+      </c>
+      <c r="C128" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>250.0</v>
       </c>
       <c r="D128" t="str">
         <f>_xll.RegexString(B128,"^.+[  ]cast.*?[  ](.+?)( on .+)*$",1,1)</f>
-        <v>刃风</v>
+        <v>真北</v>
       </c>
     </row>
     <row r="129" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A129" s="1">
-        <v>1.809988425925926E-3</v>
+        <v>1.9853240740740738E-3</v>
       </c>
       <c r="B129" t="s">
-        <v>10</v>
-      </c>
-      <c r="C129" s="3">
-        <f t="shared" si="1"/>
-        <v>156</v>
+        <v>5</v>
+      </c>
+      <c r="C129" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>251.5</v>
       </c>
       <c r="D129" t="str">
         <f>_xll.RegexString(B129,"^.+[  ]cast.*?[  ](.+?)( on .+)*$",1,1)</f>
-        <v>雪风</v>
+        <v>花车</v>
       </c>
     </row>
     <row r="130" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A130" s="1">
-        <v>1.8187268518518518E-3</v>
+        <v>2.011712962962963E-3</v>
       </c>
       <c r="B130" t="s">
-        <v>11</v>
-      </c>
-      <c r="C130" s="3">
-        <f t="shared" ref="C130:C193" si="2">SECOND(A130)+MINUTE(A130)*60</f>
-        <v>157</v>
+        <v>20</v>
+      </c>
+      <c r="C130" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>253.8</v>
       </c>
       <c r="D130" t="str">
         <f>_xll.RegexString(B130,"^.+[  ]cast.*?[  ](.+?)( on .+)*$",1,1)</f>
-        <v>必杀剑·回天</v>
+        <v>必杀剑·晓天</v>
       </c>
     </row>
     <row r="131" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A131" s="1">
-        <v>1.8351851851851854E-3</v>
+        <v>2.0210185185185188E-3</v>
       </c>
       <c r="B131" t="s">
-        <v>12</v>
-      </c>
-      <c r="C131" s="3">
+        <v>2</v>
+      </c>
+      <c r="C131" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>159</v>
+        <v>254.6</v>
       </c>
       <c r="D131" t="str">
         <f>_xll.RegexString(B131,"^.+[  ]cast.*?[  ](.+?)( on .+)*$",1,1)</f>
-        <v>纷乱雪月花</v>
+        <v>刃风</v>
       </c>
     </row>
     <row r="132" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A132" s="1">
-        <v>1.8439467592592594E-3</v>
+        <v>2.0457754629629632E-3</v>
       </c>
       <c r="B132" t="s">
-        <v>13</v>
-      </c>
-      <c r="C132" s="3">
+        <v>10</v>
+      </c>
+      <c r="C132" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>159</v>
+        <v>256.8</v>
       </c>
       <c r="D132" t="str">
         <f>_xll.RegexString(B132,"^.+[  ]cast.*?[  ](.+?)( on .+)*$",1,1)</f>
-        <v>纷乱雪月花</v>
+        <v>雪风</v>
       </c>
     </row>
     <row r="133" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A133" s="1">
-        <v>1.8599189814814815E-3</v>
+        <v>2.0571180555555555E-3</v>
       </c>
       <c r="B133" t="s">
-        <v>2</v>
-      </c>
-      <c r="C133" s="3">
+        <v>11</v>
+      </c>
+      <c r="C133" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>161</v>
+        <v>257.7</v>
       </c>
       <c r="D133" t="str">
         <f>_xll.RegexString(B133,"^.+[  ]cast.*?[  ](.+?)( on .+)*$",1,1)</f>
-        <v>刃风</v>
+        <v>必杀剑·回天</v>
       </c>
     </row>
     <row r="134" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A134" s="1">
-        <v>1.8846527777777778E-3</v>
+        <v>2.0793055555555556E-3</v>
       </c>
       <c r="B134" t="s">
-        <v>6</v>
-      </c>
-      <c r="C134" s="3">
+        <v>12</v>
+      </c>
+      <c r="C134" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>163</v>
+        <v>259.7</v>
       </c>
       <c r="D134" t="str">
         <f>_xll.RegexString(B134,"^.+[  ]cast.*?[  ](.+?)( on .+)*$",1,1)</f>
-        <v>阵风</v>
+        <v>纷乱雪月花</v>
       </c>
     </row>
     <row r="135" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A135" s="1">
-        <v>1.9093981481481481E-3</v>
+        <v>2.0865277777777779E-3</v>
       </c>
       <c r="B135" t="s">
-        <v>8</v>
-      </c>
-      <c r="C135" s="3">
+        <v>16</v>
+      </c>
+      <c r="C135" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>165</v>
+        <v>300.3</v>
       </c>
       <c r="D135" t="str">
         <f>_xll.RegexString(B135,"^.+[  ]cast.*?[  ](.+?)( on .+)*$",1,1)</f>
-        <v>月光</v>
+        <v>照破</v>
       </c>
     </row>
     <row r="136" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A136" s="1">
-        <v>1.9347337962962964E-3</v>
+        <v>2.0953009259259262E-3</v>
       </c>
       <c r="B136" t="s">
         <v>2</v>
       </c>
-      <c r="C136" s="3">
+      <c r="C136" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>167</v>
+        <v>301.0</v>
       </c>
       <c r="D136" t="str">
         <f>_xll.RegexString(B136,"^.+[  ]cast.*?[  ](.+?)( on .+)*$",1,1)</f>
@@ -2685,94 +2707,94 @@
     </row>
     <row r="137" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A137" s="1">
-        <v>1.9445486111111111E-3</v>
+        <v>2.1035532407407405E-3</v>
       </c>
       <c r="B137" t="s">
-        <v>24</v>
-      </c>
-      <c r="C137" s="3">
+        <v>18</v>
+      </c>
+      <c r="C137" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>168</v>
+        <v>301.7</v>
       </c>
       <c r="D137" t="str">
         <f>_xll.RegexString(B137,"^.+[  ]cast.*?[  ](.+?)( on .+)*$",1,1)</f>
-        <v>冲刺</v>
+        <v>必杀剑·震天</v>
       </c>
     </row>
     <row r="138" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A138" s="1">
-        <v>1.959537037037037E-3</v>
+        <v>2.1200578703703707E-3</v>
       </c>
       <c r="B138" t="s">
-        <v>4</v>
-      </c>
-      <c r="C138" s="3">
+        <v>6</v>
+      </c>
+      <c r="C138" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>169</v>
+        <v>303.2</v>
       </c>
       <c r="D138" t="str">
         <f>_xll.RegexString(B138,"^.+[  ]cast.*?[  ](.+?)( on .+)*$",1,1)</f>
-        <v>士风</v>
+        <v>阵风</v>
       </c>
     </row>
     <row r="139" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A139" s="1">
-        <v>1.9678009259259258E-3</v>
+        <v>2.1283449074074074E-3</v>
       </c>
       <c r="B139" t="s">
-        <v>23</v>
-      </c>
-      <c r="C139" s="3">
+        <v>3</v>
+      </c>
+      <c r="C139" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>170</v>
+        <v>303.9</v>
       </c>
       <c r="D139" t="str">
         <f>_xll.RegexString(B139,"^.+[  ]cast.*?[  ](.+?)( on .+)*$",1,1)</f>
-        <v>真北</v>
+        <v>意气冲天</v>
       </c>
     </row>
     <row r="140" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A140" s="1">
-        <v>1.9853240740740738E-3</v>
+        <v>2.136064814814815E-3</v>
       </c>
       <c r="B140" t="s">
-        <v>5</v>
-      </c>
-      <c r="C140" s="3">
+        <v>21</v>
+      </c>
+      <c r="C140" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>172</v>
+        <v>304.6</v>
       </c>
       <c r="D140" t="str">
         <f>_xll.RegexString(B140,"^.+[  ]cast.*?[  ](.+?)( on .+)*$",1,1)</f>
-        <v>花车</v>
+        <v>真北</v>
       </c>
     </row>
     <row r="141" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A141" s="1">
-        <v>2.011712962962963E-3</v>
+        <v>2.1448611111111108E-3</v>
       </c>
       <c r="B141" t="s">
-        <v>22</v>
-      </c>
-      <c r="C141" s="3">
+        <v>8</v>
+      </c>
+      <c r="C141" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>174</v>
+        <v>305.3</v>
       </c>
       <c r="D141" t="str">
         <f>_xll.RegexString(B141,"^.+[  ]cast.*?[  ](.+?)( on .+)*$",1,1)</f>
-        <v>必杀剑·晓天</v>
+        <v>月光</v>
       </c>
     </row>
     <row r="142" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A142" s="1">
-        <v>2.0210185185185188E-3</v>
+        <v>2.1701504629629631E-3</v>
       </c>
       <c r="B142" t="s">
         <v>2</v>
       </c>
-      <c r="C142" s="3">
+      <c r="C142" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>175</v>
+        <v>307.5</v>
       </c>
       <c r="D142" t="str">
         <f>_xll.RegexString(B142,"^.+[  ]cast.*?[  ](.+?)( on .+)*$",1,1)</f>
@@ -2781,110 +2803,110 @@
     </row>
     <row r="143" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A143" s="1">
-        <v>2.0457754629629632E-3</v>
+        <v>2.1789467592592594E-3</v>
       </c>
       <c r="B143" t="s">
-        <v>10</v>
-      </c>
-      <c r="C143" s="3">
+        <v>18</v>
+      </c>
+      <c r="C143" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>177</v>
+        <v>308.3</v>
       </c>
       <c r="D143" t="str">
         <f>_xll.RegexString(B143,"^.+[  ]cast.*?[  ](.+?)( on .+)*$",1,1)</f>
-        <v>雪风</v>
+        <v>必杀剑·震天</v>
       </c>
     </row>
     <row r="144" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A144" s="1">
-        <v>2.0571180555555555E-3</v>
+        <v>2.1949537037037037E-3</v>
       </c>
       <c r="B144" t="s">
-        <v>11</v>
-      </c>
-      <c r="C144" s="3">
+        <v>4</v>
+      </c>
+      <c r="C144" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>178</v>
+        <v>309.6</v>
       </c>
       <c r="D144" t="str">
         <f>_xll.RegexString(B144,"^.+[  ]cast.*?[  ](.+?)( on .+)*$",1,1)</f>
-        <v>必杀剑·回天</v>
+        <v>士风</v>
       </c>
     </row>
     <row r="145" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A145" s="1">
-        <v>2.0705208333333335E-3</v>
+        <v>2.2032291666666667E-3</v>
       </c>
       <c r="B145" t="s">
-        <v>12</v>
-      </c>
-      <c r="C145" s="3">
+        <v>14</v>
+      </c>
+      <c r="C145" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>179</v>
+        <v>310.4</v>
       </c>
       <c r="D145" t="str">
         <f>_xll.RegexString(B145,"^.+[  ]cast.*?[  ](.+?)( on .+)*$",1,1)</f>
-        <v>纷乱雪月花</v>
+        <v>心眼</v>
       </c>
     </row>
     <row r="146" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A146" s="1">
-        <v>2.0793055555555556E-3</v>
+        <v>2.2197569444444443E-3</v>
       </c>
       <c r="B146" t="s">
-        <v>13</v>
-      </c>
-      <c r="C146" s="3">
+        <v>5</v>
+      </c>
+      <c r="C146" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>180</v>
+        <v>311.8</v>
       </c>
       <c r="D146" t="str">
         <f>_xll.RegexString(B146,"^.+[  ]cast.*?[  ](.+?)( on .+)*$",1,1)</f>
-        <v>纷乱雪月花</v>
+        <v>花车</v>
       </c>
     </row>
     <row r="147" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A147" s="1">
-        <v>2.0865277777777779E-3</v>
+        <v>2.2445138888888888E-3</v>
       </c>
       <c r="B147" t="s">
-        <v>18</v>
-      </c>
-      <c r="C147" s="3">
+        <v>2</v>
+      </c>
+      <c r="C147" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>180</v>
+        <v>313.9</v>
       </c>
       <c r="D147" t="str">
         <f>_xll.RegexString(B147,"^.+[  ]cast.*?[  ](.+?)( on .+)*$",1,1)</f>
-        <v>照破</v>
+        <v>刃风</v>
       </c>
     </row>
     <row r="148" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A148" s="1">
-        <v>2.0953009259259262E-3</v>
+        <v>2.2692708333333332E-3</v>
       </c>
       <c r="B148" t="s">
-        <v>2</v>
-      </c>
-      <c r="C148" s="3">
+        <v>10</v>
+      </c>
+      <c r="C148" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>181</v>
+        <v>316.1</v>
       </c>
       <c r="D148" t="str">
         <f>_xll.RegexString(B148,"^.+[  ]cast.*?[  ](.+?)( on .+)*$",1,1)</f>
-        <v>刃风</v>
+        <v>雪风</v>
       </c>
     </row>
     <row r="149" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A149" s="1">
-        <v>2.1035532407407405E-3</v>
+        <v>2.2780555555555557E-3</v>
       </c>
       <c r="B149" t="s">
-        <v>20</v>
-      </c>
-      <c r="C149" s="3">
+        <v>18</v>
+      </c>
+      <c r="C149" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>182</v>
+        <v>316.8</v>
       </c>
       <c r="D149" t="str">
         <f>_xll.RegexString(B149,"^.+[  ]cast.*?[  ](.+?)( on .+)*$",1,1)</f>
@@ -2893,446 +2915,446 @@
     </row>
     <row r="150" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A150" s="1">
-        <v>2.1200578703703707E-3</v>
+        <v>2.2940509259259259E-3</v>
       </c>
       <c r="B150" t="s">
-        <v>6</v>
-      </c>
-      <c r="C150" s="3">
+        <v>2</v>
+      </c>
+      <c r="C150" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>183</v>
+        <v>318.2</v>
       </c>
       <c r="D150" t="str">
         <f>_xll.RegexString(B150,"^.+[  ]cast.*?[  ](.+?)( on .+)*$",1,1)</f>
-        <v>阵风</v>
+        <v>刃风</v>
       </c>
     </row>
     <row r="151" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A151" s="1">
-        <v>2.1283449074074074E-3</v>
+        <v>2.3115856481481481E-3</v>
       </c>
       <c r="B151" t="s">
-        <v>3</v>
-      </c>
-      <c r="C151" s="3">
+        <v>11</v>
+      </c>
+      <c r="C151" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>184</v>
+        <v>319.7</v>
       </c>
       <c r="D151" t="str">
         <f>_xll.RegexString(B151,"^.+[  ]cast.*?[  ](.+?)( on .+)*$",1,1)</f>
-        <v>意气冲天</v>
+        <v>必杀剑·回天</v>
       </c>
     </row>
     <row r="152" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A152" s="1">
-        <v>2.136064814814815E-3</v>
+        <v>2.3286111111111112E-3</v>
       </c>
       <c r="B152" t="s">
-        <v>23</v>
-      </c>
-      <c r="C152" s="3">
+        <v>12</v>
+      </c>
+      <c r="C152" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>185</v>
+        <v>321.2</v>
       </c>
       <c r="D152" t="str">
         <f>_xll.RegexString(B152,"^.+[  ]cast.*?[  ](.+?)( on .+)*$",1,1)</f>
-        <v>真北</v>
+        <v>纷乱雪月花</v>
       </c>
     </row>
     <row r="153" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A153" s="1">
-        <v>2.1448611111111108E-3</v>
+        <v>2.355439814814815E-3</v>
       </c>
       <c r="B153" t="s">
-        <v>8</v>
-      </c>
-      <c r="C153" s="3">
+        <v>13</v>
+      </c>
+      <c r="C153" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>185</v>
+        <v>323.5</v>
       </c>
       <c r="D153" t="str">
         <f>_xll.RegexString(B153,"^.+[  ]cast.*?[  ](.+?)( on .+)*$",1,1)</f>
-        <v>月光</v>
+        <v>回返雪月花</v>
       </c>
     </row>
     <row r="154" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A154" s="1">
-        <v>2.1701504629629631E-3</v>
+        <v>2.3807407407407406E-3</v>
       </c>
       <c r="B154" t="s">
-        <v>2</v>
-      </c>
-      <c r="C154" s="3">
+        <v>10</v>
+      </c>
+      <c r="C154" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>188</v>
+        <v>325.7</v>
       </c>
       <c r="D154" t="str">
         <f>_xll.RegexString(B154,"^.+[  ]cast.*?[  ](.+?)( on .+)*$",1,1)</f>
-        <v>刃风</v>
+        <v>雪风</v>
       </c>
     </row>
     <row r="155" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A155" s="1">
-        <v>2.1789467592592594E-3</v>
+        <v>2.3894791666666669E-3</v>
       </c>
       <c r="B155" t="s">
-        <v>20</v>
-      </c>
-      <c r="C155" s="3">
+        <v>9</v>
+      </c>
+      <c r="C155" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>188</v>
+        <v>326.5</v>
       </c>
       <c r="D155" t="str">
         <f>_xll.RegexString(B155,"^.+[  ]cast.*?[  ](.+?)( on .+)*$",1,1)</f>
-        <v>必杀剑·震天</v>
+        <v>明镜止水</v>
       </c>
     </row>
     <row r="156" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A156" s="1">
-        <v>2.1949537037037037E-3</v>
+        <v>2.3977314814814812E-3</v>
       </c>
       <c r="B156" t="s">
-        <v>4</v>
-      </c>
-      <c r="C156" s="3">
+        <v>11</v>
+      </c>
+      <c r="C156" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>190</v>
+        <v>327.2</v>
       </c>
       <c r="D156" t="str">
         <f>_xll.RegexString(B156,"^.+[  ]cast.*?[  ](.+?)( on .+)*$",1,1)</f>
-        <v>士风</v>
+        <v>必杀剑·回天</v>
       </c>
     </row>
     <row r="157" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A157" s="1">
-        <v>2.2032291666666667E-3</v>
+        <v>2.4142592592592592E-3</v>
       </c>
       <c r="B157" t="s">
         <v>15</v>
       </c>
-      <c r="C157" s="3">
+      <c r="C157" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>190</v>
+        <v>328.6</v>
       </c>
       <c r="D157" t="str">
         <f>_xll.RegexString(B157,"^.+[  ]cast.*?[  ](.+?)( on .+)*$",1,1)</f>
-        <v>心眼</v>
+        <v>彼岸花</v>
       </c>
     </row>
     <row r="158" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A158" s="1">
-        <v>2.2197569444444443E-3</v>
+        <v>2.4224999999999997E-3</v>
       </c>
       <c r="B158" t="s">
-        <v>5</v>
-      </c>
-      <c r="C158" s="3">
+        <v>16</v>
+      </c>
+      <c r="C158" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>192</v>
+        <v>329.3</v>
       </c>
       <c r="D158" t="str">
         <f>_xll.RegexString(B158,"^.+[  ]cast.*?[  ](.+?)( on .+)*$",1,1)</f>
-        <v>花车</v>
+        <v>照破</v>
       </c>
     </row>
     <row r="159" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A159" s="1">
-        <v>2.2445138888888888E-3</v>
+        <v>2.4312847222222223E-3</v>
       </c>
       <c r="B159" t="s">
-        <v>2</v>
-      </c>
-      <c r="C159" s="3">
+        <v>8</v>
+      </c>
+      <c r="C159" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>194</v>
+        <v>330.1</v>
       </c>
       <c r="D159" t="str">
         <f>_xll.RegexString(B159,"^.+[  ]cast.*?[  ](.+?)( on .+)*$",1,1)</f>
-        <v>刃风</v>
+        <v>月光</v>
       </c>
     </row>
     <row r="160" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A160" s="1">
-        <v>2.2692708333333332E-3</v>
+        <v>2.456099537037037E-3</v>
       </c>
       <c r="B160" t="s">
-        <v>10</v>
-      </c>
-      <c r="C160" s="3">
+        <v>5</v>
+      </c>
+      <c r="C160" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>196</v>
+        <v>332.2</v>
       </c>
       <c r="D160" t="str">
         <f>_xll.RegexString(B160,"^.+[  ]cast.*?[  ](.+?)( on .+)*$",1,1)</f>
-        <v>雪风</v>
+        <v>花车</v>
       </c>
     </row>
     <row r="161" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A161" s="1">
-        <v>2.2780555555555557E-3</v>
+        <v>2.4809027777777776E-3</v>
       </c>
       <c r="B161" t="s">
-        <v>20</v>
-      </c>
-      <c r="C161" s="3">
+        <v>10</v>
+      </c>
+      <c r="C161" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>197</v>
+        <v>334.3</v>
       </c>
       <c r="D161" t="str">
         <f>_xll.RegexString(B161,"^.+[  ]cast.*?[  ](.+?)( on .+)*$",1,1)</f>
-        <v>必杀剑·震天</v>
+        <v>雪风</v>
       </c>
     </row>
     <row r="162" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A162" s="1">
-        <v>2.2940509259259259E-3</v>
+        <v>2.4958564814814813E-3</v>
       </c>
       <c r="B162" t="s">
-        <v>2</v>
-      </c>
-      <c r="C162" s="3">
+        <v>11</v>
+      </c>
+      <c r="C162" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>198</v>
+        <v>335.6</v>
       </c>
       <c r="D162" t="str">
         <f>_xll.RegexString(B162,"^.+[  ]cast.*?[  ](.+?)( on .+)*$",1,1)</f>
-        <v>刃风</v>
+        <v>必杀剑·回天</v>
       </c>
     </row>
     <row r="163" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A163" s="1">
-        <v>2.3115856481481481E-3</v>
+        <v>2.5144444444444446E-3</v>
       </c>
       <c r="B163" t="s">
-        <v>11</v>
-      </c>
-      <c r="C163" s="3">
+        <v>12</v>
+      </c>
+      <c r="C163" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>200</v>
+        <v>337.2</v>
       </c>
       <c r="D163" t="str">
         <f>_xll.RegexString(B163,"^.+[  ]cast.*?[  ](.+?)( on .+)*$",1,1)</f>
-        <v>必杀剑·回天</v>
+        <v>纷乱雪月花</v>
       </c>
     </row>
     <row r="164" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A164" s="1">
-        <v>2.3198495370370374E-3</v>
+        <v>2.521712962962963E-3</v>
       </c>
       <c r="B164" t="s">
-        <v>12</v>
-      </c>
-      <c r="C164" s="3">
+        <v>18</v>
+      </c>
+      <c r="C164" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>200</v>
+        <v>337.9</v>
       </c>
       <c r="D164" t="str">
         <f>_xll.RegexString(B164,"^.+[  ]cast.*?[  ](.+?)( on .+)*$",1,1)</f>
-        <v>纷乱雪月花</v>
+        <v>必杀剑·震天</v>
       </c>
     </row>
     <row r="165" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A165" s="1">
-        <v>2.3286111111111112E-3</v>
+        <v>2.530486111111111E-3</v>
       </c>
       <c r="B165" t="s">
-        <v>13</v>
-      </c>
-      <c r="C165" s="3">
+        <v>2</v>
+      </c>
+      <c r="C165" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>201</v>
+        <v>338.6</v>
       </c>
       <c r="D165" t="str">
         <f>_xll.RegexString(B165,"^.+[  ]cast.*?[  ](.+?)( on .+)*$",1,1)</f>
-        <v>纷乱雪月花</v>
+        <v>刃风</v>
       </c>
     </row>
     <row r="166" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A166" s="1">
-        <v>2.355439814814815E-3</v>
+        <v>2.5552314814814817E-3</v>
       </c>
       <c r="B166" t="s">
-        <v>14</v>
-      </c>
-      <c r="C166" s="3">
+        <v>6</v>
+      </c>
+      <c r="C166" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>204</v>
+        <v>340.8</v>
       </c>
       <c r="D166" t="str">
         <f>_xll.RegexString(B166,"^.+[  ]cast.*?[  ](.+?)( on .+)*$",1,1)</f>
-        <v>回返雪月花</v>
+        <v>阵风</v>
       </c>
     </row>
     <row r="167" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A167" s="1">
-        <v>2.3807407407407406E-3</v>
+        <v>2.566076388888889E-3</v>
       </c>
       <c r="B167" t="s">
-        <v>10</v>
-      </c>
-      <c r="C167" s="3">
+        <v>14</v>
+      </c>
+      <c r="C167" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>206</v>
+        <v>341.7</v>
       </c>
       <c r="D167" t="str">
         <f>_xll.RegexString(B167,"^.+[  ]cast.*?[  ](.+?)( on .+)*$",1,1)</f>
-        <v>雪风</v>
+        <v>心眼</v>
       </c>
     </row>
     <row r="168" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A168" s="1">
-        <v>2.3894791666666669E-3</v>
+        <v>2.5800231481481481E-3</v>
       </c>
       <c r="B168" t="s">
-        <v>9</v>
-      </c>
-      <c r="C168" s="3">
+        <v>8</v>
+      </c>
+      <c r="C168" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>206</v>
+        <v>342.9</v>
       </c>
       <c r="D168" t="str">
         <f>_xll.RegexString(B168,"^.+[  ]cast.*?[  ](.+?)( on .+)*$",1,1)</f>
-        <v>明镜止水</v>
+        <v>月光</v>
       </c>
     </row>
     <row r="169" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A169" s="1">
-        <v>2.3977314814814812E-3</v>
+        <v>2.6047453703703705E-3</v>
       </c>
       <c r="B169" t="s">
-        <v>11</v>
-      </c>
-      <c r="C169" s="3">
+        <v>2</v>
+      </c>
+      <c r="C169" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>207</v>
+        <v>345.1</v>
       </c>
       <c r="D169" t="str">
         <f>_xll.RegexString(B169,"^.+[  ]cast.*?[  ](.+?)( on .+)*$",1,1)</f>
-        <v>必杀剑·回天</v>
+        <v>刃风</v>
       </c>
     </row>
     <row r="170" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A170" s="1">
-        <v>2.4054861111111108E-3</v>
+        <v>2.6294791666666667E-3</v>
       </c>
       <c r="B170" t="s">
-        <v>16</v>
-      </c>
-      <c r="C170" s="3">
+        <v>4</v>
+      </c>
+      <c r="C170" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>208</v>
+        <v>347.2</v>
       </c>
       <c r="D170" t="str">
         <f>_xll.RegexString(B170,"^.+[  ]cast.*?[  ](.+?)( on .+)*$",1,1)</f>
-        <v>彼岸花</v>
+        <v>士风</v>
       </c>
     </row>
     <row r="171" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A171" s="1">
-        <v>2.4142592592592592E-3</v>
+        <v>2.6382291666666668E-3</v>
       </c>
       <c r="B171" t="s">
         <v>17</v>
       </c>
-      <c r="C171" s="3">
-        <f t="shared" si="2"/>
-        <v>209</v>
+      <c r="C171" s="1" t="str">
+        <f t="shared" ref="C171:C234" si="3">TEXT(LEFT(TEXT(A171,"mm:ss.0"),2)&amp;TEXT(A171,"ss.0"),"0.0")</f>
+        <v>347.9</v>
       </c>
       <c r="D171" t="str">
         <f>_xll.RegexString(B171,"^.+[  ]cast.*?[  ](.+?)( on .+)*$",1,1)</f>
-        <v>彼岸花</v>
+        <v>必杀剑·星眼</v>
       </c>
     </row>
     <row r="172" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A172" s="1">
-        <v>2.4224999999999997E-3</v>
+        <v>2.6552662037037035E-3</v>
       </c>
       <c r="B172" t="s">
-        <v>18</v>
-      </c>
-      <c r="C172" s="3">
-        <f t="shared" si="2"/>
-        <v>209</v>
+        <v>5</v>
+      </c>
+      <c r="C172" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v>349.4</v>
       </c>
       <c r="D172" t="str">
         <f>_xll.RegexString(B172,"^.+[  ]cast.*?[  ](.+?)( on .+)*$",1,1)</f>
-        <v>照破</v>
+        <v>花车</v>
       </c>
     </row>
     <row r="173" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A173" s="1">
-        <v>2.4312847222222223E-3</v>
+        <v>2.6800115740740742E-3</v>
       </c>
       <c r="B173" t="s">
-        <v>8</v>
-      </c>
-      <c r="C173" s="3">
-        <f t="shared" si="2"/>
-        <v>210</v>
+        <v>2</v>
+      </c>
+      <c r="C173" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v>351.6</v>
       </c>
       <c r="D173" t="str">
         <f>_xll.RegexString(B173,"^.+[  ]cast.*?[  ](.+?)( on .+)*$",1,1)</f>
-        <v>月光</v>
+        <v>刃风</v>
       </c>
     </row>
     <row r="174" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A174" s="1">
-        <v>2.456099537037037E-3</v>
+        <v>2.7047800925925924E-3</v>
       </c>
       <c r="B174" t="s">
-        <v>5</v>
-      </c>
-      <c r="C174" s="3">
-        <f t="shared" si="2"/>
-        <v>212</v>
+        <v>10</v>
+      </c>
+      <c r="C174" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v>353.7</v>
       </c>
       <c r="D174" t="str">
         <f>_xll.RegexString(B174,"^.+[  ]cast.*?[  ](.+?)( on .+)*$",1,1)</f>
-        <v>花车</v>
+        <v>雪风</v>
       </c>
     </row>
     <row r="175" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A175" s="1">
-        <v>2.4809027777777776E-3</v>
+        <v>2.7135300925925925E-3</v>
       </c>
       <c r="B175" t="s">
-        <v>10</v>
-      </c>
-      <c r="C175" s="3">
-        <f t="shared" si="2"/>
-        <v>214</v>
+        <v>11</v>
+      </c>
+      <c r="C175" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v>354.4</v>
       </c>
       <c r="D175" t="str">
         <f>_xll.RegexString(B175,"^.+[  ]cast.*?[  ](.+?)( on .+)*$",1,1)</f>
-        <v>雪风</v>
+        <v>必杀剑·回天</v>
       </c>
     </row>
     <row r="176" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A176" s="1">
-        <v>2.4958564814814813E-3</v>
+        <v>2.7222916666666667E-3</v>
       </c>
       <c r="B176" t="s">
-        <v>11</v>
-      </c>
-      <c r="C176" s="3">
-        <f t="shared" si="2"/>
-        <v>216</v>
+        <v>18</v>
+      </c>
+      <c r="C176" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v>355.2</v>
       </c>
       <c r="D176" t="str">
         <f>_xll.RegexString(B176,"^.+[  ]cast.*?[  ](.+?)( on .+)*$",1,1)</f>
-        <v>必杀剑·回天</v>
+        <v>必杀剑·震天</v>
       </c>
     </row>
     <row r="177" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A177" s="1">
-        <v>2.5056597222222225E-3</v>
+        <v>2.7387847222222223E-3</v>
       </c>
       <c r="B177" t="s">
         <v>12</v>
       </c>
-      <c r="C177" s="3">
-        <f t="shared" si="2"/>
-        <v>216</v>
+      <c r="C177" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v>356.6</v>
       </c>
       <c r="D177" t="str">
         <f>_xll.RegexString(B177,"^.+[  ]cast.*?[  ](.+?)( on .+)*$",1,1)</f>
@@ -3341,174 +3363,174 @@
     </row>
     <row r="178" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A178" s="1">
-        <v>2.5144444444444446E-3</v>
+        <v>2.7552662037037038E-3</v>
       </c>
       <c r="B178" t="s">
-        <v>13</v>
-      </c>
-      <c r="C178" s="3">
-        <f t="shared" si="2"/>
-        <v>217</v>
+        <v>2</v>
+      </c>
+      <c r="C178" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v>358.1</v>
       </c>
       <c r="D178" t="str">
         <f>_xll.RegexString(B178,"^.+[  ]cast.*?[  ](.+?)( on .+)*$",1,1)</f>
-        <v>纷乱雪月花</v>
+        <v>刃风</v>
       </c>
     </row>
     <row r="179" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A179" s="1">
-        <v>2.521712962962963E-3</v>
+        <v>2.7650462962962963E-3</v>
       </c>
       <c r="B179" t="s">
-        <v>20</v>
-      </c>
-      <c r="C179" s="3">
-        <f t="shared" si="2"/>
-        <v>218</v>
+        <v>22</v>
+      </c>
+      <c r="C179" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v>358.9</v>
       </c>
       <c r="D179" t="str">
         <f>_xll.RegexString(B179,"^.+[  ]cast.*?[  ](.+?)( on .+)*$",1,1)</f>
-        <v>必杀剑·震天</v>
+        <v>冲刺</v>
       </c>
     </row>
     <row r="180" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A180" s="1">
-        <v>2.530486111111111E-3</v>
+        <v>2.7804976851851858E-3</v>
       </c>
       <c r="B180" t="s">
-        <v>2</v>
-      </c>
-      <c r="C180" s="3">
-        <f t="shared" si="2"/>
-        <v>219</v>
+        <v>10</v>
+      </c>
+      <c r="C180" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v>400.2</v>
       </c>
       <c r="D180" t="str">
         <f>_xll.RegexString(B180,"^.+[  ]cast.*?[  ](.+?)( on .+)*$",1,1)</f>
-        <v>刃风</v>
+        <v>雪风</v>
       </c>
     </row>
     <row r="181" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A181" s="1">
-        <v>2.5552314814814817E-3</v>
+        <v>2.8150462962962964E-3</v>
       </c>
       <c r="B181" t="s">
-        <v>6</v>
-      </c>
-      <c r="C181" s="3">
-        <f t="shared" si="2"/>
-        <v>221</v>
+        <v>20</v>
+      </c>
+      <c r="C181" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v>403.2</v>
       </c>
       <c r="D181" t="str">
         <f>_xll.RegexString(B181,"^.+[  ]cast.*?[  ](.+?)( on .+)*$",1,1)</f>
-        <v>阵风</v>
+        <v>必杀剑·晓天</v>
       </c>
     </row>
     <row r="182" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A182" s="1">
-        <v>2.566076388888889E-3</v>
+        <v>2.8238425925925926E-3</v>
       </c>
       <c r="B182" t="s">
-        <v>15</v>
-      </c>
-      <c r="C182" s="3">
-        <f t="shared" si="2"/>
-        <v>222</v>
+        <v>2</v>
+      </c>
+      <c r="C182" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v>404.0</v>
       </c>
       <c r="D182" t="str">
         <f>_xll.RegexString(B182,"^.+[  ]cast.*?[  ](.+?)( on .+)*$",1,1)</f>
-        <v>心眼</v>
+        <v>刃风</v>
       </c>
     </row>
     <row r="183" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A183" s="1">
-        <v>2.5800231481481481E-3</v>
+        <v>2.8320833333333336E-3</v>
       </c>
       <c r="B183" t="s">
-        <v>8</v>
-      </c>
-      <c r="C183" s="3">
-        <f t="shared" si="2"/>
-        <v>223</v>
+        <v>18</v>
+      </c>
+      <c r="C183" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v>404.7</v>
       </c>
       <c r="D183" t="str">
         <f>_xll.RegexString(B183,"^.+[  ]cast.*?[  ](.+?)( on .+)*$",1,1)</f>
-        <v>月光</v>
+        <v>必杀剑·震天</v>
       </c>
     </row>
     <row r="184" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A184" s="1">
-        <v>2.6047453703703705E-3</v>
+        <v>2.8485763888888888E-3</v>
       </c>
       <c r="B184" t="s">
-        <v>2</v>
-      </c>
-      <c r="C184" s="3">
-        <f t="shared" si="2"/>
-        <v>225</v>
+        <v>6</v>
+      </c>
+      <c r="C184" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v>406.1</v>
       </c>
       <c r="D184" t="str">
         <f>_xll.RegexString(B184,"^.+[  ]cast.*?[  ](.+?)( on .+)*$",1,1)</f>
-        <v>刃风</v>
+        <v>阵风</v>
       </c>
     </row>
     <row r="185" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A185" s="1">
-        <v>2.6294791666666667E-3</v>
+        <v>2.8573263888888888E-3</v>
       </c>
       <c r="B185" t="s">
-        <v>4</v>
-      </c>
-      <c r="C185" s="3">
-        <f t="shared" si="2"/>
-        <v>227</v>
+        <v>3</v>
+      </c>
+      <c r="C185" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v>406.9</v>
       </c>
       <c r="D185" t="str">
         <f>_xll.RegexString(B185,"^.+[  ]cast.*?[  ](.+?)( on .+)*$",1,1)</f>
-        <v>士风</v>
+        <v>意气冲天</v>
       </c>
     </row>
     <row r="186" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A186" s="1">
-        <v>2.6382291666666668E-3</v>
+        <v>2.8656018518518518E-3</v>
       </c>
       <c r="B186" t="s">
-        <v>19</v>
-      </c>
-      <c r="C186" s="3">
-        <f t="shared" si="2"/>
-        <v>228</v>
+        <v>18</v>
+      </c>
+      <c r="C186" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v>407.6</v>
       </c>
       <c r="D186" t="str">
         <f>_xll.RegexString(B186,"^.+[  ]cast.*?[  ](.+?)( on .+)*$",1,1)</f>
-        <v>必杀剑·星眼</v>
+        <v>必杀剑·震天</v>
       </c>
     </row>
     <row r="187" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A187" s="1">
-        <v>2.6552662037037035E-3</v>
+        <v>2.874363425925926E-3</v>
       </c>
       <c r="B187" t="s">
-        <v>5</v>
-      </c>
-      <c r="C187" s="3">
-        <f t="shared" si="2"/>
-        <v>229</v>
+        <v>8</v>
+      </c>
+      <c r="C187" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v>408.3</v>
       </c>
       <c r="D187" t="str">
         <f>_xll.RegexString(B187,"^.+[  ]cast.*?[  ](.+?)( on .+)*$",1,1)</f>
-        <v>花车</v>
+        <v>月光</v>
       </c>
     </row>
     <row r="188" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A188" s="1">
-        <v>2.6800115740740742E-3</v>
+        <v>2.9985300925925926E-3</v>
       </c>
       <c r="B188" t="s">
         <v>2</v>
       </c>
-      <c r="C188" s="3">
-        <f t="shared" si="2"/>
-        <v>232</v>
+      <c r="C188" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v>419.1</v>
       </c>
       <c r="D188" t="str">
         <f>_xll.RegexString(B188,"^.+[  ]cast.*?[  ](.+?)( on .+)*$",1,1)</f>
@@ -3517,926 +3539,926 @@
     </row>
     <row r="189" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A189" s="1">
-        <v>2.7047800925925924E-3</v>
+        <v>3.0237847222222224E-3</v>
       </c>
       <c r="B189" t="s">
-        <v>10</v>
-      </c>
-      <c r="C189" s="3">
-        <f t="shared" si="2"/>
-        <v>234</v>
+        <v>4</v>
+      </c>
+      <c r="C189" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v>421.3</v>
       </c>
       <c r="D189" t="str">
         <f>_xll.RegexString(B189,"^.+[  ]cast.*?[  ](.+?)( on .+)*$",1,1)</f>
-        <v>雪风</v>
+        <v>士风</v>
       </c>
     </row>
     <row r="190" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A190" s="1">
-        <v>2.7135300925925925E-3</v>
+        <v>3.0366435185185184E-3</v>
       </c>
       <c r="B190" t="s">
-        <v>11</v>
-      </c>
-      <c r="C190" s="3">
-        <f t="shared" si="2"/>
-        <v>234</v>
+        <v>7</v>
+      </c>
+      <c r="C190" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v>422.4</v>
       </c>
       <c r="D190" t="str">
         <f>_xll.RegexString(B190,"^.+[  ]cast.*?[  ](.+?)( on .+)*$",1,1)</f>
-        <v>必杀剑·回天</v>
+        <v>必杀剑·闪影</v>
       </c>
     </row>
     <row r="191" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A191" s="1">
-        <v>2.7222916666666667E-3</v>
+        <v>3.0484953703703702E-3</v>
       </c>
       <c r="B191" t="s">
-        <v>20</v>
-      </c>
-      <c r="C191" s="3">
-        <f t="shared" si="2"/>
-        <v>235</v>
+        <v>5</v>
+      </c>
+      <c r="C191" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v>423.4</v>
       </c>
       <c r="D191" t="str">
         <f>_xll.RegexString(B191,"^.+[  ]cast.*?[  ](.+?)( on .+)*$",1,1)</f>
-        <v>必杀剑·震天</v>
+        <v>花车</v>
       </c>
     </row>
     <row r="192" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A192" s="1">
-        <v>2.7300347222222222E-3</v>
+        <v>3.0583101851851847E-3</v>
       </c>
       <c r="B192" t="s">
-        <v>12</v>
-      </c>
-      <c r="C192" s="3">
-        <f t="shared" si="2"/>
-        <v>236</v>
+        <v>9</v>
+      </c>
+      <c r="C192" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v>424.2</v>
       </c>
       <c r="D192" t="str">
         <f>_xll.RegexString(B192,"^.+[  ]cast.*?[  ](.+?)( on .+)*$",1,1)</f>
-        <v>纷乱雪月花</v>
+        <v>明镜止水</v>
       </c>
     </row>
     <row r="193" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A193" s="1">
-        <v>2.7387847222222223E-3</v>
+        <v>3.0675925925925927E-3</v>
       </c>
       <c r="B193" t="s">
-        <v>13</v>
-      </c>
-      <c r="C193" s="3">
-        <f t="shared" si="2"/>
-        <v>237</v>
+        <v>11</v>
+      </c>
+      <c r="C193" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v>425.0</v>
       </c>
       <c r="D193" t="str">
         <f>_xll.RegexString(B193,"^.+[  ]cast.*?[  ](.+?)( on .+)*$",1,1)</f>
-        <v>纷乱雪月花</v>
+        <v>必杀剑·回天</v>
       </c>
     </row>
     <row r="194" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A194" s="1">
-        <v>2.7552662037037038E-3</v>
+        <v>3.084097222222222E-3</v>
       </c>
       <c r="B194" t="s">
-        <v>2</v>
-      </c>
-      <c r="C194" s="3">
-        <f t="shared" ref="C194:C257" si="3">SECOND(A194)+MINUTE(A194)*60</f>
-        <v>238</v>
+        <v>12</v>
+      </c>
+      <c r="C194" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v>426.5</v>
       </c>
       <c r="D194" t="str">
         <f>_xll.RegexString(B194,"^.+[  ]cast.*?[  ](.+?)( on .+)*$",1,1)</f>
-        <v>刃风</v>
+        <v>纷乱雪月花</v>
       </c>
     </row>
     <row r="195" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A195" s="1">
-        <v>2.7650462962962963E-3</v>
+        <v>3.0923726851851854E-3</v>
       </c>
       <c r="B195" t="s">
-        <v>24</v>
-      </c>
-      <c r="C195" s="3">
+        <v>16</v>
+      </c>
+      <c r="C195" s="1" t="str">
         <f t="shared" si="3"/>
-        <v>239</v>
+        <v>427.2</v>
       </c>
       <c r="D195" t="str">
         <f>_xll.RegexString(B195,"^.+[  ]cast.*?[  ](.+?)( on .+)*$",1,1)</f>
-        <v>冲刺</v>
+        <v>照破</v>
       </c>
     </row>
     <row r="196" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A196" s="1">
-        <v>2.7804976851851858E-3</v>
+        <v>3.1001157407407405E-3</v>
       </c>
       <c r="B196" t="s">
-        <v>10</v>
-      </c>
-      <c r="C196" s="3">
+        <v>13</v>
+      </c>
+      <c r="C196" s="1" t="str">
         <f t="shared" si="3"/>
-        <v>240</v>
+        <v>427.8</v>
       </c>
       <c r="D196" t="str">
         <f>_xll.RegexString(B196,"^.+[  ]cast.*?[  ](.+?)( on .+)*$",1,1)</f>
-        <v>雪风</v>
+        <v>回返雪月花</v>
       </c>
     </row>
     <row r="197" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A197" s="1">
-        <v>2.8150462962962964E-3</v>
+        <v>3.1253472222222221E-3</v>
       </c>
       <c r="B197" t="s">
-        <v>22</v>
-      </c>
-      <c r="C197" s="3">
+        <v>8</v>
+      </c>
+      <c r="C197" s="1" t="str">
         <f t="shared" si="3"/>
-        <v>243</v>
+        <v>430.0</v>
       </c>
       <c r="D197" t="str">
         <f>_xll.RegexString(B197,"^.+[  ]cast.*?[  ](.+?)( on .+)*$",1,1)</f>
-        <v>必杀剑·晓天</v>
+        <v>月光</v>
       </c>
     </row>
     <row r="198" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A198" s="1">
-        <v>2.8238425925925926E-3</v>
+        <v>3.1346527777777774E-3</v>
       </c>
       <c r="B198" t="s">
-        <v>2</v>
-      </c>
-      <c r="C198" s="3">
+        <v>11</v>
+      </c>
+      <c r="C198" s="1" t="str">
         <f t="shared" si="3"/>
-        <v>244</v>
+        <v>430.8</v>
       </c>
       <c r="D198" t="str">
         <f>_xll.RegexString(B198,"^.+[  ]cast.*?[  ](.+?)( on .+)*$",1,1)</f>
-        <v>刃风</v>
+        <v>必杀剑·回天</v>
       </c>
     </row>
     <row r="199" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A199" s="1">
-        <v>2.8320833333333336E-3</v>
+        <v>3.1588888888888886E-3</v>
       </c>
       <c r="B199" t="s">
-        <v>20</v>
-      </c>
-      <c r="C199" s="3">
+        <v>15</v>
+      </c>
+      <c r="C199" s="1" t="str">
         <f t="shared" si="3"/>
-        <v>245</v>
+        <v>432.9</v>
       </c>
       <c r="D199" t="str">
         <f>_xll.RegexString(B199,"^.+[  ]cast.*?[  ](.+?)( on .+)*$",1,1)</f>
-        <v>必杀剑·震天</v>
+        <v>彼岸花</v>
       </c>
     </row>
     <row r="200" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A200" s="1">
-        <v>2.8485763888888888E-3</v>
+        <v>3.1748495370370368E-3</v>
       </c>
       <c r="B200" t="s">
-        <v>6</v>
-      </c>
-      <c r="C200" s="3">
+        <v>8</v>
+      </c>
+      <c r="C200" s="1" t="str">
         <f t="shared" si="3"/>
-        <v>246</v>
+        <v>434.3</v>
       </c>
       <c r="D200" t="str">
         <f>_xll.RegexString(B200,"^.+[  ]cast.*?[  ](.+?)( on .+)*$",1,1)</f>
-        <v>阵风</v>
+        <v>月光</v>
       </c>
     </row>
     <row r="201" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A201" s="1">
-        <v>2.8573263888888888E-3</v>
+        <v>3.1995717592592592E-3</v>
       </c>
       <c r="B201" t="s">
-        <v>3</v>
-      </c>
-      <c r="C201" s="3">
+        <v>5</v>
+      </c>
+      <c r="C201" s="1" t="str">
         <f t="shared" si="3"/>
-        <v>247</v>
+        <v>436.4</v>
       </c>
       <c r="D201" t="str">
         <f>_xll.RegexString(B201,"^.+[  ]cast.*?[  ](.+?)( on .+)*$",1,1)</f>
-        <v>意气冲天</v>
+        <v>花车</v>
       </c>
     </row>
     <row r="202" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A202" s="1">
-        <v>2.8656018518518518E-3</v>
+        <v>3.225358796296296E-3</v>
       </c>
       <c r="B202" t="s">
-        <v>20</v>
-      </c>
-      <c r="C202" s="3">
+        <v>2</v>
+      </c>
+      <c r="C202" s="1" t="str">
         <f t="shared" si="3"/>
-        <v>248</v>
+        <v>438.7</v>
       </c>
       <c r="D202" t="str">
         <f>_xll.RegexString(B202,"^.+[  ]cast.*?[  ](.+?)( on .+)*$",1,1)</f>
-        <v>必杀剑·震天</v>
+        <v>刃风</v>
       </c>
     </row>
     <row r="203" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A203" s="1">
-        <v>2.874363425925926E-3</v>
+        <v>3.2501041666666668E-3</v>
       </c>
       <c r="B203" t="s">
-        <v>8</v>
-      </c>
-      <c r="C203" s="3">
+        <v>10</v>
+      </c>
+      <c r="C203" s="1" t="str">
         <f t="shared" si="3"/>
-        <v>248</v>
+        <v>440.8</v>
       </c>
       <c r="D203" t="str">
         <f>_xll.RegexString(B203,"^.+[  ]cast.*?[  ](.+?)( on .+)*$",1,1)</f>
-        <v>月光</v>
+        <v>雪风</v>
       </c>
     </row>
     <row r="204" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A204" s="1">
-        <v>2.9985300925925926E-3</v>
+        <v>3.2614467592592591E-3</v>
       </c>
       <c r="B204" t="s">
-        <v>2</v>
-      </c>
-      <c r="C204" s="3">
+        <v>11</v>
+      </c>
+      <c r="C204" s="1" t="str">
         <f t="shared" si="3"/>
-        <v>259</v>
+        <v>441.8</v>
       </c>
       <c r="D204" t="str">
         <f>_xll.RegexString(B204,"^.+[  ]cast.*?[  ](.+?)( on .+)*$",1,1)</f>
-        <v>刃风</v>
+        <v>必杀剑·回天</v>
       </c>
     </row>
     <row r="205" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A205" s="1">
-        <v>3.0237847222222224E-3</v>
+        <v>3.283622685185185E-3</v>
       </c>
       <c r="B205" t="s">
-        <v>4</v>
-      </c>
-      <c r="C205" s="3">
+        <v>12</v>
+      </c>
+      <c r="C205" s="1" t="str">
         <f t="shared" si="3"/>
-        <v>261</v>
+        <v>443.7</v>
       </c>
       <c r="D205" t="str">
         <f>_xll.RegexString(B205,"^.+[  ]cast.*?[  ](.+?)( on .+)*$",1,1)</f>
-        <v>士风</v>
+        <v>纷乱雪月花</v>
       </c>
     </row>
     <row r="206" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A206" s="1">
-        <v>3.0366435185185184E-3</v>
+        <v>3.2908680555555556E-3</v>
       </c>
       <c r="B206" t="s">
-        <v>7</v>
-      </c>
-      <c r="C206" s="3">
+        <v>16</v>
+      </c>
+      <c r="C206" s="1" t="str">
         <f t="shared" si="3"/>
-        <v>262</v>
+        <v>444.3</v>
       </c>
       <c r="D206" t="str">
         <f>_xll.RegexString(B206,"^.+[  ]cast.*?[  ](.+?)( on .+)*$",1,1)</f>
-        <v>必杀剑·闪影</v>
+        <v>照破</v>
       </c>
     </row>
     <row r="207" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A207" s="1">
-        <v>3.0484953703703702E-3</v>
+        <v>3.2996296296296298E-3</v>
       </c>
       <c r="B207" t="s">
-        <v>5</v>
-      </c>
-      <c r="C207" s="3">
+        <v>2</v>
+      </c>
+      <c r="C207" s="1" t="str">
         <f t="shared" si="3"/>
-        <v>263</v>
+        <v>445.1</v>
       </c>
       <c r="D207" t="str">
         <f>_xll.RegexString(B207,"^.+[  ]cast.*?[  ](.+?)( on .+)*$",1,1)</f>
-        <v>花车</v>
+        <v>刃风</v>
       </c>
     </row>
     <row r="208" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A208" s="1">
-        <v>3.0583101851851847E-3</v>
+        <v>3.3249537037037037E-3</v>
       </c>
       <c r="B208" t="s">
-        <v>9</v>
-      </c>
-      <c r="C208" s="3">
+        <v>6</v>
+      </c>
+      <c r="C208" s="1" t="str">
         <f t="shared" si="3"/>
-        <v>264</v>
+        <v>447.3</v>
       </c>
       <c r="D208" t="str">
         <f>_xll.RegexString(B208,"^.+[  ]cast.*?[  ](.+?)( on .+)*$",1,1)</f>
-        <v>明镜止水</v>
+        <v>阵风</v>
       </c>
     </row>
     <row r="209" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A209" s="1">
-        <v>3.0675925925925927E-3</v>
+        <v>3.3332060185185183E-3</v>
       </c>
       <c r="B209" t="s">
-        <v>11</v>
-      </c>
-      <c r="C209" s="3">
+        <v>21</v>
+      </c>
+      <c r="C209" s="1" t="str">
         <f t="shared" si="3"/>
-        <v>265</v>
+        <v>448.0</v>
       </c>
       <c r="D209" t="str">
         <f>_xll.RegexString(B209,"^.+[  ]cast.*?[  ](.+?)( on .+)*$",1,1)</f>
-        <v>必杀剑·回天</v>
+        <v>真北</v>
       </c>
     </row>
     <row r="210" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A210" s="1">
-        <v>3.0753240740740741E-3</v>
+        <v>3.3502430555555555E-3</v>
       </c>
       <c r="B210" t="s">
-        <v>12</v>
-      </c>
-      <c r="C210" s="3">
+        <v>8</v>
+      </c>
+      <c r="C210" s="1" t="str">
         <f t="shared" si="3"/>
-        <v>266</v>
+        <v>449.5</v>
       </c>
       <c r="D210" t="str">
         <f>_xll.RegexString(B210,"^.+[  ]cast.*?[  ](.+?)( on .+)*$",1,1)</f>
-        <v>纷乱雪月花</v>
+        <v>月光</v>
       </c>
     </row>
     <row r="211" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A211" s="1">
-        <v>3.084097222222222E-3</v>
+        <v>3.3750347222222224E-3</v>
       </c>
       <c r="B211" t="s">
-        <v>13</v>
-      </c>
-      <c r="C211" s="3">
+        <v>20</v>
+      </c>
+      <c r="C211" s="1" t="str">
         <f t="shared" si="3"/>
-        <v>266</v>
+        <v>451.6</v>
       </c>
       <c r="D211" t="str">
         <f>_xll.RegexString(B211,"^.+[  ]cast.*?[  ](.+?)( on .+)*$",1,1)</f>
-        <v>纷乱雪月花</v>
+        <v>必杀剑·晓天</v>
       </c>
     </row>
     <row r="212" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A212" s="1">
-        <v>3.0923726851851854E-3</v>
+        <v>3.3843402777777778E-3</v>
       </c>
       <c r="B212" t="s">
-        <v>18</v>
-      </c>
-      <c r="C212" s="3">
+        <v>2</v>
+      </c>
+      <c r="C212" s="1" t="str">
         <f t="shared" si="3"/>
-        <v>267</v>
+        <v>452.4</v>
       </c>
       <c r="D212" t="str">
         <f>_xll.RegexString(B212,"^.+[  ]cast.*?[  ](.+?)( on .+)*$",1,1)</f>
-        <v>照破</v>
+        <v>刃风</v>
       </c>
     </row>
     <row r="213" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A213" s="1">
-        <v>3.1001157407407405E-3</v>
+        <v>3.3936111111111111E-3</v>
       </c>
       <c r="B213" t="s">
-        <v>14</v>
-      </c>
-      <c r="C213" s="3">
+        <v>18</v>
+      </c>
+      <c r="C213" s="1" t="str">
         <f t="shared" si="3"/>
-        <v>268</v>
+        <v>453.2</v>
       </c>
       <c r="D213" t="str">
         <f>_xll.RegexString(B213,"^.+[  ]cast.*?[  ](.+?)( on .+)*$",1,1)</f>
-        <v>回返雪月花</v>
+        <v>必杀剑·震天</v>
       </c>
     </row>
     <row r="214" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A214" s="1">
-        <v>3.1253472222222221E-3</v>
+        <v>3.4090509259259261E-3</v>
       </c>
       <c r="B214" t="s">
-        <v>8</v>
-      </c>
-      <c r="C214" s="3">
+        <v>4</v>
+      </c>
+      <c r="C214" s="1" t="str">
         <f t="shared" si="3"/>
-        <v>270</v>
+        <v>454.5</v>
       </c>
       <c r="D214" t="str">
         <f>_xll.RegexString(B214,"^.+[  ]cast.*?[  ](.+?)( on .+)*$",1,1)</f>
-        <v>月光</v>
+        <v>士风</v>
       </c>
     </row>
     <row r="215" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A215" s="1">
-        <v>3.1346527777777774E-3</v>
+        <v>3.4337962962962963E-3</v>
       </c>
       <c r="B215" t="s">
-        <v>11</v>
-      </c>
-      <c r="C215" s="3">
+        <v>5</v>
+      </c>
+      <c r="C215" s="1" t="str">
         <f t="shared" si="3"/>
-        <v>271</v>
+        <v>456.7</v>
       </c>
       <c r="D215" t="str">
         <f>_xll.RegexString(B215,"^.+[  ]cast.*?[  ](.+?)( on .+)*$",1,1)</f>
-        <v>必杀剑·回天</v>
+        <v>花车</v>
       </c>
     </row>
     <row r="216" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A216" s="1">
-        <v>3.1501157407407402E-3</v>
+        <v>3.4586111111111107E-3</v>
       </c>
       <c r="B216" t="s">
-        <v>16</v>
-      </c>
-      <c r="C216" s="3">
+        <v>2</v>
+      </c>
+      <c r="C216" s="1" t="str">
         <f t="shared" si="3"/>
-        <v>272</v>
+        <v>458.8</v>
       </c>
       <c r="D216" t="str">
         <f>_xll.RegexString(B216,"^.+[  ]cast.*?[  ](.+?)( on .+)*$",1,1)</f>
-        <v>彼岸花</v>
+        <v>刃风</v>
       </c>
     </row>
     <row r="217" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A217" s="1">
-        <v>3.1588888888888886E-3</v>
+        <v>3.467384259259259E-3</v>
       </c>
       <c r="B217" t="s">
-        <v>17</v>
-      </c>
-      <c r="C217" s="3">
+        <v>14</v>
+      </c>
+      <c r="C217" s="1" t="str">
         <f t="shared" si="3"/>
-        <v>273</v>
+        <v>459.6</v>
       </c>
       <c r="D217" t="str">
         <f>_xll.RegexString(B217,"^.+[  ]cast.*?[  ](.+?)( on .+)*$",1,1)</f>
-        <v>彼岸花</v>
+        <v>心眼</v>
       </c>
     </row>
     <row r="218" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A218" s="1">
-        <v>3.1748495370370368E-3</v>
+        <v>3.4833680555555555E-3</v>
       </c>
       <c r="B218" t="s">
-        <v>8</v>
-      </c>
-      <c r="C218" s="3">
+        <v>10</v>
+      </c>
+      <c r="C218" s="1" t="str">
         <f t="shared" si="3"/>
-        <v>274</v>
+        <v>501.0</v>
       </c>
       <c r="D218" t="str">
         <f>_xll.RegexString(B218,"^.+[  ]cast.*?[  ](.+?)( on .+)*$",1,1)</f>
-        <v>月光</v>
+        <v>雪风</v>
       </c>
     </row>
     <row r="219" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A219" s="1">
-        <v>3.1995717592592592E-3</v>
+        <v>3.4968055555555555E-3</v>
       </c>
       <c r="B219" t="s">
-        <v>5</v>
-      </c>
-      <c r="C219" s="3">
+        <v>11</v>
+      </c>
+      <c r="C219" s="1" t="str">
         <f t="shared" si="3"/>
-        <v>276</v>
+        <v>502.1</v>
       </c>
       <c r="D219" t="str">
         <f>_xll.RegexString(B219,"^.+[  ]cast.*?[  ](.+?)( on .+)*$",1,1)</f>
-        <v>花车</v>
+        <v>必杀剑·回天</v>
       </c>
     </row>
     <row r="220" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A220" s="1">
-        <v>3.225358796296296E-3</v>
+        <v>3.5169675925925928E-3</v>
       </c>
       <c r="B220" t="s">
-        <v>2</v>
-      </c>
-      <c r="C220" s="3">
+        <v>12</v>
+      </c>
+      <c r="C220" s="1" t="str">
         <f t="shared" si="3"/>
-        <v>279</v>
+        <v>503.9</v>
       </c>
       <c r="D220" t="str">
         <f>_xll.RegexString(B220,"^.+[  ]cast.*?[  ](.+?)( on .+)*$",1,1)</f>
-        <v>刃风</v>
+        <v>纷乱雪月花</v>
       </c>
     </row>
     <row r="221" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A221" s="1">
-        <v>3.2501041666666668E-3</v>
+        <v>3.5344675925925925E-3</v>
       </c>
       <c r="B221" t="s">
-        <v>10</v>
-      </c>
-      <c r="C221" s="3">
+        <v>2</v>
+      </c>
+      <c r="C221" s="1" t="str">
         <f t="shared" si="3"/>
-        <v>281</v>
+        <v>505.4</v>
       </c>
       <c r="D221" t="str">
         <f>_xll.RegexString(B221,"^.+[  ]cast.*?[  ](.+?)( on .+)*$",1,1)</f>
-        <v>雪风</v>
+        <v>刃风</v>
       </c>
     </row>
     <row r="222" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A222" s="1">
-        <v>3.2614467592592591E-3</v>
+        <v>3.5427199074074076E-3</v>
       </c>
       <c r="B222" t="s">
-        <v>11</v>
-      </c>
-      <c r="C222" s="3">
+        <v>18</v>
+      </c>
+      <c r="C222" s="1" t="str">
         <f t="shared" si="3"/>
-        <v>282</v>
+        <v>506.1</v>
       </c>
       <c r="D222" t="str">
         <f>_xll.RegexString(B222,"^.+[  ]cast.*?[  ](.+?)( on .+)*$",1,1)</f>
-        <v>必杀剑·回天</v>
+        <v>必杀剑·震天</v>
       </c>
     </row>
     <row r="223" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A223" s="1">
-        <v>3.2748495370370375E-3</v>
+        <v>3.5602546296296298E-3</v>
       </c>
       <c r="B223" t="s">
-        <v>12</v>
-      </c>
-      <c r="C223" s="3">
+        <v>4</v>
+      </c>
+      <c r="C223" s="1" t="str">
         <f t="shared" si="3"/>
-        <v>283</v>
+        <v>507.6</v>
       </c>
       <c r="D223" t="str">
         <f>_xll.RegexString(B223,"^.+[  ]cast.*?[  ](.+?)( on .+)*$",1,1)</f>
-        <v>纷乱雪月花</v>
+        <v>士风</v>
       </c>
     </row>
     <row r="224" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A224" s="1">
-        <v>3.283622685185185E-3</v>
+        <v>3.5679861111111116E-3</v>
       </c>
       <c r="B224" t="s">
-        <v>13</v>
-      </c>
-      <c r="C224" s="3">
+        <v>3</v>
+      </c>
+      <c r="C224" s="1" t="str">
         <f t="shared" si="3"/>
-        <v>284</v>
+        <v>508.3</v>
       </c>
       <c r="D224" t="str">
         <f>_xll.RegexString(B224,"^.+[  ]cast.*?[  ](.+?)( on .+)*$",1,1)</f>
-        <v>纷乱雪月花</v>
+        <v>意气冲天</v>
       </c>
     </row>
     <row r="225" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A225" s="1">
-        <v>3.2908680555555556E-3</v>
+        <v>3.5757291666666667E-3</v>
       </c>
       <c r="B225" t="s">
-        <v>18</v>
-      </c>
-      <c r="C225" s="3">
+        <v>21</v>
+      </c>
+      <c r="C225" s="1" t="str">
         <f t="shared" si="3"/>
-        <v>284</v>
+        <v>508.9</v>
       </c>
       <c r="D225" t="str">
         <f>_xll.RegexString(B225,"^.+[  ]cast.*?[  ](.+?)( on .+)*$",1,1)</f>
-        <v>照破</v>
+        <v>真北</v>
       </c>
     </row>
     <row r="226" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A226" s="1">
-        <v>3.2996296296296298E-3</v>
+        <v>3.5849999999999996E-3</v>
       </c>
       <c r="B226" t="s">
-        <v>2</v>
-      </c>
-      <c r="C226" s="3">
+        <v>5</v>
+      </c>
+      <c r="C226" s="1" t="str">
         <f t="shared" si="3"/>
-        <v>285</v>
+        <v>509.7</v>
       </c>
       <c r="D226" t="str">
         <f>_xll.RegexString(B226,"^.+[  ]cast.*?[  ](.+?)( on .+)*$",1,1)</f>
-        <v>刃风</v>
+        <v>花车</v>
       </c>
     </row>
     <row r="227" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A227" s="1">
-        <v>3.3249537037037037E-3</v>
+        <v>3.6097800925925919E-3</v>
       </c>
       <c r="B227" t="s">
-        <v>6</v>
-      </c>
-      <c r="C227" s="3">
+        <v>2</v>
+      </c>
+      <c r="C227" s="1" t="str">
         <f t="shared" si="3"/>
-        <v>287</v>
+        <v>511.9</v>
       </c>
       <c r="D227" t="str">
         <f>_xll.RegexString(B227,"^.+[  ]cast.*?[  ](.+?)( on .+)*$",1,1)</f>
-        <v>阵风</v>
+        <v>刃风</v>
       </c>
     </row>
     <row r="228" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A228" s="1">
-        <v>3.3332060185185183E-3</v>
+        <v>3.6242129629629632E-3</v>
       </c>
       <c r="B228" t="s">
-        <v>23</v>
-      </c>
-      <c r="C228" s="3">
+        <v>18</v>
+      </c>
+      <c r="C228" s="1" t="str">
         <f t="shared" si="3"/>
-        <v>288</v>
+        <v>513.1</v>
       </c>
       <c r="D228" t="str">
         <f>_xll.RegexString(B228,"^.+[  ]cast.*?[  ](.+?)( on .+)*$",1,1)</f>
-        <v>真北</v>
+        <v>必杀剑·震天</v>
       </c>
     </row>
     <row r="229" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A229" s="1">
-        <v>3.3502430555555555E-3</v>
+        <v>3.6344791666666665E-3</v>
       </c>
       <c r="B229" t="s">
-        <v>8</v>
-      </c>
-      <c r="C229" s="3">
+        <v>6</v>
+      </c>
+      <c r="C229" s="1" t="str">
         <f t="shared" si="3"/>
-        <v>289</v>
+        <v>514.0</v>
       </c>
       <c r="D229" t="str">
         <f>_xll.RegexString(B229,"^.+[  ]cast.*?[  ](.+?)( on .+)*$",1,1)</f>
-        <v>月光</v>
+        <v>阵风</v>
       </c>
     </row>
     <row r="230" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A230" s="1">
-        <v>3.3750347222222224E-3</v>
+        <v>3.6479166666666669E-3</v>
       </c>
       <c r="B230" t="s">
-        <v>22</v>
-      </c>
-      <c r="C230" s="3">
+        <v>14</v>
+      </c>
+      <c r="C230" s="1" t="str">
         <f t="shared" si="3"/>
-        <v>292</v>
+        <v>515.2</v>
       </c>
       <c r="D230" t="str">
         <f>_xll.RegexString(B230,"^.+[  ]cast.*?[  ](.+?)( on .+)*$",1,1)</f>
-        <v>必杀剑·晓天</v>
+        <v>心眼</v>
       </c>
     </row>
     <row r="231" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A231" s="1">
-        <v>3.3843402777777778E-3</v>
+        <v>3.6593171296296291E-3</v>
       </c>
       <c r="B231" t="s">
-        <v>2</v>
-      </c>
-      <c r="C231" s="3">
+        <v>8</v>
+      </c>
+      <c r="C231" s="1" t="str">
         <f t="shared" si="3"/>
-        <v>292</v>
+        <v>516.2</v>
       </c>
       <c r="D231" t="str">
         <f>_xll.RegexString(B231,"^.+[  ]cast.*?[  ](.+?)( on .+)*$",1,1)</f>
-        <v>刃风</v>
+        <v>月光</v>
       </c>
     </row>
     <row r="232" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A232" s="1">
-        <v>3.3936111111111111E-3</v>
+        <v>3.6675347222222226E-3</v>
       </c>
       <c r="B232" t="s">
-        <v>20</v>
-      </c>
-      <c r="C232" s="3">
+        <v>23</v>
+      </c>
+      <c r="C232" s="1" t="str">
         <f t="shared" si="3"/>
-        <v>293</v>
+        <v>516.9</v>
       </c>
       <c r="D232" t="str">
         <f>_xll.RegexString(B232,"^.+[  ]cast.*?[  ](.+?)( on .+)*$",1,1)</f>
-        <v>必杀剑·震天</v>
+        <v>牵制</v>
       </c>
     </row>
     <row r="233" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A233" s="1">
-        <v>3.4090509259259261E-3</v>
+        <v>3.6840624999999998E-3</v>
       </c>
       <c r="B233" t="s">
-        <v>4</v>
-      </c>
-      <c r="C233" s="3">
+        <v>2</v>
+      </c>
+      <c r="C233" s="1" t="str">
         <f t="shared" si="3"/>
-        <v>295</v>
+        <v>518.3</v>
       </c>
       <c r="D233" t="str">
         <f>_xll.RegexString(B233,"^.+[  ]cast.*?[  ](.+?)( on .+)*$",1,1)</f>
-        <v>士风</v>
+        <v>刃风</v>
       </c>
     </row>
     <row r="234" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A234" s="1">
-        <v>3.4337962962962963E-3</v>
+        <v>3.6928356481481482E-3</v>
       </c>
       <c r="B234" t="s">
-        <v>5</v>
-      </c>
-      <c r="C234" s="3">
+        <v>18</v>
+      </c>
+      <c r="C234" s="1" t="str">
         <f t="shared" si="3"/>
-        <v>297</v>
+        <v>519.1</v>
       </c>
       <c r="D234" t="str">
         <f>_xll.RegexString(B234,"^.+[  ]cast.*?[  ](.+?)( on .+)*$",1,1)</f>
-        <v>花车</v>
+        <v>必杀剑·震天</v>
       </c>
     </row>
     <row r="235" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A235" s="1">
-        <v>3.4586111111111107E-3</v>
+        <v>3.709340277777778E-3</v>
       </c>
       <c r="B235" t="s">
-        <v>2</v>
-      </c>
-      <c r="C235" s="3">
-        <f t="shared" si="3"/>
-        <v>299</v>
+        <v>10</v>
+      </c>
+      <c r="C235" s="1" t="str">
+        <f t="shared" ref="C235:C298" si="4">TEXT(LEFT(TEXT(A235,"mm:ss.0"),2)&amp;TEXT(A235,"ss.0"),"0.0")</f>
+        <v>520.5</v>
       </c>
       <c r="D235" t="str">
         <f>_xll.RegexString(B235,"^.+[  ]cast.*?[  ](.+?)( on .+)*$",1,1)</f>
-        <v>刃风</v>
+        <v>雪风</v>
       </c>
     </row>
     <row r="236" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A236" s="1">
-        <v>3.467384259259259E-3</v>
+        <v>3.7181249999999996E-3</v>
       </c>
       <c r="B236" t="s">
-        <v>15</v>
-      </c>
-      <c r="C236" s="3">
-        <f t="shared" si="3"/>
-        <v>300</v>
+        <v>18</v>
+      </c>
+      <c r="C236" s="1" t="str">
+        <f t="shared" si="4"/>
+        <v>521.2</v>
       </c>
       <c r="D236" t="str">
         <f>_xll.RegexString(B236,"^.+[  ]cast.*?[  ](.+?)( on .+)*$",1,1)</f>
-        <v>心眼</v>
+        <v>必杀剑·震天</v>
       </c>
     </row>
     <row r="237" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A237" s="1">
-        <v>3.4833680555555555E-3</v>
+        <v>3.7341203703703703E-3</v>
       </c>
       <c r="B237" t="s">
-        <v>10</v>
-      </c>
-      <c r="C237" s="3">
-        <f t="shared" si="3"/>
-        <v>301</v>
+        <v>2</v>
+      </c>
+      <c r="C237" s="1" t="str">
+        <f t="shared" si="4"/>
+        <v>522.6</v>
       </c>
       <c r="D237" t="str">
         <f>_xll.RegexString(B237,"^.+[  ]cast.*?[  ](.+?)( on .+)*$",1,1)</f>
-        <v>雪风</v>
+        <v>刃风</v>
       </c>
     </row>
     <row r="238" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A238" s="1">
-        <v>3.4968055555555555E-3</v>
+        <v>3.7516898148148149E-3</v>
       </c>
       <c r="B238" t="s">
-        <v>11</v>
-      </c>
-      <c r="C238" s="3">
-        <f t="shared" si="3"/>
-        <v>302</v>
+        <v>20</v>
+      </c>
+      <c r="C238" s="1" t="str">
+        <f t="shared" si="4"/>
+        <v>524.1</v>
       </c>
       <c r="D238" t="str">
         <f>_xll.RegexString(B238,"^.+[  ]cast.*?[  ](.+?)( on .+)*$",1,1)</f>
-        <v>必杀剑·回天</v>
+        <v>必杀剑·晓天</v>
       </c>
     </row>
     <row r="239" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A239" s="1">
-        <v>3.5081712962962961E-3</v>
+        <v>3.7594444444444442E-3</v>
       </c>
       <c r="B239" t="s">
-        <v>12</v>
-      </c>
-      <c r="C239" s="3">
-        <f t="shared" si="3"/>
-        <v>303</v>
+        <v>6</v>
+      </c>
+      <c r="C239" s="1" t="str">
+        <f t="shared" si="4"/>
+        <v>524.8</v>
       </c>
       <c r="D239" t="str">
         <f>_xll.RegexString(B239,"^.+[  ]cast.*?[  ](.+?)( on .+)*$",1,1)</f>
-        <v>纷乱雪月花</v>
+        <v>阵风</v>
       </c>
     </row>
     <row r="240" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A240" s="1">
-        <v>3.5169675925925928E-3</v>
+        <v>3.7682175925925925E-3</v>
       </c>
       <c r="B240" t="s">
-        <v>13</v>
-      </c>
-      <c r="C240" s="3">
-        <f t="shared" si="3"/>
-        <v>304</v>
+        <v>11</v>
+      </c>
+      <c r="C240" s="1" t="str">
+        <f t="shared" si="4"/>
+        <v>525.6</v>
       </c>
       <c r="D240" t="str">
         <f>_xll.RegexString(B240,"^.+[  ]cast.*?[  ](.+?)( on .+)*$",1,1)</f>
-        <v>纷乱雪月花</v>
+        <v>必杀剑·回天</v>
       </c>
     </row>
     <row r="241" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A241" s="1">
-        <v>3.5344675925925925E-3</v>
+        <v>3.7935300925925927E-3</v>
       </c>
       <c r="B241" t="s">
-        <v>2</v>
-      </c>
-      <c r="C241" s="3">
-        <f t="shared" si="3"/>
-        <v>305</v>
+        <v>12</v>
+      </c>
+      <c r="C241" s="1" t="str">
+        <f t="shared" si="4"/>
+        <v>527.8</v>
       </c>
       <c r="D241" t="str">
         <f>_xll.RegexString(B241,"^.+[  ]cast.*?[  ](.+?)( on .+)*$",1,1)</f>
-        <v>刃风</v>
+        <v>纷乱雪月花</v>
       </c>
     </row>
     <row r="242" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A242" s="1">
-        <v>3.5427199074074076E-3</v>
+        <v>3.8100231481481479E-3</v>
       </c>
       <c r="B242" t="s">
-        <v>20</v>
-      </c>
-      <c r="C242" s="3">
-        <f t="shared" si="3"/>
-        <v>306</v>
+        <v>13</v>
+      </c>
+      <c r="C242" s="1" t="str">
+        <f t="shared" si="4"/>
+        <v>529.2</v>
       </c>
       <c r="D242" t="str">
         <f>_xll.RegexString(B242,"^.+[  ]cast.*?[  ](.+?)( on .+)*$",1,1)</f>
-        <v>必杀剑·震天</v>
+        <v>回返雪月花</v>
       </c>
     </row>
     <row r="243" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A243" s="1">
-        <v>3.5602546296296298E-3</v>
+        <v>3.81880787037037E-3</v>
       </c>
       <c r="B243" t="s">
-        <v>4</v>
-      </c>
-      <c r="C243" s="3">
-        <f t="shared" si="3"/>
-        <v>308</v>
+        <v>16</v>
+      </c>
+      <c r="C243" s="1" t="str">
+        <f t="shared" si="4"/>
+        <v>529.9</v>
       </c>
       <c r="D243" t="str">
         <f>_xll.RegexString(B243,"^.+[  ]cast.*?[  ](.+?)( on .+)*$",1,1)</f>
-        <v>士风</v>
+        <v>照破</v>
       </c>
     </row>
     <row r="244" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A244" s="1">
-        <v>3.5679861111111116E-3</v>
+        <v>3.8353125000000002E-3</v>
       </c>
       <c r="B244" t="s">
-        <v>3</v>
-      </c>
-      <c r="C244" s="3">
-        <f t="shared" si="3"/>
-        <v>308</v>
+        <v>8</v>
+      </c>
+      <c r="C244" s="1" t="str">
+        <f t="shared" si="4"/>
+        <v>531.4</v>
       </c>
       <c r="D244" t="str">
         <f>_xll.RegexString(B244,"^.+[  ]cast.*?[  ](.+?)( on .+)*$",1,1)</f>
-        <v>意气冲天</v>
+        <v>月光</v>
       </c>
     </row>
     <row r="245" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A245" s="1">
-        <v>3.5757291666666667E-3</v>
+        <v>3.8440509259259261E-3</v>
       </c>
       <c r="B245" t="s">
-        <v>23</v>
-      </c>
-      <c r="C245" s="3">
-        <f t="shared" si="3"/>
-        <v>309</v>
+        <v>9</v>
+      </c>
+      <c r="C245" s="1" t="str">
+        <f t="shared" si="4"/>
+        <v>532.1</v>
       </c>
       <c r="D245" t="str">
         <f>_xll.RegexString(B245,"^.+[  ]cast.*?[  ](.+?)( on .+)*$",1,1)</f>
-        <v>真北</v>
+        <v>明镜止水</v>
       </c>
     </row>
     <row r="246" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A246" s="1">
-        <v>3.5849999999999996E-3</v>
+        <v>3.8601041666666666E-3</v>
       </c>
       <c r="B246" t="s">
         <v>5</v>
       </c>
-      <c r="C246" s="3">
-        <f t="shared" si="3"/>
-        <v>310</v>
+      <c r="C246" s="1" t="str">
+        <f t="shared" si="4"/>
+        <v>533.5</v>
       </c>
       <c r="D246" t="str">
         <f>_xll.RegexString(B246,"^.+[  ]cast.*?[  ](.+?)( on .+)*$",1,1)</f>
@@ -4445,126 +4467,126 @@
     </row>
     <row r="247" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A247" s="1">
-        <v>3.6097800925925919E-3</v>
+        <v>3.8848611111111111E-3</v>
       </c>
       <c r="B247" t="s">
-        <v>2</v>
-      </c>
-      <c r="C247" s="3">
-        <f t="shared" si="3"/>
-        <v>312</v>
+        <v>10</v>
+      </c>
+      <c r="C247" s="1" t="str">
+        <f t="shared" si="4"/>
+        <v>535.7</v>
       </c>
       <c r="D247" t="str">
         <f>_xll.RegexString(B247,"^.+[  ]cast.*?[  ](.+?)( on .+)*$",1,1)</f>
-        <v>刃风</v>
+        <v>雪风</v>
       </c>
     </row>
     <row r="248" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A248" s="1">
-        <v>3.6242129629629632E-3</v>
+        <v>3.8941666666666669E-3</v>
       </c>
       <c r="B248" t="s">
-        <v>20</v>
-      </c>
-      <c r="C248" s="3">
-        <f t="shared" si="3"/>
-        <v>313</v>
+        <v>11</v>
+      </c>
+      <c r="C248" s="1" t="str">
+        <f t="shared" si="4"/>
+        <v>536.5</v>
       </c>
       <c r="D248" t="str">
         <f>_xll.RegexString(B248,"^.+[  ]cast.*?[  ](.+?)( on .+)*$",1,1)</f>
-        <v>必杀剑·震天</v>
+        <v>必杀剑·回天</v>
       </c>
     </row>
     <row r="249" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A249" s="1">
-        <v>3.6344791666666665E-3</v>
+        <v>3.9184143518518517E-3</v>
       </c>
       <c r="B249" t="s">
-        <v>6</v>
-      </c>
-      <c r="C249" s="3">
-        <f t="shared" si="3"/>
-        <v>314</v>
+        <v>12</v>
+      </c>
+      <c r="C249" s="1" t="str">
+        <f t="shared" si="4"/>
+        <v>538.6</v>
       </c>
       <c r="D249" t="str">
         <f>_xll.RegexString(B249,"^.+[  ]cast.*?[  ](.+?)( on .+)*$",1,1)</f>
-        <v>阵风</v>
+        <v>纷乱雪月花</v>
       </c>
     </row>
     <row r="250" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A250" s="1">
-        <v>3.6479166666666669E-3</v>
+        <v>3.9343749999999995E-3</v>
       </c>
       <c r="B250" t="s">
-        <v>15</v>
-      </c>
-      <c r="C250" s="3">
-        <f t="shared" si="3"/>
-        <v>315</v>
+        <v>8</v>
+      </c>
+      <c r="C250" s="1" t="str">
+        <f t="shared" si="4"/>
+        <v>539.9</v>
       </c>
       <c r="D250" t="str">
         <f>_xll.RegexString(B250,"^.+[  ]cast.*?[  ](.+?)( on .+)*$",1,1)</f>
-        <v>心眼</v>
+        <v>月光</v>
       </c>
     </row>
     <row r="251" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A251" s="1">
-        <v>3.6593171296296291E-3</v>
+        <v>3.9591898148148156E-3</v>
       </c>
       <c r="B251" t="s">
-        <v>8</v>
-      </c>
-      <c r="C251" s="3">
-        <f t="shared" si="3"/>
-        <v>316</v>
+        <v>2</v>
+      </c>
+      <c r="C251" s="1" t="str">
+        <f t="shared" si="4"/>
+        <v>542.1</v>
       </c>
       <c r="D251" t="str">
         <f>_xll.RegexString(B251,"^.+[  ]cast.*?[  ](.+?)( on .+)*$",1,1)</f>
-        <v>月光</v>
+        <v>刃风</v>
       </c>
     </row>
     <row r="252" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A252" s="1">
-        <v>3.6675347222222226E-3</v>
+        <v>3.9674537037037039E-3</v>
       </c>
       <c r="B252" t="s">
-        <v>25</v>
-      </c>
-      <c r="C252" s="3">
-        <f t="shared" si="3"/>
-        <v>317</v>
+        <v>18</v>
+      </c>
+      <c r="C252" s="1" t="str">
+        <f t="shared" si="4"/>
+        <v>542.8</v>
       </c>
       <c r="D252" t="str">
         <f>_xll.RegexString(B252,"^.+[  ]cast.*?[  ](.+?)( on .+)*$",1,1)</f>
-        <v>牵制</v>
+        <v>必杀剑·震天</v>
       </c>
     </row>
     <row r="253" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A253" s="1">
-        <v>3.6840624999999998E-3</v>
+        <v>3.9839814814814816E-3</v>
       </c>
       <c r="B253" t="s">
-        <v>2</v>
-      </c>
-      <c r="C253" s="3">
-        <f t="shared" si="3"/>
-        <v>318</v>
+        <v>4</v>
+      </c>
+      <c r="C253" s="1" t="str">
+        <f t="shared" si="4"/>
+        <v>544.2</v>
       </c>
       <c r="D253" t="str">
         <f>_xll.RegexString(B253,"^.+[  ]cast.*?[  ](.+?)( on .+)*$",1,1)</f>
-        <v>刃风</v>
+        <v>士风</v>
       </c>
     </row>
     <row r="254" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A254" s="1">
-        <v>3.6928356481481482E-3</v>
+        <v>3.9917129629629625E-3</v>
       </c>
       <c r="B254" t="s">
-        <v>20</v>
-      </c>
-      <c r="C254" s="3">
-        <f t="shared" si="3"/>
-        <v>319</v>
+        <v>18</v>
+      </c>
+      <c r="C254" s="1" t="str">
+        <f t="shared" si="4"/>
+        <v>544.9</v>
       </c>
       <c r="D254" t="str">
         <f>_xll.RegexString(B254,"^.+[  ]cast.*?[  ](.+?)( on .+)*$",1,1)</f>
@@ -4573,745 +4595,625 @@
     </row>
     <row r="255" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A255" s="1">
-        <v>3.709340277777778E-3</v>
+        <v>4.008726851851851E-3</v>
       </c>
       <c r="B255" t="s">
-        <v>10</v>
-      </c>
-      <c r="C255" s="3">
-        <f t="shared" si="3"/>
-        <v>320</v>
+        <v>5</v>
+      </c>
+      <c r="C255" s="1" t="str">
+        <f t="shared" si="4"/>
+        <v>546.4</v>
       </c>
       <c r="D255" t="str">
         <f>_xll.RegexString(B255,"^.+[  ]cast.*?[  ](.+?)( on .+)*$",1,1)</f>
-        <v>雪风</v>
+        <v>花车</v>
       </c>
     </row>
     <row r="256" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A256" s="1">
-        <v>3.7181249999999996E-3</v>
+        <v>4.0334953703703704E-3</v>
       </c>
       <c r="B256" t="s">
-        <v>20</v>
-      </c>
-      <c r="C256" s="3">
-        <f t="shared" si="3"/>
-        <v>321</v>
+        <v>2</v>
+      </c>
+      <c r="C256" s="1" t="str">
+        <f t="shared" si="4"/>
+        <v>548.5</v>
       </c>
       <c r="D256" t="str">
         <f>_xll.RegexString(B256,"^.+[  ]cast.*?[  ](.+?)( on .+)*$",1,1)</f>
-        <v>必杀剑·震天</v>
+        <v>刃风</v>
       </c>
     </row>
     <row r="257" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A257" s="1">
-        <v>3.7341203703703703E-3</v>
+        <v>4.0468865740740743E-3</v>
       </c>
       <c r="B257" t="s">
-        <v>2</v>
-      </c>
-      <c r="C257" s="3">
-        <f t="shared" si="3"/>
-        <v>323</v>
+        <v>14</v>
+      </c>
+      <c r="C257" s="1" t="str">
+        <f t="shared" si="4"/>
+        <v>549.7</v>
       </c>
       <c r="D257" t="str">
         <f>_xll.RegexString(B257,"^.+[  ]cast.*?[  ](.+?)( on .+)*$",1,1)</f>
-        <v>刃风</v>
+        <v>心眼</v>
       </c>
     </row>
     <row r="258" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A258" s="1">
-        <v>3.7516898148148149E-3</v>
+        <v>4.0582638888888882E-3</v>
       </c>
       <c r="B258" t="s">
-        <v>22</v>
-      </c>
-      <c r="C258" s="3">
-        <f t="shared" ref="C258:C321" si="4">SECOND(A258)+MINUTE(A258)*60</f>
-        <v>324</v>
+        <v>10</v>
+      </c>
+      <c r="C258" s="1" t="str">
+        <f t="shared" si="4"/>
+        <v>550.6</v>
       </c>
       <c r="D258" t="str">
         <f>_xll.RegexString(B258,"^.+[  ]cast.*?[  ](.+?)( on .+)*$",1,1)</f>
-        <v>必杀剑·晓天</v>
+        <v>雪风</v>
       </c>
     </row>
     <row r="259" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A259" s="1">
-        <v>3.7594444444444442E-3</v>
+        <v>4.0721990740740736E-3</v>
       </c>
       <c r="B259" t="s">
-        <v>6</v>
-      </c>
-      <c r="C259" s="3">
+        <v>18</v>
+      </c>
+      <c r="C259" s="1" t="str">
         <f t="shared" si="4"/>
-        <v>325</v>
+        <v>551.8</v>
       </c>
       <c r="D259" t="str">
         <f>_xll.RegexString(B259,"^.+[  ]cast.*?[  ](.+?)( on .+)*$",1,1)</f>
-        <v>阵风</v>
+        <v>必杀剑·震天</v>
       </c>
     </row>
     <row r="260" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A260" s="1">
-        <v>3.7682175925925925E-3</v>
+        <v>4.262662037037037E-3</v>
       </c>
       <c r="B260" t="s">
-        <v>11</v>
-      </c>
-      <c r="C260" s="3">
+        <v>3</v>
+      </c>
+      <c r="C260" s="1" t="str">
         <f t="shared" si="4"/>
-        <v>326</v>
+        <v>608.3</v>
       </c>
       <c r="D260" t="str">
         <f>_xll.RegexString(B260,"^.+[  ]cast.*?[  ](.+?)( on .+)*$",1,1)</f>
-        <v>必杀剑·回天</v>
+        <v>意气冲天</v>
       </c>
     </row>
     <row r="261" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A261" s="1">
-        <v>3.7847453703703706E-3</v>
+        <v>4.3096296296296294E-3</v>
       </c>
       <c r="B261" t="s">
-        <v>12</v>
-      </c>
-      <c r="C261" s="3">
+        <v>24</v>
+      </c>
+      <c r="C261" s="1" t="str">
         <f t="shared" si="4"/>
-        <v>327</v>
+        <v>612.4</v>
       </c>
       <c r="D261" t="str">
         <f>_xll.RegexString(B261,"^.+[  ]cast.*?[  ](.+?)( on .+)*$",1,1)</f>
-        <v>纷乱雪月花</v>
+        <v>默想</v>
       </c>
     </row>
     <row r="262" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A262" s="1">
-        <v>3.7935300925925927E-3</v>
+        <v>4.4598611111111115E-3</v>
       </c>
       <c r="B262" t="s">
-        <v>13</v>
-      </c>
-      <c r="C262" s="3">
+        <v>14</v>
+      </c>
+      <c r="C262" s="1" t="str">
         <f t="shared" si="4"/>
-        <v>328</v>
+        <v>625.3</v>
       </c>
       <c r="D262" t="str">
         <f>_xll.RegexString(B262,"^.+[  ]cast.*?[  ](.+?)( on .+)*$",1,1)</f>
-        <v>纷乱雪月花</v>
+        <v>心眼</v>
       </c>
     </row>
     <row r="263" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A263" s="1">
-        <v>3.8100231481481479E-3</v>
+        <v>4.5016666666666668E-3</v>
       </c>
       <c r="B263" t="s">
-        <v>14</v>
-      </c>
-      <c r="C263" s="3">
+        <v>2</v>
+      </c>
+      <c r="C263" s="1" t="str">
         <f t="shared" si="4"/>
-        <v>329</v>
+        <v>628.9</v>
       </c>
       <c r="D263" t="str">
         <f>_xll.RegexString(B263,"^.+[  ]cast.*?[  ](.+?)( on .+)*$",1,1)</f>
-        <v>回返雪月花</v>
+        <v>刃风</v>
       </c>
     </row>
     <row r="264" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A264" s="1">
-        <v>3.81880787037037E-3</v>
+        <v>4.5099305555555561E-3</v>
       </c>
       <c r="B264" t="s">
-        <v>18</v>
-      </c>
-      <c r="C264" s="3">
+        <v>25</v>
+      </c>
+      <c r="C264" s="1" t="str">
         <f t="shared" si="4"/>
-        <v>330</v>
+        <v>629.7</v>
       </c>
       <c r="D264" t="str">
         <f>_xll.RegexString(B264,"^.+[  ]cast.*?[  ](.+?)( on .+)*$",1,1)</f>
-        <v>照破</v>
+        <v>Item_Fbf55</v>
       </c>
     </row>
     <row r="265" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A265" s="1">
-        <v>3.8353125000000002E-3</v>
+        <v>4.5300231481481485E-3</v>
       </c>
       <c r="B265" t="s">
-        <v>8</v>
-      </c>
-      <c r="C265" s="3">
+        <v>6</v>
+      </c>
+      <c r="C265" s="1" t="str">
         <f t="shared" si="4"/>
-        <v>331</v>
+        <v>631.4</v>
       </c>
       <c r="D265" t="str">
         <f>_xll.RegexString(B265,"^.+[  ]cast.*?[  ](.+?)( on .+)*$",1,1)</f>
-        <v>月光</v>
+        <v>阵风</v>
       </c>
     </row>
     <row r="266" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A266" s="1">
-        <v>3.8440509259259261E-3</v>
+        <v>4.5408564814814817E-3</v>
       </c>
       <c r="B266" t="s">
-        <v>9</v>
-      </c>
-      <c r="C266" s="3">
+        <v>7</v>
+      </c>
+      <c r="C266" s="1" t="str">
         <f t="shared" si="4"/>
-        <v>332</v>
+        <v>632.3</v>
       </c>
       <c r="D266" t="str">
         <f>_xll.RegexString(B266,"^.+[  ]cast.*?[  ](.+?)( on .+)*$",1,1)</f>
-        <v>明镜止水</v>
+        <v>必杀剑·闪影</v>
       </c>
     </row>
     <row r="267" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A267" s="1">
-        <v>3.8601041666666666E-3</v>
+        <v>4.548553240740741E-3</v>
       </c>
       <c r="B267" t="s">
-        <v>5</v>
-      </c>
-      <c r="C267" s="3">
+        <v>11</v>
+      </c>
+      <c r="C267" s="1" t="str">
         <f t="shared" si="4"/>
-        <v>334</v>
+        <v>633.0</v>
       </c>
       <c r="D267" t="str">
         <f>_xll.RegexString(B267,"^.+[  ]cast.*?[  ](.+?)( on .+)*$",1,1)</f>
-        <v>花车</v>
+        <v>必杀剑·回天</v>
       </c>
     </row>
     <row r="268" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A268" s="1">
-        <v>3.8848611111111111E-3</v>
+        <v>4.5671412037037043E-3</v>
       </c>
       <c r="B268" t="s">
-        <v>10</v>
-      </c>
-      <c r="C268" s="3">
+        <v>12</v>
+      </c>
+      <c r="C268" s="1" t="str">
         <f t="shared" si="4"/>
-        <v>336</v>
+        <v>634.6</v>
       </c>
       <c r="D268" t="str">
         <f>_xll.RegexString(B268,"^.+[  ]cast.*?[  ](.+?)( on .+)*$",1,1)</f>
-        <v>雪风</v>
+        <v>纷乱雪月花</v>
       </c>
     </row>
     <row r="269" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A269" s="1">
-        <v>3.8941666666666669E-3</v>
+        <v>4.5867824074074075E-3</v>
       </c>
       <c r="B269" t="s">
-        <v>11</v>
-      </c>
-      <c r="C269" s="3">
+        <v>13</v>
+      </c>
+      <c r="C269" s="1" t="str">
         <f t="shared" si="4"/>
-        <v>336</v>
+        <v>636.3</v>
       </c>
       <c r="D269" t="str">
         <f>_xll.RegexString(B269,"^.+[  ]cast.*?[  ](.+?)( on .+)*$",1,1)</f>
-        <v>必杀剑·回天</v>
+        <v>回返雪月花</v>
       </c>
     </row>
     <row r="270" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A270" s="1">
-        <v>3.9096180555555559E-3</v>
+        <v>4.5945254629629626E-3</v>
       </c>
       <c r="B270" t="s">
-        <v>12</v>
-      </c>
-      <c r="C270" s="3">
+        <v>16</v>
+      </c>
+      <c r="C270" s="1" t="str">
         <f t="shared" si="4"/>
-        <v>338</v>
+        <v>637.0</v>
       </c>
       <c r="D270" t="str">
         <f>_xll.RegexString(B270,"^.+[  ]cast.*?[  ](.+?)( on .+)*$",1,1)</f>
-        <v>纷乱雪月花</v>
+        <v>照破</v>
       </c>
     </row>
     <row r="271" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A271" s="1">
-        <v>3.9184143518518517E-3</v>
+        <v>4.6156828703703698E-3</v>
       </c>
       <c r="B271" t="s">
-        <v>13</v>
-      </c>
-      <c r="C271" s="3">
+        <v>8</v>
+      </c>
+      <c r="C271" s="1" t="str">
         <f t="shared" si="4"/>
-        <v>339</v>
+        <v>638.8</v>
       </c>
       <c r="D271" t="str">
         <f>_xll.RegexString(B271,"^.+[  ]cast.*?[  ](.+?)( on .+)*$",1,1)</f>
-        <v>纷乱雪月花</v>
+        <v>月光</v>
       </c>
     </row>
     <row r="272" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A272" s="1">
-        <v>3.9343749999999995E-3</v>
+        <v>4.6440624999999998E-3</v>
       </c>
       <c r="B272" t="s">
-        <v>8</v>
-      </c>
-      <c r="C272" s="3">
+        <v>2</v>
+      </c>
+      <c r="C272" s="1" t="str">
         <f t="shared" si="4"/>
-        <v>340</v>
+        <v>641.2</v>
       </c>
       <c r="D272" t="str">
         <f>_xll.RegexString(B272,"^.+[  ]cast.*?[  ](.+?)( on .+)*$",1,1)</f>
-        <v>月光</v>
+        <v>刃风</v>
       </c>
     </row>
     <row r="273" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A273" s="1">
-        <v>3.9591898148148156E-3</v>
+        <v>4.672465277777778E-3</v>
       </c>
       <c r="B273" t="s">
-        <v>2</v>
-      </c>
-      <c r="C273" s="3">
+        <v>4</v>
+      </c>
+      <c r="C273" s="1" t="str">
         <f t="shared" si="4"/>
-        <v>342</v>
+        <v>643.7</v>
       </c>
       <c r="D273" t="str">
         <f>_xll.RegexString(B273,"^.+[  ]cast.*?[  ](.+?)( on .+)*$",1,1)</f>
-        <v>刃风</v>
+        <v>士风</v>
       </c>
     </row>
     <row r="274" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A274" s="1">
-        <v>3.9674537037037039E-3</v>
+        <v>4.6806828703703706E-3</v>
       </c>
       <c r="B274" t="s">
-        <v>20</v>
-      </c>
-      <c r="C274" s="3">
+        <v>11</v>
+      </c>
+      <c r="C274" s="1" t="str">
         <f t="shared" si="4"/>
-        <v>343</v>
+        <v>644.4</v>
       </c>
       <c r="D274" t="str">
         <f>_xll.RegexString(B274,"^.+[  ]cast.*?[  ](.+?)( on .+)*$",1,1)</f>
-        <v>必杀剑·震天</v>
+        <v>必杀剑·回天</v>
       </c>
     </row>
     <row r="275" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A275" s="1">
-        <v>3.9839814814814816E-3</v>
+        <v>4.709664351851852E-3</v>
       </c>
       <c r="B275" t="s">
-        <v>4</v>
-      </c>
-      <c r="C275" s="3">
+        <v>15</v>
+      </c>
+      <c r="C275" s="1" t="str">
         <f t="shared" si="4"/>
-        <v>344</v>
+        <v>646.9</v>
       </c>
       <c r="D275" t="str">
         <f>_xll.RegexString(B275,"^.+[  ]cast.*?[  ](.+?)( on .+)*$",1,1)</f>
-        <v>士风</v>
+        <v>彼岸花</v>
       </c>
     </row>
     <row r="276" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A276" s="1">
-        <v>3.9917129629629625E-3</v>
+        <v>4.7256365740740739E-3</v>
       </c>
       <c r="B276" t="s">
-        <v>20</v>
-      </c>
-      <c r="C276" s="3">
+        <v>5</v>
+      </c>
+      <c r="C276" s="1" t="str">
         <f t="shared" si="4"/>
-        <v>345</v>
+        <v>648.3</v>
       </c>
       <c r="D276" t="str">
         <f>_xll.RegexString(B276,"^.+[  ]cast.*?[  ](.+?)( on .+)*$",1,1)</f>
-        <v>必杀剑·震天</v>
+        <v>花车</v>
       </c>
     </row>
     <row r="277" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A277" s="1">
-        <v>4.008726851851851E-3</v>
-      </c>
-      <c r="B277" t="s">
-        <v>5</v>
-      </c>
-      <c r="C277" s="3">
+      <c r="A277" s="1"/>
+      <c r="C277" s="1" t="str">
         <f t="shared" si="4"/>
-        <v>346</v>
+        <v>0.0</v>
       </c>
       <c r="D277" t="str">
         <f>_xll.RegexString(B277,"^.+[  ]cast.*?[  ](.+?)( on .+)*$",1,1)</f>
-        <v>花车</v>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="278" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A278" s="1">
-        <v>4.0334953703703704E-3</v>
-      </c>
-      <c r="B278" t="s">
-        <v>2</v>
-      </c>
-      <c r="C278" s="3">
+      <c r="A278" s="1"/>
+      <c r="C278" s="1" t="str">
         <f t="shared" si="4"/>
-        <v>348</v>
+        <v>0.0</v>
       </c>
       <c r="D278" t="str">
         <f>_xll.RegexString(B278,"^.+[  ]cast.*?[  ](.+?)( on .+)*$",1,1)</f>
-        <v>刃风</v>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="279" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A279" s="1">
-        <v>4.0468865740740743E-3</v>
-      </c>
-      <c r="B279" t="s">
-        <v>15</v>
-      </c>
-      <c r="C279" s="3">
+      <c r="A279" s="1"/>
+      <c r="C279" s="1" t="str">
         <f t="shared" si="4"/>
-        <v>350</v>
+        <v>0.0</v>
       </c>
       <c r="D279" t="str">
         <f>_xll.RegexString(B279,"^.+[  ]cast.*?[  ](.+?)( on .+)*$",1,1)</f>
-        <v>心眼</v>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="280" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A280" s="1">
-        <v>4.0582638888888882E-3</v>
-      </c>
-      <c r="B280" t="s">
-        <v>10</v>
-      </c>
-      <c r="C280" s="3">
+      <c r="A280" s="1"/>
+      <c r="C280" s="1" t="str">
         <f t="shared" si="4"/>
-        <v>351</v>
+        <v>0.0</v>
       </c>
       <c r="D280" t="str">
         <f>_xll.RegexString(B280,"^.+[  ]cast.*?[  ](.+?)( on .+)*$",1,1)</f>
-        <v>雪风</v>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="281" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A281" s="1">
-        <v>4.0721990740740736E-3</v>
-      </c>
-      <c r="B281" t="s">
-        <v>20</v>
-      </c>
-      <c r="C281" s="3">
+      <c r="A281" s="1"/>
+      <c r="C281" s="1" t="str">
         <f t="shared" si="4"/>
-        <v>352</v>
+        <v>0.0</v>
       </c>
       <c r="D281" t="str">
         <f>_xll.RegexString(B281,"^.+[  ]cast.*?[  ](.+?)( on .+)*$",1,1)</f>
-        <v>必杀剑·震天</v>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="282" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A282" s="1">
-        <v>4.262662037037037E-3</v>
-      </c>
-      <c r="B282" t="s">
-        <v>3</v>
-      </c>
-      <c r="C282" s="3">
+      <c r="A282" s="1"/>
+      <c r="C282" s="1" t="str">
         <f t="shared" si="4"/>
-        <v>368</v>
+        <v>0.0</v>
       </c>
       <c r="D282" t="str">
         <f>_xll.RegexString(B282,"^.+[  ]cast.*?[  ](.+?)( on .+)*$",1,1)</f>
-        <v>意气冲天</v>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="283" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A283" s="1">
-        <v>4.3096296296296294E-3</v>
-      </c>
-      <c r="B283" t="s">
-        <v>26</v>
-      </c>
-      <c r="C283" s="3">
+      <c r="A283" s="1"/>
+      <c r="C283" s="1" t="str">
         <f t="shared" si="4"/>
-        <v>372</v>
+        <v>0.0</v>
       </c>
       <c r="D283" t="str">
         <f>_xll.RegexString(B283,"^.+[  ]cast.*?[  ](.+?)( on .+)*$",1,1)</f>
-        <v>默想</v>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="284" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A284" s="1">
-        <v>4.4598611111111115E-3</v>
-      </c>
-      <c r="B284" t="s">
-        <v>15</v>
-      </c>
-      <c r="C284" s="3">
+      <c r="A284" s="1"/>
+      <c r="C284" s="1" t="str">
         <f t="shared" si="4"/>
-        <v>385</v>
+        <v>0.0</v>
       </c>
       <c r="D284" t="str">
         <f>_xll.RegexString(B284,"^.+[  ]cast.*?[  ](.+?)( on .+)*$",1,1)</f>
-        <v>心眼</v>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="285" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A285" s="1">
-        <v>4.5016666666666668E-3</v>
-      </c>
-      <c r="B285" t="s">
-        <v>2</v>
-      </c>
-      <c r="C285" s="3">
+      <c r="A285" s="1"/>
+      <c r="C285" s="1" t="str">
         <f t="shared" si="4"/>
-        <v>389</v>
+        <v>0.0</v>
       </c>
       <c r="D285" t="str">
         <f>_xll.RegexString(B285,"^.+[  ]cast.*?[  ](.+?)( on .+)*$",1,1)</f>
-        <v>刃风</v>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="286" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A286" s="1">
-        <v>4.5099305555555561E-3</v>
-      </c>
-      <c r="B286" t="s">
-        <v>27</v>
-      </c>
-      <c r="C286" s="3">
+      <c r="A286" s="1"/>
+      <c r="C286" s="1" t="str">
         <f t="shared" si="4"/>
-        <v>390</v>
+        <v>0.0</v>
       </c>
       <c r="D286" t="str">
         <f>_xll.RegexString(B286,"^.+[  ]cast.*?[  ](.+?)( on .+)*$",1,1)</f>
-        <v>Item_Fbf55</v>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="287" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A287" s="1">
-        <v>4.5300231481481485E-3</v>
-      </c>
-      <c r="B287" t="s">
-        <v>6</v>
-      </c>
-      <c r="C287" s="3">
+      <c r="A287" s="1"/>
+      <c r="C287" s="1" t="str">
         <f t="shared" si="4"/>
-        <v>391</v>
+        <v>0.0</v>
       </c>
       <c r="D287" t="str">
         <f>_xll.RegexString(B287,"^.+[  ]cast.*?[  ](.+?)( on .+)*$",1,1)</f>
-        <v>阵风</v>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="288" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A288" s="1">
-        <v>4.5408564814814817E-3</v>
-      </c>
-      <c r="B288" t="s">
-        <v>7</v>
-      </c>
-      <c r="C288" s="3">
+      <c r="A288" s="1"/>
+      <c r="C288" s="1" t="str">
         <f t="shared" si="4"/>
-        <v>392</v>
+        <v>0.0</v>
       </c>
       <c r="D288" t="str">
         <f>_xll.RegexString(B288,"^.+[  ]cast.*?[  ](.+?)( on .+)*$",1,1)</f>
-        <v>必杀剑·闪影</v>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="289" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A289" s="1">
-        <v>4.548553240740741E-3</v>
-      </c>
-      <c r="B289" t="s">
-        <v>11</v>
-      </c>
-      <c r="C289" s="3">
+      <c r="A289" s="1"/>
+      <c r="C289" s="1" t="str">
         <f t="shared" si="4"/>
-        <v>393</v>
+        <v>0.0</v>
       </c>
       <c r="D289" t="str">
         <f>_xll.RegexString(B289,"^.+[  ]cast.*?[  ](.+?)( on .+)*$",1,1)</f>
-        <v>必杀剑·回天</v>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="290" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A290" s="1">
-        <v>4.5583564814814818E-3</v>
-      </c>
-      <c r="B290" t="s">
-        <v>12</v>
-      </c>
-      <c r="C290" s="3">
+      <c r="A290" s="1"/>
+      <c r="C290" s="1" t="str">
         <f t="shared" si="4"/>
-        <v>394</v>
+        <v>0.0</v>
       </c>
       <c r="D290" t="str">
         <f>_xll.RegexString(B290,"^.+[  ]cast.*?[  ](.+?)( on .+)*$",1,1)</f>
-        <v>纷乱雪月花</v>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="291" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A291" s="1">
-        <v>4.5671412037037043E-3</v>
-      </c>
-      <c r="B291" t="s">
-        <v>13</v>
-      </c>
-      <c r="C291" s="3">
+      <c r="A291" s="1"/>
+      <c r="C291" s="1" t="str">
         <f t="shared" si="4"/>
-        <v>395</v>
+        <v>0.0</v>
       </c>
       <c r="D291" t="str">
         <f>_xll.RegexString(B291,"^.+[  ]cast.*?[  ](.+?)( on .+)*$",1,1)</f>
-        <v>纷乱雪月花</v>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="292" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A292" s="1">
-        <v>4.5867824074074075E-3</v>
-      </c>
-      <c r="B292" t="s">
-        <v>14</v>
-      </c>
-      <c r="C292" s="3">
+      <c r="A292" s="1"/>
+      <c r="C292" s="1" t="str">
         <f t="shared" si="4"/>
-        <v>396</v>
+        <v>0.0</v>
       </c>
       <c r="D292" t="str">
         <f>_xll.RegexString(B292,"^.+[  ]cast.*?[  ](.+?)( on .+)*$",1,1)</f>
-        <v>回返雪月花</v>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="293" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A293" s="1">
-        <v>4.5945254629629626E-3</v>
-      </c>
-      <c r="B293" t="s">
-        <v>18</v>
-      </c>
-      <c r="C293" s="3">
+      <c r="A293" s="1"/>
+      <c r="C293" s="1" t="str">
         <f t="shared" si="4"/>
-        <v>397</v>
+        <v>0.0</v>
       </c>
       <c r="D293" t="str">
         <f>_xll.RegexString(B293,"^.+[  ]cast.*?[  ](.+?)( on .+)*$",1,1)</f>
-        <v>照破</v>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="294" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A294" s="1">
-        <v>4.6156828703703698E-3</v>
-      </c>
-      <c r="B294" t="s">
-        <v>8</v>
-      </c>
-      <c r="C294" s="3">
+      <c r="A294" s="1"/>
+      <c r="C294" s="1" t="str">
         <f t="shared" si="4"/>
-        <v>399</v>
+        <v>0.0</v>
       </c>
       <c r="D294" t="str">
         <f>_xll.RegexString(B294,"^.+[  ]cast.*?[  ](.+?)( on .+)*$",1,1)</f>
-        <v>月光</v>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="295" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A295" s="1">
-        <v>4.6440624999999998E-3</v>
-      </c>
-      <c r="B295" t="s">
-        <v>2</v>
-      </c>
-      <c r="C295" s="3">
+      <c r="A295" s="1"/>
+      <c r="C295" s="1" t="str">
         <f t="shared" si="4"/>
-        <v>401</v>
+        <v>0.0</v>
       </c>
       <c r="D295" t="str">
         <f>_xll.RegexString(B295,"^.+[  ]cast.*?[  ](.+?)( on .+)*$",1,1)</f>
-        <v>刃风</v>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="296" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A296" s="1">
-        <v>4.672465277777778E-3</v>
-      </c>
-      <c r="B296" t="s">
-        <v>4</v>
-      </c>
-      <c r="C296" s="3">
+      <c r="A296" s="1"/>
+      <c r="C296" s="1" t="str">
         <f t="shared" si="4"/>
-        <v>404</v>
+        <v>0.0</v>
       </c>
       <c r="D296" t="str">
         <f>_xll.RegexString(B296,"^.+[  ]cast.*?[  ](.+?)( on .+)*$",1,1)</f>
-        <v>士风</v>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="297" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A297" s="1">
-        <v>4.6806828703703706E-3</v>
-      </c>
-      <c r="B297" t="s">
-        <v>11</v>
-      </c>
-      <c r="C297" s="3">
+      <c r="A297" s="1"/>
+      <c r="C297" s="1" t="str">
         <f t="shared" si="4"/>
-        <v>404</v>
+        <v>0.0</v>
       </c>
       <c r="D297" t="str">
         <f>_xll.RegexString(B297,"^.+[  ]cast.*?[  ](.+?)( on .+)*$",1,1)</f>
-        <v>必杀剑·回天</v>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="298" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A298" s="1">
-        <v>4.7008449074074079E-3</v>
-      </c>
-      <c r="B298" t="s">
-        <v>16</v>
-      </c>
-      <c r="C298" s="3">
+      <c r="A298" s="1"/>
+      <c r="C298" s="1" t="str">
         <f t="shared" si="4"/>
-        <v>406</v>
+        <v>0.0</v>
       </c>
       <c r="D298" t="str">
         <f>_xll.RegexString(B298,"^.+[  ]cast.*?[  ](.+?)( on .+)*$",1,1)</f>
-        <v>彼岸花</v>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="299" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A299" s="1">
-        <v>4.709664351851852E-3</v>
-      </c>
-      <c r="B299" t="s">
-        <v>17</v>
-      </c>
-      <c r="C299" s="3">
-        <f t="shared" si="4"/>
-        <v>407</v>
+      <c r="A299" s="1"/>
+      <c r="C299" s="1" t="str">
+        <f t="shared" ref="C299:C362" si="5">TEXT(LEFT(TEXT(A299,"mm:ss.0"),2)&amp;TEXT(A299,"ss.0"),"0.0")</f>
+        <v>0.0</v>
       </c>
       <c r="D299" t="str">
         <f>_xll.RegexString(B299,"^.+[  ]cast.*?[  ](.+?)( on .+)*$",1,1)</f>
-        <v>彼岸花</v>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="300" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A300" s="1">
-        <v>4.7256365740740739E-3</v>
-      </c>
-      <c r="B300" t="s">
-        <v>5</v>
-      </c>
-      <c r="C300" s="3">
-        <f t="shared" si="4"/>
-        <v>408</v>
+      <c r="A300" s="1"/>
+      <c r="C300" s="1" t="str">
+        <f t="shared" si="5"/>
+        <v>0.0</v>
       </c>
       <c r="D300" t="str">
         <f>_xll.RegexString(B300,"^.+[  ]cast.*?[  ](.+?)( on .+)*$",1,1)</f>
-        <v>花车</v>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="301" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A301" s="1"/>
-      <c r="C301" s="3">
-        <f t="shared" si="4"/>
-        <v>0</v>
+      <c r="C301" s="1" t="str">
+        <f t="shared" si="5"/>
+        <v>0.0</v>
       </c>
       <c r="D301" t="str">
         <f>_xll.RegexString(B301,"^.+[  ]cast.*?[  ](.+?)( on .+)*$",1,1)</f>
@@ -5320,9 +5222,9 @@
     </row>
     <row r="302" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A302" s="1"/>
-      <c r="C302" s="3">
-        <f t="shared" si="4"/>
-        <v>0</v>
+      <c r="C302" s="1" t="str">
+        <f t="shared" si="5"/>
+        <v>0.0</v>
       </c>
       <c r="D302" t="str">
         <f>_xll.RegexString(B302,"^.+[  ]cast.*?[  ](.+?)( on .+)*$",1,1)</f>
@@ -5331,9 +5233,9 @@
     </row>
     <row r="303" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A303" s="1"/>
-      <c r="C303" s="3">
-        <f t="shared" si="4"/>
-        <v>0</v>
+      <c r="C303" s="1" t="str">
+        <f t="shared" si="5"/>
+        <v>0.0</v>
       </c>
       <c r="D303" t="str">
         <f>_xll.RegexString(B303,"^.+[  ]cast.*?[  ](.+?)( on .+)*$",1,1)</f>
@@ -5342,9 +5244,9 @@
     </row>
     <row r="304" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A304" s="1"/>
-      <c r="C304" s="3">
-        <f t="shared" si="4"/>
-        <v>0</v>
+      <c r="C304" s="1" t="str">
+        <f t="shared" si="5"/>
+        <v>0.0</v>
       </c>
       <c r="D304" t="str">
         <f>_xll.RegexString(B304,"^.+[  ]cast.*?[  ](.+?)( on .+)*$",1,1)</f>
@@ -5353,9 +5255,9 @@
     </row>
     <row r="305" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A305" s="1"/>
-      <c r="C305" s="3">
-        <f t="shared" si="4"/>
-        <v>0</v>
+      <c r="C305" s="1" t="str">
+        <f t="shared" si="5"/>
+        <v>0.0</v>
       </c>
       <c r="D305" t="str">
         <f>_xll.RegexString(B305,"^.+[  ]cast.*?[  ](.+?)( on .+)*$",1,1)</f>
@@ -5364,9 +5266,9 @@
     </row>
     <row r="306" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A306" s="1"/>
-      <c r="C306" s="3">
-        <f t="shared" si="4"/>
-        <v>0</v>
+      <c r="C306" s="1" t="str">
+        <f t="shared" si="5"/>
+        <v>0.0</v>
       </c>
       <c r="D306" t="str">
         <f>_xll.RegexString(B306,"^.+[  ]cast.*?[  ](.+?)( on .+)*$",1,1)</f>
@@ -5375,9 +5277,9 @@
     </row>
     <row r="307" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A307" s="1"/>
-      <c r="C307" s="3">
-        <f t="shared" si="4"/>
-        <v>0</v>
+      <c r="C307" s="1" t="str">
+        <f t="shared" si="5"/>
+        <v>0.0</v>
       </c>
       <c r="D307" t="str">
         <f>_xll.RegexString(B307,"^.+[  ]cast.*?[  ](.+?)( on .+)*$",1,1)</f>
@@ -5386,9 +5288,9 @@
     </row>
     <row r="308" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A308" s="1"/>
-      <c r="C308" s="3">
-        <f t="shared" si="4"/>
-        <v>0</v>
+      <c r="C308" s="1" t="str">
+        <f t="shared" si="5"/>
+        <v>0.0</v>
       </c>
       <c r="D308" t="str">
         <f>_xll.RegexString(B308,"^.+[  ]cast.*?[  ](.+?)( on .+)*$",1,1)</f>
@@ -5397,9 +5299,9 @@
     </row>
     <row r="309" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A309" s="1"/>
-      <c r="C309" s="3">
-        <f t="shared" si="4"/>
-        <v>0</v>
+      <c r="C309" s="1" t="str">
+        <f t="shared" si="5"/>
+        <v>0.0</v>
       </c>
       <c r="D309" t="str">
         <f>_xll.RegexString(B309,"^.+[  ]cast.*?[  ](.+?)( on .+)*$",1,1)</f>
@@ -5408,9 +5310,9 @@
     </row>
     <row r="310" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A310" s="1"/>
-      <c r="C310" s="3">
-        <f t="shared" si="4"/>
-        <v>0</v>
+      <c r="C310" s="1" t="str">
+        <f t="shared" si="5"/>
+        <v>0.0</v>
       </c>
       <c r="D310" t="str">
         <f>_xll.RegexString(B310,"^.+[  ]cast.*?[  ](.+?)( on .+)*$",1,1)</f>
@@ -5419,9 +5321,9 @@
     </row>
     <row r="311" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A311" s="1"/>
-      <c r="C311" s="3">
-        <f t="shared" si="4"/>
-        <v>0</v>
+      <c r="C311" s="1" t="str">
+        <f t="shared" si="5"/>
+        <v>0.0</v>
       </c>
       <c r="D311" t="str">
         <f>_xll.RegexString(B311,"^.+[  ]cast.*?[  ](.+?)( on .+)*$",1,1)</f>
@@ -5430,9 +5332,9 @@
     </row>
     <row r="312" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A312" s="1"/>
-      <c r="C312" s="3">
-        <f t="shared" si="4"/>
-        <v>0</v>
+      <c r="C312" s="1" t="str">
+        <f t="shared" si="5"/>
+        <v>0.0</v>
       </c>
       <c r="D312" t="str">
         <f>_xll.RegexString(B312,"^.+[  ]cast.*?[  ](.+?)( on .+)*$",1,1)</f>
@@ -5441,9 +5343,9 @@
     </row>
     <row r="313" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A313" s="1"/>
-      <c r="C313" s="3">
-        <f t="shared" si="4"/>
-        <v>0</v>
+      <c r="C313" s="1" t="str">
+        <f t="shared" si="5"/>
+        <v>0.0</v>
       </c>
       <c r="D313" t="str">
         <f>_xll.RegexString(B313,"^.+[  ]cast.*?[  ](.+?)( on .+)*$",1,1)</f>
@@ -5452,9 +5354,9 @@
     </row>
     <row r="314" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A314" s="1"/>
-      <c r="C314" s="3">
-        <f t="shared" si="4"/>
-        <v>0</v>
+      <c r="C314" s="1" t="str">
+        <f t="shared" si="5"/>
+        <v>0.0</v>
       </c>
       <c r="D314" t="str">
         <f>_xll.RegexString(B314,"^.+[  ]cast.*?[  ](.+?)( on .+)*$",1,1)</f>
@@ -5463,9 +5365,9 @@
     </row>
     <row r="315" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A315" s="1"/>
-      <c r="C315" s="3">
-        <f t="shared" si="4"/>
-        <v>0</v>
+      <c r="C315" s="1" t="str">
+        <f t="shared" si="5"/>
+        <v>0.0</v>
       </c>
       <c r="D315" t="str">
         <f>_xll.RegexString(B315,"^.+[  ]cast.*?[  ](.+?)( on .+)*$",1,1)</f>
@@ -5474,9 +5376,9 @@
     </row>
     <row r="316" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A316" s="1"/>
-      <c r="C316" s="3">
-        <f t="shared" si="4"/>
-        <v>0</v>
+      <c r="C316" s="1" t="str">
+        <f t="shared" si="5"/>
+        <v>0.0</v>
       </c>
       <c r="D316" t="str">
         <f>_xll.RegexString(B316,"^.+[  ]cast.*?[  ](.+?)( on .+)*$",1,1)</f>
@@ -5485,9 +5387,9 @@
     </row>
     <row r="317" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A317" s="1"/>
-      <c r="C317" s="3">
-        <f t="shared" si="4"/>
-        <v>0</v>
+      <c r="C317" s="1" t="str">
+        <f t="shared" si="5"/>
+        <v>0.0</v>
       </c>
       <c r="D317" t="str">
         <f>_xll.RegexString(B317,"^.+[  ]cast.*?[  ](.+?)( on .+)*$",1,1)</f>
@@ -5496,9 +5398,9 @@
     </row>
     <row r="318" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A318" s="1"/>
-      <c r="C318" s="3">
-        <f t="shared" si="4"/>
-        <v>0</v>
+      <c r="C318" s="1" t="str">
+        <f t="shared" si="5"/>
+        <v>0.0</v>
       </c>
       <c r="D318" t="str">
         <f>_xll.RegexString(B318,"^.+[  ]cast.*?[  ](.+?)( on .+)*$",1,1)</f>
@@ -5507,9 +5409,9 @@
     </row>
     <row r="319" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A319" s="1"/>
-      <c r="C319" s="3">
-        <f t="shared" si="4"/>
-        <v>0</v>
+      <c r="C319" s="1" t="str">
+        <f t="shared" si="5"/>
+        <v>0.0</v>
       </c>
       <c r="D319" t="str">
         <f>_xll.RegexString(B319,"^.+[  ]cast.*?[  ](.+?)( on .+)*$",1,1)</f>
@@ -5518,9 +5420,9 @@
     </row>
     <row r="320" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A320" s="1"/>
-      <c r="C320" s="3">
-        <f t="shared" si="4"/>
-        <v>0</v>
+      <c r="C320" s="1" t="str">
+        <f t="shared" si="5"/>
+        <v>0.0</v>
       </c>
       <c r="D320" t="str">
         <f>_xll.RegexString(B320,"^.+[  ]cast.*?[  ](.+?)( on .+)*$",1,1)</f>
@@ -5529,9 +5431,9 @@
     </row>
     <row r="321" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A321" s="1"/>
-      <c r="C321" s="3">
-        <f t="shared" si="4"/>
-        <v>0</v>
+      <c r="C321" s="1" t="str">
+        <f t="shared" si="5"/>
+        <v>0.0</v>
       </c>
       <c r="D321" t="str">
         <f>_xll.RegexString(B321,"^.+[  ]cast.*?[  ](.+?)( on .+)*$",1,1)</f>
@@ -5540,9 +5442,9 @@
     </row>
     <row r="322" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A322" s="1"/>
-      <c r="C322" s="3">
-        <f t="shared" ref="C322:C385" si="5">SECOND(A322)+MINUTE(A322)*60</f>
-        <v>0</v>
+      <c r="C322" s="1" t="str">
+        <f t="shared" si="5"/>
+        <v>0.0</v>
       </c>
       <c r="D322" t="str">
         <f>_xll.RegexString(B322,"^.+[  ]cast.*?[  ](.+?)( on .+)*$",1,1)</f>
@@ -5551,9 +5453,9 @@
     </row>
     <row r="323" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A323" s="1"/>
-      <c r="C323" s="3">
+      <c r="C323" s="1" t="str">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="D323" t="str">
         <f>_xll.RegexString(B323,"^.+[  ]cast.*?[  ](.+?)( on .+)*$",1,1)</f>
@@ -5562,9 +5464,9 @@
     </row>
     <row r="324" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A324" s="1"/>
-      <c r="C324" s="3">
+      <c r="C324" s="1" t="str">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="D324" t="str">
         <f>_xll.RegexString(B324,"^.+[  ]cast.*?[  ](.+?)( on .+)*$",1,1)</f>
@@ -5573,9 +5475,9 @@
     </row>
     <row r="325" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A325" s="1"/>
-      <c r="C325" s="3">
+      <c r="C325" s="1" t="str">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="D325" t="str">
         <f>_xll.RegexString(B325,"^.+[  ]cast.*?[  ](.+?)( on .+)*$",1,1)</f>
@@ -5584,9 +5486,9 @@
     </row>
     <row r="326" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A326" s="1"/>
-      <c r="C326" s="3">
+      <c r="C326" s="1" t="str">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="D326" t="str">
         <f>_xll.RegexString(B326,"^.+[  ]cast.*?[  ](.+?)( on .+)*$",1,1)</f>
@@ -5595,9 +5497,9 @@
     </row>
     <row r="327" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A327" s="1"/>
-      <c r="C327" s="3">
+      <c r="C327" s="1" t="str">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="D327" t="str">
         <f>_xll.RegexString(B327,"^.+[  ]cast.*?[  ](.+?)( on .+)*$",1,1)</f>
@@ -5606,9 +5508,9 @@
     </row>
     <row r="328" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A328" s="1"/>
-      <c r="C328" s="3">
+      <c r="C328" s="1" t="str">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="D328" t="str">
         <f>_xll.RegexString(B328,"^.+[  ]cast.*?[  ](.+?)( on .+)*$",1,1)</f>
@@ -5617,9 +5519,9 @@
     </row>
     <row r="329" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A329" s="1"/>
-      <c r="C329" s="3">
+      <c r="C329" s="1" t="str">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="D329" t="str">
         <f>_xll.RegexString(B329,"^.+[  ]cast.*?[  ](.+?)( on .+)*$",1,1)</f>
@@ -5628,9 +5530,9 @@
     </row>
     <row r="330" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A330" s="1"/>
-      <c r="C330" s="3">
+      <c r="C330" s="1" t="str">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="D330" t="str">
         <f>_xll.RegexString(B330,"^.+[  ]cast.*?[  ](.+?)( on .+)*$",1,1)</f>
@@ -5639,9 +5541,9 @@
     </row>
     <row r="331" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A331" s="1"/>
-      <c r="C331" s="3">
+      <c r="C331" s="1" t="str">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="D331" t="str">
         <f>_xll.RegexString(B331,"^.+[  ]cast.*?[  ](.+?)( on .+)*$",1,1)</f>
@@ -5650,9 +5552,9 @@
     </row>
     <row r="332" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A332" s="1"/>
-      <c r="C332" s="3">
+      <c r="C332" s="1" t="str">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="D332" t="str">
         <f>_xll.RegexString(B332,"^.+[  ]cast.*?[  ](.+?)( on .+)*$",1,1)</f>
@@ -5661,9 +5563,9 @@
     </row>
     <row r="333" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A333" s="1"/>
-      <c r="C333" s="3">
+      <c r="C333" s="1" t="str">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="D333" t="str">
         <f>_xll.RegexString(B333,"^.+[  ]cast.*?[  ](.+?)( on .+)*$",1,1)</f>
@@ -5672,9 +5574,9 @@
     </row>
     <row r="334" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A334" s="1"/>
-      <c r="C334" s="3">
+      <c r="C334" s="1" t="str">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="D334" t="str">
         <f>_xll.RegexString(B334,"^.+[  ]cast.*?[  ](.+?)( on .+)*$",1,1)</f>
@@ -5683,9 +5585,9 @@
     </row>
     <row r="335" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A335" s="1"/>
-      <c r="C335" s="3">
+      <c r="C335" s="1" t="str">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="D335" t="str">
         <f>_xll.RegexString(B335,"^.+[  ]cast.*?[  ](.+?)( on .+)*$",1,1)</f>
@@ -5694,9 +5596,9 @@
     </row>
     <row r="336" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A336" s="1"/>
-      <c r="C336" s="3">
+      <c r="C336" s="1" t="str">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="D336" t="str">
         <f>_xll.RegexString(B336,"^.+[  ]cast.*?[  ](.+?)( on .+)*$",1,1)</f>
@@ -5705,9 +5607,9 @@
     </row>
     <row r="337" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A337" s="1"/>
-      <c r="C337" s="3">
+      <c r="C337" s="1" t="str">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="D337" t="str">
         <f>_xll.RegexString(B337,"^.+[  ]cast.*?[  ](.+?)( on .+)*$",1,1)</f>
@@ -5716,9 +5618,9 @@
     </row>
     <row r="338" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A338" s="1"/>
-      <c r="C338" s="3">
+      <c r="C338" s="1" t="str">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="D338" t="str">
         <f>_xll.RegexString(B338,"^.+[  ]cast.*?[  ](.+?)( on .+)*$",1,1)</f>
@@ -5727,9 +5629,9 @@
     </row>
     <row r="339" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A339" s="1"/>
-      <c r="C339" s="3">
+      <c r="C339" s="1" t="str">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="D339" t="str">
         <f>_xll.RegexString(B339,"^.+[  ]cast.*?[  ](.+?)( on .+)*$",1,1)</f>
@@ -5738,9 +5640,9 @@
     </row>
     <row r="340" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A340" s="1"/>
-      <c r="C340" s="3">
+      <c r="C340" s="1" t="str">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="D340" t="str">
         <f>_xll.RegexString(B340,"^.+[  ]cast.*?[  ](.+?)( on .+)*$",1,1)</f>
@@ -5749,9 +5651,9 @@
     </row>
     <row r="341" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A341" s="1"/>
-      <c r="C341" s="3">
+      <c r="C341" s="1" t="str">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="D341" t="str">
         <f>_xll.RegexString(B341,"^.+[  ]cast.*?[  ](.+?)( on .+)*$",1,1)</f>
@@ -5760,9 +5662,9 @@
     </row>
     <row r="342" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A342" s="1"/>
-      <c r="C342" s="3">
+      <c r="C342" s="1" t="str">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="D342" t="str">
         <f>_xll.RegexString(B342,"^.+[  ]cast.*?[  ](.+?)( on .+)*$",1,1)</f>
@@ -5771,9 +5673,9 @@
     </row>
     <row r="343" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A343" s="1"/>
-      <c r="C343" s="3">
+      <c r="C343" s="1" t="str">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="D343" t="str">
         <f>_xll.RegexString(B343,"^.+[  ]cast.*?[  ](.+?)( on .+)*$",1,1)</f>
@@ -5782,9 +5684,9 @@
     </row>
     <row r="344" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A344" s="1"/>
-      <c r="C344" s="3">
+      <c r="C344" s="1" t="str">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="D344" t="str">
         <f>_xll.RegexString(B344,"^.+[  ]cast.*?[  ](.+?)( on .+)*$",1,1)</f>
@@ -5793,9 +5695,9 @@
     </row>
     <row r="345" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A345" s="1"/>
-      <c r="C345" s="3">
+      <c r="C345" s="1" t="str">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="D345" t="str">
         <f>_xll.RegexString(B345,"^.+[  ]cast.*?[  ](.+?)( on .+)*$",1,1)</f>
@@ -5804,9 +5706,9 @@
     </row>
     <row r="346" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A346" s="1"/>
-      <c r="C346" s="3">
+      <c r="C346" s="1" t="str">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="D346" t="str">
         <f>_xll.RegexString(B346,"^.+[  ]cast.*?[  ](.+?)( on .+)*$",1,1)</f>
@@ -5815,9 +5717,9 @@
     </row>
     <row r="347" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A347" s="1"/>
-      <c r="C347" s="3">
+      <c r="C347" s="1" t="str">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="D347" t="str">
         <f>_xll.RegexString(B347,"^.+[  ]cast.*?[  ](.+?)( on .+)*$",1,1)</f>
@@ -5826,9 +5728,9 @@
     </row>
     <row r="348" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A348" s="1"/>
-      <c r="C348" s="3">
+      <c r="C348" s="1" t="str">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="D348" t="str">
         <f>_xll.RegexString(B348,"^.+[  ]cast.*?[  ](.+?)( on .+)*$",1,1)</f>
@@ -5837,9 +5739,9 @@
     </row>
     <row r="349" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A349" s="1"/>
-      <c r="C349" s="3">
+      <c r="C349" s="1" t="str">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="D349" t="str">
         <f>_xll.RegexString(B349,"^.+[  ]cast.*?[  ](.+?)( on .+)*$",1,1)</f>
@@ -5848,9 +5750,9 @@
     </row>
     <row r="350" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A350" s="1"/>
-      <c r="C350" s="3">
+      <c r="C350" s="1" t="str">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="D350" t="str">
         <f>_xll.RegexString(B350,"^.+[  ]cast.*?[  ](.+?)( on .+)*$",1,1)</f>
@@ -5859,9 +5761,9 @@
     </row>
     <row r="351" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A351" s="1"/>
-      <c r="C351" s="3">
+      <c r="C351" s="1" t="str">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="D351" t="str">
         <f>_xll.RegexString(B351,"^.+[  ]cast.*?[  ](.+?)( on .+)*$",1,1)</f>
@@ -5870,9 +5772,9 @@
     </row>
     <row r="352" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A352" s="1"/>
-      <c r="C352" s="3">
+      <c r="C352" s="1" t="str">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="D352" t="str">
         <f>_xll.RegexString(B352,"^.+[  ]cast.*?[  ](.+?)( on .+)*$",1,1)</f>
@@ -5881,9 +5783,9 @@
     </row>
     <row r="353" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A353" s="1"/>
-      <c r="C353" s="3">
+      <c r="C353" s="1" t="str">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="D353" t="str">
         <f>_xll.RegexString(B353,"^.+[  ]cast.*?[  ](.+?)( on .+)*$",1,1)</f>
@@ -5892,9 +5794,9 @@
     </row>
     <row r="354" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A354" s="1"/>
-      <c r="C354" s="3">
+      <c r="C354" s="1" t="str">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="D354" t="str">
         <f>_xll.RegexString(B354,"^.+[  ]cast.*?[  ](.+?)( on .+)*$",1,1)</f>
@@ -5903,9 +5805,9 @@
     </row>
     <row r="355" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A355" s="1"/>
-      <c r="C355" s="3">
+      <c r="C355" s="1" t="str">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="D355" t="str">
         <f>_xll.RegexString(B355,"^.+[  ]cast.*?[  ](.+?)( on .+)*$",1,1)</f>
@@ -5914,9 +5816,9 @@
     </row>
     <row r="356" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A356" s="1"/>
-      <c r="C356" s="3">
+      <c r="C356" s="1" t="str">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="D356" t="str">
         <f>_xll.RegexString(B356,"^.+[  ]cast.*?[  ](.+?)( on .+)*$",1,1)</f>
@@ -5925,9 +5827,9 @@
     </row>
     <row r="357" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A357" s="1"/>
-      <c r="C357" s="3">
+      <c r="C357" s="1" t="str">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="D357" t="str">
         <f>_xll.RegexString(B357,"^.+[  ]cast.*?[  ](.+?)( on .+)*$",1,1)</f>
@@ -5936,9 +5838,9 @@
     </row>
     <row r="358" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A358" s="1"/>
-      <c r="C358" s="3">
+      <c r="C358" s="1" t="str">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="D358" t="str">
         <f>_xll.RegexString(B358,"^.+[  ]cast.*?[  ](.+?)( on .+)*$",1,1)</f>
@@ -5947,9 +5849,9 @@
     </row>
     <row r="359" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A359" s="1"/>
-      <c r="C359" s="3">
+      <c r="C359" s="1" t="str">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="D359" t="str">
         <f>_xll.RegexString(B359,"^.+[  ]cast.*?[  ](.+?)( on .+)*$",1,1)</f>
@@ -5958,9 +5860,9 @@
     </row>
     <row r="360" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A360" s="1"/>
-      <c r="C360" s="3">
+      <c r="C360" s="1" t="str">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="D360" t="str">
         <f>_xll.RegexString(B360,"^.+[  ]cast.*?[  ](.+?)( on .+)*$",1,1)</f>
@@ -5969,9 +5871,9 @@
     </row>
     <row r="361" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A361" s="1"/>
-      <c r="C361" s="3">
+      <c r="C361" s="1" t="str">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="D361" t="str">
         <f>_xll.RegexString(B361,"^.+[  ]cast.*?[  ](.+?)( on .+)*$",1,1)</f>
@@ -5980,9 +5882,9 @@
     </row>
     <row r="362" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A362" s="1"/>
-      <c r="C362" s="3">
+      <c r="C362" s="1" t="str">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="D362" t="str">
         <f>_xll.RegexString(B362,"^.+[  ]cast.*?[  ](.+?)( on .+)*$",1,1)</f>
@@ -5991,9 +5893,9 @@
     </row>
     <row r="363" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A363" s="1"/>
-      <c r="C363" s="3">
-        <f t="shared" si="5"/>
-        <v>0</v>
+      <c r="C363" s="1" t="str">
+        <f t="shared" ref="C363:C426" si="6">TEXT(LEFT(TEXT(A363,"mm:ss.0"),2)&amp;TEXT(A363,"ss.0"),"0.0")</f>
+        <v>0.0</v>
       </c>
       <c r="D363" t="str">
         <f>_xll.RegexString(B363,"^.+[  ]cast.*?[  ](.+?)( on .+)*$",1,1)</f>
@@ -6002,9 +5904,9 @@
     </row>
     <row r="364" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A364" s="1"/>
-      <c r="C364" s="3">
-        <f t="shared" si="5"/>
-        <v>0</v>
+      <c r="C364" s="1" t="str">
+        <f t="shared" si="6"/>
+        <v>0.0</v>
       </c>
       <c r="D364" t="str">
         <f>_xll.RegexString(B364,"^.+[  ]cast.*?[  ](.+?)( on .+)*$",1,1)</f>
@@ -6013,9 +5915,9 @@
     </row>
     <row r="365" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A365" s="1"/>
-      <c r="C365" s="3">
-        <f t="shared" si="5"/>
-        <v>0</v>
+      <c r="C365" s="1" t="str">
+        <f t="shared" si="6"/>
+        <v>0.0</v>
       </c>
       <c r="D365" t="str">
         <f>_xll.RegexString(B365,"^.+[  ]cast.*?[  ](.+?)( on .+)*$",1,1)</f>
@@ -6024,9 +5926,9 @@
     </row>
     <row r="366" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A366" s="1"/>
-      <c r="C366" s="3">
-        <f t="shared" si="5"/>
-        <v>0</v>
+      <c r="C366" s="1" t="str">
+        <f t="shared" si="6"/>
+        <v>0.0</v>
       </c>
       <c r="D366" t="str">
         <f>_xll.RegexString(B366,"^.+[  ]cast.*?[  ](.+?)( on .+)*$",1,1)</f>
@@ -6035,9 +5937,9 @@
     </row>
     <row r="367" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A367" s="1"/>
-      <c r="C367" s="3">
-        <f t="shared" si="5"/>
-        <v>0</v>
+      <c r="C367" s="1" t="str">
+        <f t="shared" si="6"/>
+        <v>0.0</v>
       </c>
       <c r="D367" t="str">
         <f>_xll.RegexString(B367,"^.+[  ]cast.*?[  ](.+?)( on .+)*$",1,1)</f>
@@ -6046,9 +5948,9 @@
     </row>
     <row r="368" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A368" s="1"/>
-      <c r="C368" s="3">
-        <f t="shared" si="5"/>
-        <v>0</v>
+      <c r="C368" s="1" t="str">
+        <f t="shared" si="6"/>
+        <v>0.0</v>
       </c>
       <c r="D368" t="str">
         <f>_xll.RegexString(B368,"^.+[  ]cast.*?[  ](.+?)( on .+)*$",1,1)</f>
@@ -6057,9 +5959,9 @@
     </row>
     <row r="369" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A369" s="1"/>
-      <c r="C369" s="3">
-        <f t="shared" si="5"/>
-        <v>0</v>
+      <c r="C369" s="1" t="str">
+        <f t="shared" si="6"/>
+        <v>0.0</v>
       </c>
       <c r="D369" t="str">
         <f>_xll.RegexString(B369,"^.+[  ]cast.*?[  ](.+?)( on .+)*$",1,1)</f>
@@ -6068,9 +5970,9 @@
     </row>
     <row r="370" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A370" s="1"/>
-      <c r="C370" s="3">
-        <f t="shared" si="5"/>
-        <v>0</v>
+      <c r="C370" s="1" t="str">
+        <f t="shared" si="6"/>
+        <v>0.0</v>
       </c>
       <c r="D370" t="str">
         <f>_xll.RegexString(B370,"^.+[  ]cast.*?[  ](.+?)( on .+)*$",1,1)</f>
@@ -6079,9 +5981,9 @@
     </row>
     <row r="371" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A371" s="1"/>
-      <c r="C371" s="3">
-        <f t="shared" si="5"/>
-        <v>0</v>
+      <c r="C371" s="1" t="str">
+        <f t="shared" si="6"/>
+        <v>0.0</v>
       </c>
       <c r="D371" t="str">
         <f>_xll.RegexString(B371,"^.+[  ]cast.*?[  ](.+?)( on .+)*$",1,1)</f>
@@ -6090,9 +5992,9 @@
     </row>
     <row r="372" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A372" s="1"/>
-      <c r="C372" s="3">
-        <f t="shared" si="5"/>
-        <v>0</v>
+      <c r="C372" s="1" t="str">
+        <f t="shared" si="6"/>
+        <v>0.0</v>
       </c>
       <c r="D372" t="str">
         <f>_xll.RegexString(B372,"^.+[  ]cast.*?[  ](.+?)( on .+)*$",1,1)</f>
@@ -6101,9 +6003,9 @@
     </row>
     <row r="373" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A373" s="1"/>
-      <c r="C373" s="3">
-        <f t="shared" si="5"/>
-        <v>0</v>
+      <c r="C373" s="1" t="str">
+        <f t="shared" si="6"/>
+        <v>0.0</v>
       </c>
       <c r="D373" t="str">
         <f>_xll.RegexString(B373,"^.+[  ]cast.*?[  ](.+?)( on .+)*$",1,1)</f>
@@ -6112,9 +6014,9 @@
     </row>
     <row r="374" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A374" s="1"/>
-      <c r="C374" s="3">
-        <f t="shared" si="5"/>
-        <v>0</v>
+      <c r="C374" s="1" t="str">
+        <f t="shared" si="6"/>
+        <v>0.0</v>
       </c>
       <c r="D374" t="str">
         <f>_xll.RegexString(B374,"^.+[  ]cast.*?[  ](.+?)( on .+)*$",1,1)</f>
@@ -6123,9 +6025,9 @@
     </row>
     <row r="375" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A375" s="1"/>
-      <c r="C375" s="3">
-        <f t="shared" si="5"/>
-        <v>0</v>
+      <c r="C375" s="1" t="str">
+        <f t="shared" si="6"/>
+        <v>0.0</v>
       </c>
       <c r="D375" t="str">
         <f>_xll.RegexString(B375,"^.+[  ]cast.*?[  ](.+?)( on .+)*$",1,1)</f>
@@ -6134,9 +6036,9 @@
     </row>
     <row r="376" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A376" s="1"/>
-      <c r="C376" s="3">
-        <f t="shared" si="5"/>
-        <v>0</v>
+      <c r="C376" s="1" t="str">
+        <f t="shared" si="6"/>
+        <v>0.0</v>
       </c>
       <c r="D376" t="str">
         <f>_xll.RegexString(B376,"^.+[  ]cast.*?[  ](.+?)( on .+)*$",1,1)</f>
@@ -6145,9 +6047,9 @@
     </row>
     <row r="377" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A377" s="1"/>
-      <c r="C377" s="3">
-        <f t="shared" si="5"/>
-        <v>0</v>
+      <c r="C377" s="1" t="str">
+        <f t="shared" si="6"/>
+        <v>0.0</v>
       </c>
       <c r="D377" t="str">
         <f>_xll.RegexString(B377,"^.+[  ]cast.*?[  ](.+?)( on .+)*$",1,1)</f>
@@ -6156,9 +6058,9 @@
     </row>
     <row r="378" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A378" s="1"/>
-      <c r="C378" s="3">
-        <f t="shared" si="5"/>
-        <v>0</v>
+      <c r="C378" s="1" t="str">
+        <f t="shared" si="6"/>
+        <v>0.0</v>
       </c>
       <c r="D378" t="str">
         <f>_xll.RegexString(B378,"^.+[  ]cast.*?[  ](.+?)( on .+)*$",1,1)</f>
@@ -6167,9 +6069,9 @@
     </row>
     <row r="379" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A379" s="1"/>
-      <c r="C379" s="3">
-        <f t="shared" si="5"/>
-        <v>0</v>
+      <c r="C379" s="1" t="str">
+        <f t="shared" si="6"/>
+        <v>0.0</v>
       </c>
       <c r="D379" t="str">
         <f>_xll.RegexString(B379,"^.+[  ]cast.*?[  ](.+?)( on .+)*$",1,1)</f>
@@ -6178,9 +6080,9 @@
     </row>
     <row r="380" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A380" s="1"/>
-      <c r="C380" s="3">
-        <f t="shared" si="5"/>
-        <v>0</v>
+      <c r="C380" s="1" t="str">
+        <f t="shared" si="6"/>
+        <v>0.0</v>
       </c>
       <c r="D380" t="str">
         <f>_xll.RegexString(B380,"^.+[  ]cast.*?[  ](.+?)( on .+)*$",1,1)</f>
@@ -6189,9 +6091,9 @@
     </row>
     <row r="381" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A381" s="1"/>
-      <c r="C381" s="3">
-        <f t="shared" si="5"/>
-        <v>0</v>
+      <c r="C381" s="1" t="str">
+        <f t="shared" si="6"/>
+        <v>0.0</v>
       </c>
       <c r="D381" t="str">
         <f>_xll.RegexString(B381,"^.+[  ]cast.*?[  ](.+?)( on .+)*$",1,1)</f>
@@ -6200,9 +6102,9 @@
     </row>
     <row r="382" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A382" s="1"/>
-      <c r="C382" s="3">
-        <f t="shared" si="5"/>
-        <v>0</v>
+      <c r="C382" s="1" t="str">
+        <f t="shared" si="6"/>
+        <v>0.0</v>
       </c>
       <c r="D382" t="str">
         <f>_xll.RegexString(B382,"^.+[  ]cast.*?[  ](.+?)( on .+)*$",1,1)</f>
@@ -6211,9 +6113,9 @@
     </row>
     <row r="383" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A383" s="1"/>
-      <c r="C383" s="3">
-        <f t="shared" si="5"/>
-        <v>0</v>
+      <c r="C383" s="1" t="str">
+        <f t="shared" si="6"/>
+        <v>0.0</v>
       </c>
       <c r="D383" t="str">
         <f>_xll.RegexString(B383,"^.+[  ]cast.*?[  ](.+?)( on .+)*$",1,1)</f>
@@ -6222,9 +6124,9 @@
     </row>
     <row r="384" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A384" s="1"/>
-      <c r="C384" s="3">
-        <f t="shared" si="5"/>
-        <v>0</v>
+      <c r="C384" s="1" t="str">
+        <f t="shared" si="6"/>
+        <v>0.0</v>
       </c>
       <c r="D384" t="str">
         <f>_xll.RegexString(B384,"^.+[  ]cast.*?[  ](.+?)( on .+)*$",1,1)</f>
@@ -6233,9 +6135,9 @@
     </row>
     <row r="385" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A385" s="1"/>
-      <c r="C385" s="3">
-        <f t="shared" si="5"/>
-        <v>0</v>
+      <c r="C385" s="1" t="str">
+        <f t="shared" si="6"/>
+        <v>0.0</v>
       </c>
       <c r="D385" t="str">
         <f>_xll.RegexString(B385,"^.+[  ]cast.*?[  ](.+?)( on .+)*$",1,1)</f>
@@ -6244,9 +6146,9 @@
     </row>
     <row r="386" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A386" s="1"/>
-      <c r="C386" s="3">
-        <f t="shared" ref="C386:C449" si="6">SECOND(A386)+MINUTE(A386)*60</f>
-        <v>0</v>
+      <c r="C386" s="1" t="str">
+        <f t="shared" si="6"/>
+        <v>0.0</v>
       </c>
       <c r="D386" t="str">
         <f>_xll.RegexString(B386,"^.+[  ]cast.*?[  ](.+?)( on .+)*$",1,1)</f>
@@ -6255,9 +6157,9 @@
     </row>
     <row r="387" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A387" s="1"/>
-      <c r="C387" s="3">
+      <c r="C387" s="1" t="str">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="D387" t="str">
         <f>_xll.RegexString(B387,"^.+[  ]cast.*?[  ](.+?)( on .+)*$",1,1)</f>
@@ -6266,9 +6168,9 @@
     </row>
     <row r="388" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A388" s="1"/>
-      <c r="C388" s="3">
+      <c r="C388" s="1" t="str">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="D388" t="str">
         <f>_xll.RegexString(B388,"^.+[  ]cast.*?[  ](.+?)( on .+)*$",1,1)</f>
@@ -6277,9 +6179,9 @@
     </row>
     <row r="389" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A389" s="1"/>
-      <c r="C389" s="3">
+      <c r="C389" s="1" t="str">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="D389" t="str">
         <f>_xll.RegexString(B389,"^.+[  ]cast.*?[  ](.+?)( on .+)*$",1,1)</f>
@@ -6288,9 +6190,9 @@
     </row>
     <row r="390" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A390" s="1"/>
-      <c r="C390" s="3">
+      <c r="C390" s="1" t="str">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="D390" t="str">
         <f>_xll.RegexString(B390,"^.+[  ]cast.*?[  ](.+?)( on .+)*$",1,1)</f>
@@ -6299,9 +6201,9 @@
     </row>
     <row r="391" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A391" s="1"/>
-      <c r="C391" s="3">
+      <c r="C391" s="1" t="str">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="D391" t="str">
         <f>_xll.RegexString(B391,"^.+[  ]cast.*?[  ](.+?)( on .+)*$",1,1)</f>
@@ -6310,9 +6212,9 @@
     </row>
     <row r="392" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A392" s="1"/>
-      <c r="C392" s="3">
+      <c r="C392" s="1" t="str">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="D392" t="str">
         <f>_xll.RegexString(B392,"^.+[  ]cast.*?[  ](.+?)( on .+)*$",1,1)</f>
@@ -6321,9 +6223,9 @@
     </row>
     <row r="393" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A393" s="1"/>
-      <c r="C393" s="3">
+      <c r="C393" s="1" t="str">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="D393" t="str">
         <f>_xll.RegexString(B393,"^.+[  ]cast.*?[  ](.+?)( on .+)*$",1,1)</f>
@@ -6332,9 +6234,9 @@
     </row>
     <row r="394" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A394" s="1"/>
-      <c r="C394" s="3">
+      <c r="C394" s="1" t="str">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="D394" t="str">
         <f>_xll.RegexString(B394,"^.+[  ]cast.*?[  ](.+?)( on .+)*$",1,1)</f>
@@ -6343,9 +6245,9 @@
     </row>
     <row r="395" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A395" s="1"/>
-      <c r="C395" s="3">
+      <c r="C395" s="1" t="str">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="D395" t="str">
         <f>_xll.RegexString(B395,"^.+[  ]cast.*?[  ](.+?)( on .+)*$",1,1)</f>
@@ -6354,9 +6256,9 @@
     </row>
     <row r="396" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A396" s="1"/>
-      <c r="C396" s="3">
+      <c r="C396" s="1" t="str">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="D396" t="str">
         <f>_xll.RegexString(B396,"^.+[  ]cast.*?[  ](.+?)( on .+)*$",1,1)</f>
@@ -6365,9 +6267,9 @@
     </row>
     <row r="397" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A397" s="1"/>
-      <c r="C397" s="3">
+      <c r="C397" s="1" t="str">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="D397" t="str">
         <f>_xll.RegexString(B397,"^.+[  ]cast.*?[  ](.+?)( on .+)*$",1,1)</f>
@@ -6376,9 +6278,9 @@
     </row>
     <row r="398" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A398" s="1"/>
-      <c r="C398" s="3">
+      <c r="C398" s="1" t="str">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="D398" t="str">
         <f>_xll.RegexString(B398,"^.+[  ]cast.*?[  ](.+?)( on .+)*$",1,1)</f>
@@ -6387,9 +6289,9 @@
     </row>
     <row r="399" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A399" s="1"/>
-      <c r="C399" s="3">
+      <c r="C399" s="1" t="str">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="D399" t="str">
         <f>_xll.RegexString(B399,"^.+[  ]cast.*?[  ](.+?)( on .+)*$",1,1)</f>
@@ -6398,9 +6300,9 @@
     </row>
     <row r="400" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A400" s="1"/>
-      <c r="C400" s="3">
+      <c r="C400" s="1" t="str">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="D400" t="str">
         <f>_xll.RegexString(B400,"^.+[  ]cast.*?[  ](.+?)( on .+)*$",1,1)</f>
@@ -6409,9 +6311,9 @@
     </row>
     <row r="401" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A401" s="1"/>
-      <c r="C401" s="3">
+      <c r="C401" s="1" t="str">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="D401" t="str">
         <f>_xll.RegexString(B401,"^.+[  ]cast.*?[  ](.+?)( on .+)*$",1,1)</f>
@@ -6420,9 +6322,9 @@
     </row>
     <row r="402" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A402" s="1"/>
-      <c r="C402" s="3">
+      <c r="C402" s="1" t="str">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="D402" t="str">
         <f>_xll.RegexString(B402,"^.+[  ]cast.*?[  ](.+?)( on .+)*$",1,1)</f>
@@ -6431,9 +6333,9 @@
     </row>
     <row r="403" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A403" s="1"/>
-      <c r="C403" s="3">
+      <c r="C403" s="1" t="str">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="D403" t="str">
         <f>_xll.RegexString(B403,"^.+[  ]cast.*?[  ](.+?)( on .+)*$",1,1)</f>
@@ -6442,9 +6344,9 @@
     </row>
     <row r="404" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A404" s="1"/>
-      <c r="C404" s="3">
+      <c r="C404" s="1" t="str">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="D404" t="str">
         <f>_xll.RegexString(B404,"^.+[  ]cast.*?[  ](.+?)( on .+)*$",1,1)</f>
@@ -6453,9 +6355,9 @@
     </row>
     <row r="405" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A405" s="1"/>
-      <c r="C405" s="3">
+      <c r="C405" s="1" t="str">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="D405" t="str">
         <f>_xll.RegexString(B405,"^.+[  ]cast.*?[  ](.+?)( on .+)*$",1,1)</f>
@@ -6464,9 +6366,9 @@
     </row>
     <row r="406" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A406" s="1"/>
-      <c r="C406" s="3">
+      <c r="C406" s="1" t="str">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="D406" t="str">
         <f>_xll.RegexString(B406,"^.+[  ]cast.*?[  ](.+?)( on .+)*$",1,1)</f>
@@ -6475,9 +6377,9 @@
     </row>
     <row r="407" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A407" s="1"/>
-      <c r="C407" s="3">
+      <c r="C407" s="1" t="str">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="D407" t="str">
         <f>_xll.RegexString(B407,"^.+[  ]cast.*?[  ](.+?)( on .+)*$",1,1)</f>
@@ -6486,9 +6388,9 @@
     </row>
     <row r="408" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A408" s="1"/>
-      <c r="C408" s="3">
+      <c r="C408" s="1" t="str">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="D408" t="str">
         <f>_xll.RegexString(B408,"^.+[  ]cast.*?[  ](.+?)( on .+)*$",1,1)</f>
@@ -6497,9 +6399,9 @@
     </row>
     <row r="409" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A409" s="1"/>
-      <c r="C409" s="3">
+      <c r="C409" s="1" t="str">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="D409" t="str">
         <f>_xll.RegexString(B409,"^.+[  ]cast.*?[  ](.+?)( on .+)*$",1,1)</f>
@@ -6508,9 +6410,9 @@
     </row>
     <row r="410" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A410" s="1"/>
-      <c r="C410" s="3">
+      <c r="C410" s="1" t="str">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="D410" t="str">
         <f>_xll.RegexString(B410,"^.+[  ]cast.*?[  ](.+?)( on .+)*$",1,1)</f>
@@ -6519,9 +6421,9 @@
     </row>
     <row r="411" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A411" s="1"/>
-      <c r="C411" s="3">
+      <c r="C411" s="1" t="str">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="D411" t="str">
         <f>_xll.RegexString(B411,"^.+[  ]cast.*?[  ](.+?)( on .+)*$",1,1)</f>
@@ -6530,9 +6432,9 @@
     </row>
     <row r="412" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A412" s="1"/>
-      <c r="C412" s="3">
+      <c r="C412" s="1" t="str">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="D412" t="str">
         <f>_xll.RegexString(B412,"^.+[  ]cast.*?[  ](.+?)( on .+)*$",1,1)</f>
@@ -6541,9 +6443,9 @@
     </row>
     <row r="413" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A413" s="1"/>
-      <c r="C413" s="3">
+      <c r="C413" s="1" t="str">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="D413" t="str">
         <f>_xll.RegexString(B413,"^.+[  ]cast.*?[  ](.+?)( on .+)*$",1,1)</f>
@@ -6552,9 +6454,9 @@
     </row>
     <row r="414" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A414" s="1"/>
-      <c r="C414" s="3">
+      <c r="C414" s="1" t="str">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="D414" t="str">
         <f>_xll.RegexString(B414,"^.+[  ]cast.*?[  ](.+?)( on .+)*$",1,1)</f>
@@ -6563,9 +6465,9 @@
     </row>
     <row r="415" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A415" s="1"/>
-      <c r="C415" s="3">
+      <c r="C415" s="1" t="str">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="D415" t="str">
         <f>_xll.RegexString(B415,"^.+[  ]cast.*?[  ](.+?)( on .+)*$",1,1)</f>
@@ -6574,9 +6476,9 @@
     </row>
     <row r="416" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A416" s="1"/>
-      <c r="C416" s="3">
+      <c r="C416" s="1" t="str">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="D416" t="str">
         <f>_xll.RegexString(B416,"^.+[  ]cast.*?[  ](.+?)( on .+)*$",1,1)</f>
@@ -6585,9 +6487,9 @@
     </row>
     <row r="417" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A417" s="1"/>
-      <c r="C417" s="3">
+      <c r="C417" s="1" t="str">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="D417" t="str">
         <f>_xll.RegexString(B417,"^.+[  ]cast.*?[  ](.+?)( on .+)*$",1,1)</f>
@@ -6596,9 +6498,9 @@
     </row>
     <row r="418" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A418" s="1"/>
-      <c r="C418" s="3">
+      <c r="C418" s="1" t="str">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="D418" t="str">
         <f>_xll.RegexString(B418,"^.+[  ]cast.*?[  ](.+?)( on .+)*$",1,1)</f>
@@ -6607,9 +6509,9 @@
     </row>
     <row r="419" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A419" s="1"/>
-      <c r="C419" s="3">
+      <c r="C419" s="1" t="str">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="D419" t="str">
         <f>_xll.RegexString(B419,"^.+[  ]cast.*?[  ](.+?)( on .+)*$",1,1)</f>
@@ -6618,9 +6520,9 @@
     </row>
     <row r="420" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A420" s="1"/>
-      <c r="C420" s="3">
+      <c r="C420" s="1" t="str">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="D420" t="str">
         <f>_xll.RegexString(B420,"^.+[  ]cast.*?[  ](.+?)( on .+)*$",1,1)</f>
@@ -6629,9 +6531,9 @@
     </row>
     <row r="421" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A421" s="1"/>
-      <c r="C421" s="3">
+      <c r="C421" s="1" t="str">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="D421" t="str">
         <f>_xll.RegexString(B421,"^.+[  ]cast.*?[  ](.+?)( on .+)*$",1,1)</f>
@@ -6640,9 +6542,9 @@
     </row>
     <row r="422" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A422" s="1"/>
-      <c r="C422" s="3">
+      <c r="C422" s="1" t="str">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="D422" t="str">
         <f>_xll.RegexString(B422,"^.+[  ]cast.*?[  ](.+?)( on .+)*$",1,1)</f>
@@ -6651,9 +6553,9 @@
     </row>
     <row r="423" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A423" s="1"/>
-      <c r="C423" s="3">
+      <c r="C423" s="1" t="str">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="D423" t="str">
         <f>_xll.RegexString(B423,"^.+[  ]cast.*?[  ](.+?)( on .+)*$",1,1)</f>
@@ -6662,9 +6564,9 @@
     </row>
     <row r="424" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A424" s="1"/>
-      <c r="C424" s="3">
+      <c r="C424" s="1" t="str">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="D424" t="str">
         <f>_xll.RegexString(B424,"^.+[  ]cast.*?[  ](.+?)( on .+)*$",1,1)</f>
@@ -6673,9 +6575,9 @@
     </row>
     <row r="425" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A425" s="1"/>
-      <c r="C425" s="3">
+      <c r="C425" s="1" t="str">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="D425" t="str">
         <f>_xll.RegexString(B425,"^.+[  ]cast.*?[  ](.+?)( on .+)*$",1,1)</f>
@@ -6684,9 +6586,9 @@
     </row>
     <row r="426" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A426" s="1"/>
-      <c r="C426" s="3">
+      <c r="C426" s="1" t="str">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="D426" t="str">
         <f>_xll.RegexString(B426,"^.+[  ]cast.*?[  ](.+?)( on .+)*$",1,1)</f>
@@ -6695,9 +6597,9 @@
     </row>
     <row r="427" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A427" s="1"/>
-      <c r="C427" s="3">
-        <f t="shared" si="6"/>
-        <v>0</v>
+      <c r="C427" s="1" t="str">
+        <f t="shared" ref="C427:C465" si="7">TEXT(LEFT(TEXT(A427,"mm:ss.0"),2)&amp;TEXT(A427,"ss.0"),"0.0")</f>
+        <v>0.0</v>
       </c>
       <c r="D427" t="str">
         <f>_xll.RegexString(B427,"^.+[  ]cast.*?[  ](.+?)( on .+)*$",1,1)</f>
@@ -6706,9 +6608,9 @@
     </row>
     <row r="428" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A428" s="1"/>
-      <c r="C428" s="3">
-        <f t="shared" si="6"/>
-        <v>0</v>
+      <c r="C428" s="1" t="str">
+        <f t="shared" si="7"/>
+        <v>0.0</v>
       </c>
       <c r="D428" t="str">
         <f>_xll.RegexString(B428,"^.+[  ]cast.*?[  ](.+?)( on .+)*$",1,1)</f>
@@ -6717,9 +6619,9 @@
     </row>
     <row r="429" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A429" s="1"/>
-      <c r="C429" s="3">
-        <f t="shared" si="6"/>
-        <v>0</v>
+      <c r="C429" s="1" t="str">
+        <f t="shared" si="7"/>
+        <v>0.0</v>
       </c>
       <c r="D429" t="str">
         <f>_xll.RegexString(B429,"^.+[  ]cast.*?[  ](.+?)( on .+)*$",1,1)</f>
@@ -6728,9 +6630,9 @@
     </row>
     <row r="430" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A430" s="1"/>
-      <c r="C430" s="3">
-        <f t="shared" si="6"/>
-        <v>0</v>
+      <c r="C430" s="1" t="str">
+        <f t="shared" si="7"/>
+        <v>0.0</v>
       </c>
       <c r="D430" t="str">
         <f>_xll.RegexString(B430,"^.+[  ]cast.*?[  ](.+?)( on .+)*$",1,1)</f>
@@ -6739,9 +6641,9 @@
     </row>
     <row r="431" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A431" s="1"/>
-      <c r="C431" s="3">
-        <f t="shared" si="6"/>
-        <v>0</v>
+      <c r="C431" s="1" t="str">
+        <f t="shared" si="7"/>
+        <v>0.0</v>
       </c>
       <c r="D431" t="str">
         <f>_xll.RegexString(B431,"^.+[  ]cast.*?[  ](.+?)( on .+)*$",1,1)</f>
@@ -6750,9 +6652,9 @@
     </row>
     <row r="432" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A432" s="1"/>
-      <c r="C432" s="3">
-        <f t="shared" si="6"/>
-        <v>0</v>
+      <c r="C432" s="1" t="str">
+        <f t="shared" si="7"/>
+        <v>0.0</v>
       </c>
       <c r="D432" t="str">
         <f>_xll.RegexString(B432,"^.+[  ]cast.*?[  ](.+?)( on .+)*$",1,1)</f>
@@ -6761,9 +6663,9 @@
     </row>
     <row r="433" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A433" s="1"/>
-      <c r="C433" s="3">
-        <f t="shared" si="6"/>
-        <v>0</v>
+      <c r="C433" s="1" t="str">
+        <f t="shared" si="7"/>
+        <v>0.0</v>
       </c>
       <c r="D433" t="str">
         <f>_xll.RegexString(B433,"^.+[  ]cast.*?[  ](.+?)( on .+)*$",1,1)</f>
@@ -6772,9 +6674,9 @@
     </row>
     <row r="434" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A434" s="1"/>
-      <c r="C434" s="3">
-        <f t="shared" si="6"/>
-        <v>0</v>
+      <c r="C434" s="1" t="str">
+        <f t="shared" si="7"/>
+        <v>0.0</v>
       </c>
       <c r="D434" t="str">
         <f>_xll.RegexString(B434,"^.+[  ]cast.*?[  ](.+?)( on .+)*$",1,1)</f>
@@ -6783,9 +6685,9 @@
     </row>
     <row r="435" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A435" s="1"/>
-      <c r="C435" s="3">
-        <f t="shared" si="6"/>
-        <v>0</v>
+      <c r="C435" s="1" t="str">
+        <f t="shared" si="7"/>
+        <v>0.0</v>
       </c>
       <c r="D435" t="str">
         <f>_xll.RegexString(B435,"^.+[  ]cast.*?[  ](.+?)( on .+)*$",1,1)</f>
@@ -6794,9 +6696,9 @@
     </row>
     <row r="436" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A436" s="1"/>
-      <c r="C436" s="3">
-        <f t="shared" si="6"/>
-        <v>0</v>
+      <c r="C436" s="1" t="str">
+        <f t="shared" si="7"/>
+        <v>0.0</v>
       </c>
       <c r="D436" t="str">
         <f>_xll.RegexString(B436,"^.+[  ]cast.*?[  ](.+?)( on .+)*$",1,1)</f>
@@ -6805,9 +6707,9 @@
     </row>
     <row r="437" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A437" s="1"/>
-      <c r="C437" s="3">
-        <f t="shared" si="6"/>
-        <v>0</v>
+      <c r="C437" s="1" t="str">
+        <f t="shared" si="7"/>
+        <v>0.0</v>
       </c>
       <c r="D437" t="str">
         <f>_xll.RegexString(B437,"^.+[  ]cast.*?[  ](.+?)( on .+)*$",1,1)</f>
@@ -6816,9 +6718,9 @@
     </row>
     <row r="438" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A438" s="1"/>
-      <c r="C438" s="3">
-        <f t="shared" si="6"/>
-        <v>0</v>
+      <c r="C438" s="1" t="str">
+        <f t="shared" si="7"/>
+        <v>0.0</v>
       </c>
       <c r="D438" t="str">
         <f>_xll.RegexString(B438,"^.+[  ]cast.*?[  ](.+?)( on .+)*$",1,1)</f>
@@ -6827,9 +6729,9 @@
     </row>
     <row r="439" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A439" s="1"/>
-      <c r="C439" s="3">
-        <f t="shared" si="6"/>
-        <v>0</v>
+      <c r="C439" s="1" t="str">
+        <f t="shared" si="7"/>
+        <v>0.0</v>
       </c>
       <c r="D439" t="str">
         <f>_xll.RegexString(B439,"^.+[  ]cast.*?[  ](.+?)( on .+)*$",1,1)</f>
@@ -6838,9 +6740,9 @@
     </row>
     <row r="440" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A440" s="1"/>
-      <c r="C440" s="3">
-        <f t="shared" si="6"/>
-        <v>0</v>
+      <c r="C440" s="1" t="str">
+        <f t="shared" si="7"/>
+        <v>0.0</v>
       </c>
       <c r="D440" t="str">
         <f>_xll.RegexString(B440,"^.+[  ]cast.*?[  ](.+?)( on .+)*$",1,1)</f>
@@ -6849,9 +6751,9 @@
     </row>
     <row r="441" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A441" s="1"/>
-      <c r="C441" s="3">
-        <f t="shared" si="6"/>
-        <v>0</v>
+      <c r="C441" s="1" t="str">
+        <f t="shared" si="7"/>
+        <v>0.0</v>
       </c>
       <c r="D441" t="str">
         <f>_xll.RegexString(B441,"^.+[  ]cast.*?[  ](.+?)( on .+)*$",1,1)</f>
@@ -6860,9 +6762,9 @@
     </row>
     <row r="442" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A442" s="1"/>
-      <c r="C442" s="3">
-        <f t="shared" si="6"/>
-        <v>0</v>
+      <c r="C442" s="1" t="str">
+        <f t="shared" si="7"/>
+        <v>0.0</v>
       </c>
       <c r="D442" t="str">
         <f>_xll.RegexString(B442,"^.+[  ]cast.*?[  ](.+?)( on .+)*$",1,1)</f>
@@ -6871,9 +6773,9 @@
     </row>
     <row r="443" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A443" s="1"/>
-      <c r="C443" s="3">
-        <f t="shared" si="6"/>
-        <v>0</v>
+      <c r="C443" s="1" t="str">
+        <f t="shared" si="7"/>
+        <v>0.0</v>
       </c>
       <c r="D443" t="str">
         <f>_xll.RegexString(B443,"^.+[  ]cast.*?[  ](.+?)( on .+)*$",1,1)</f>
@@ -6882,9 +6784,9 @@
     </row>
     <row r="444" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A444" s="1"/>
-      <c r="C444" s="3">
-        <f t="shared" si="6"/>
-        <v>0</v>
+      <c r="C444" s="1" t="str">
+        <f t="shared" si="7"/>
+        <v>0.0</v>
       </c>
       <c r="D444" t="str">
         <f>_xll.RegexString(B444,"^.+[  ]cast.*?[  ](.+?)( on .+)*$",1,1)</f>
@@ -6893,9 +6795,9 @@
     </row>
     <row r="445" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A445" s="1"/>
-      <c r="C445" s="3">
-        <f t="shared" si="6"/>
-        <v>0</v>
+      <c r="C445" s="1" t="str">
+        <f t="shared" si="7"/>
+        <v>0.0</v>
       </c>
       <c r="D445" t="str">
         <f>_xll.RegexString(B445,"^.+[  ]cast.*?[  ](.+?)( on .+)*$",1,1)</f>
@@ -6904,9 +6806,9 @@
     </row>
     <row r="446" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A446" s="1"/>
-      <c r="C446" s="3">
-        <f t="shared" si="6"/>
-        <v>0</v>
+      <c r="C446" s="1" t="str">
+        <f t="shared" si="7"/>
+        <v>0.0</v>
       </c>
       <c r="D446" t="str">
         <f>_xll.RegexString(B446,"^.+[  ]cast.*?[  ](.+?)( on .+)*$",1,1)</f>
@@ -6915,9 +6817,9 @@
     </row>
     <row r="447" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A447" s="1"/>
-      <c r="C447" s="3">
-        <f t="shared" si="6"/>
-        <v>0</v>
+      <c r="C447" s="1" t="str">
+        <f t="shared" si="7"/>
+        <v>0.0</v>
       </c>
       <c r="D447" t="str">
         <f>_xll.RegexString(B447,"^.+[  ]cast.*?[  ](.+?)( on .+)*$",1,1)</f>
@@ -6926,9 +6828,9 @@
     </row>
     <row r="448" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A448" s="1"/>
-      <c r="C448" s="3">
-        <f t="shared" si="6"/>
-        <v>0</v>
+      <c r="C448" s="1" t="str">
+        <f t="shared" si="7"/>
+        <v>0.0</v>
       </c>
       <c r="D448" t="str">
         <f>_xll.RegexString(B448,"^.+[  ]cast.*?[  ](.+?)( on .+)*$",1,1)</f>
@@ -6937,9 +6839,9 @@
     </row>
     <row r="449" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A449" s="1"/>
-      <c r="C449" s="3">
-        <f t="shared" si="6"/>
-        <v>0</v>
+      <c r="C449" s="1" t="str">
+        <f t="shared" si="7"/>
+        <v>0.0</v>
       </c>
       <c r="D449" t="str">
         <f>_xll.RegexString(B449,"^.+[  ]cast.*?[  ](.+?)( on .+)*$",1,1)</f>
@@ -6948,9 +6850,9 @@
     </row>
     <row r="450" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A450" s="1"/>
-      <c r="C450" s="3">
-        <f t="shared" ref="C450:C489" si="7">SECOND(A450)+MINUTE(A450)*60</f>
-        <v>0</v>
+      <c r="C450" s="1" t="str">
+        <f t="shared" si="7"/>
+        <v>0.0</v>
       </c>
       <c r="D450" t="str">
         <f>_xll.RegexString(B450,"^.+[  ]cast.*?[  ](.+?)( on .+)*$",1,1)</f>
@@ -6959,9 +6861,9 @@
     </row>
     <row r="451" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A451" s="1"/>
-      <c r="C451" s="3">
+      <c r="C451" s="1" t="str">
         <f t="shared" si="7"/>
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="D451" t="str">
         <f>_xll.RegexString(B451,"^.+[  ]cast.*?[  ](.+?)( on .+)*$",1,1)</f>
@@ -6970,9 +6872,9 @@
     </row>
     <row r="452" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A452" s="1"/>
-      <c r="C452" s="3">
+      <c r="C452" s="1" t="str">
         <f t="shared" si="7"/>
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="D452" t="str">
         <f>_xll.RegexString(B452,"^.+[  ]cast.*?[  ](.+?)( on .+)*$",1,1)</f>
@@ -6981,9 +6883,9 @@
     </row>
     <row r="453" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A453" s="1"/>
-      <c r="C453" s="3">
+      <c r="C453" s="1" t="str">
         <f t="shared" si="7"/>
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="D453" t="str">
         <f>_xll.RegexString(B453,"^.+[  ]cast.*?[  ](.+?)( on .+)*$",1,1)</f>
@@ -6992,9 +6894,9 @@
     </row>
     <row r="454" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A454" s="1"/>
-      <c r="C454" s="3">
+      <c r="C454" s="1" t="str">
         <f t="shared" si="7"/>
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="D454" t="str">
         <f>_xll.RegexString(B454,"^.+[  ]cast.*?[  ](.+?)( on .+)*$",1,1)</f>
@@ -7003,9 +6905,9 @@
     </row>
     <row r="455" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A455" s="1"/>
-      <c r="C455" s="3">
+      <c r="C455" s="1" t="str">
         <f t="shared" si="7"/>
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="D455" t="str">
         <f>_xll.RegexString(B455,"^.+[  ]cast.*?[  ](.+?)( on .+)*$",1,1)</f>
@@ -7014,9 +6916,9 @@
     </row>
     <row r="456" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A456" s="1"/>
-      <c r="C456" s="3">
+      <c r="C456" s="1" t="str">
         <f t="shared" si="7"/>
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="D456" t="str">
         <f>_xll.RegexString(B456,"^.+[  ]cast.*?[  ](.+?)( on .+)*$",1,1)</f>
@@ -7025,9 +6927,9 @@
     </row>
     <row r="457" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A457" s="1"/>
-      <c r="C457" s="3">
+      <c r="C457" s="1" t="str">
         <f t="shared" si="7"/>
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="D457" t="str">
         <f>_xll.RegexString(B457,"^.+[  ]cast.*?[  ](.+?)( on .+)*$",1,1)</f>
@@ -7036,9 +6938,9 @@
     </row>
     <row r="458" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A458" s="1"/>
-      <c r="C458" s="3">
+      <c r="C458" s="1" t="str">
         <f t="shared" si="7"/>
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="D458" t="str">
         <f>_xll.RegexString(B458,"^.+[  ]cast.*?[  ](.+?)( on .+)*$",1,1)</f>
@@ -7047,9 +6949,9 @@
     </row>
     <row r="459" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A459" s="1"/>
-      <c r="C459" s="3">
+      <c r="C459" s="1" t="str">
         <f t="shared" si="7"/>
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="D459" t="str">
         <f>_xll.RegexString(B459,"^.+[  ]cast.*?[  ](.+?)( on .+)*$",1,1)</f>
@@ -7058,9 +6960,9 @@
     </row>
     <row r="460" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A460" s="1"/>
-      <c r="C460" s="3">
+      <c r="C460" s="1" t="str">
         <f t="shared" si="7"/>
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="D460" t="str">
         <f>_xll.RegexString(B460,"^.+[  ]cast.*?[  ](.+?)( on .+)*$",1,1)</f>
@@ -7069,9 +6971,9 @@
     </row>
     <row r="461" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A461" s="1"/>
-      <c r="C461" s="3">
+      <c r="C461" s="1" t="str">
         <f t="shared" si="7"/>
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="D461" t="str">
         <f>_xll.RegexString(B461,"^.+[  ]cast.*?[  ](.+?)( on .+)*$",1,1)</f>
@@ -7080,9 +6982,9 @@
     </row>
     <row r="462" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A462" s="1"/>
-      <c r="C462" s="3">
+      <c r="C462" s="1" t="str">
         <f t="shared" si="7"/>
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="D462" t="str">
         <f>_xll.RegexString(B462,"^.+[  ]cast.*?[  ](.+?)( on .+)*$",1,1)</f>
@@ -7091,9 +6993,9 @@
     </row>
     <row r="463" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A463" s="1"/>
-      <c r="C463" s="3">
+      <c r="C463" s="1" t="str">
         <f t="shared" si="7"/>
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="D463" t="str">
         <f>_xll.RegexString(B463,"^.+[  ]cast.*?[  ](.+?)( on .+)*$",1,1)</f>
@@ -7102,9 +7004,9 @@
     </row>
     <row r="464" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A464" s="1"/>
-      <c r="C464" s="3">
+      <c r="C464" s="1" t="str">
         <f t="shared" si="7"/>
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="D464" t="str">
         <f>_xll.RegexString(B464,"^.+[  ]cast.*?[  ](.+?)( on .+)*$",1,1)</f>
@@ -7113,282 +7015,22 @@
     </row>
     <row r="465" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A465" s="1"/>
-      <c r="C465" s="3">
+      <c r="C465" s="1" t="str">
         <f t="shared" si="7"/>
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="D465" t="str">
         <f>_xll.RegexString(B465,"^.+[  ]cast.*?[  ](.+?)( on .+)*$",1,1)</f>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="466" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A466" s="1"/>
-      <c r="C466" s="3">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="D466" t="str">
-        <f>_xll.RegexString(B466,"^.+[  ]cast.*?[  ](.+?)( on .+)*$",1,1)</f>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="467" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A467" s="1"/>
-      <c r="C467" s="3">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="D467" t="str">
-        <f>_xll.RegexString(B467,"^.+[  ]cast.*?[  ](.+?)( on .+)*$",1,1)</f>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="468" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A468" s="1"/>
-      <c r="C468" s="3">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="D468" t="str">
-        <f>_xll.RegexString(B468,"^.+[  ]cast.*?[  ](.+?)( on .+)*$",1,1)</f>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="469" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A469" s="1"/>
-      <c r="C469" s="3">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="D469" t="str">
-        <f>_xll.RegexString(B469,"^.+[  ]cast.*?[  ](.+?)( on .+)*$",1,1)</f>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="470" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A470" s="1"/>
-      <c r="C470" s="3">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="D470" t="str">
-        <f>_xll.RegexString(B470,"^.+[  ]cast.*?[  ](.+?)( on .+)*$",1,1)</f>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="471" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A471" s="1"/>
-      <c r="C471" s="3">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="D471" t="str">
-        <f>_xll.RegexString(B471,"^.+[  ]cast.*?[  ](.+?)( on .+)*$",1,1)</f>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="472" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A472" s="1"/>
-      <c r="C472" s="3">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="D472" t="str">
-        <f>_xll.RegexString(B472,"^.+[  ]cast.*?[  ](.+?)( on .+)*$",1,1)</f>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="473" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A473" s="1"/>
-      <c r="C473" s="3">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="D473" t="str">
-        <f>_xll.RegexString(B473,"^.+[  ]cast.*?[  ](.+?)( on .+)*$",1,1)</f>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="474" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A474" s="1"/>
-      <c r="C474" s="3">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="D474" t="str">
-        <f>_xll.RegexString(B474,"^.+[  ]cast.*?[  ](.+?)( on .+)*$",1,1)</f>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="475" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A475" s="1"/>
-      <c r="C475" s="3">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="D475" t="str">
-        <f>_xll.RegexString(B475,"^.+[  ]cast.*?[  ](.+?)( on .+)*$",1,1)</f>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="476" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A476" s="1"/>
-      <c r="C476" s="3">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="D476" t="str">
-        <f>_xll.RegexString(B476,"^.+[  ]cast.*?[  ](.+?)( on .+)*$",1,1)</f>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="477" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A477" s="1"/>
-      <c r="C477" s="3">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="D477" t="str">
-        <f>_xll.RegexString(B477,"^.+[  ]cast.*?[  ](.+?)( on .+)*$",1,1)</f>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="478" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A478" s="1"/>
-      <c r="C478" s="3">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="D478" t="str">
-        <f>_xll.RegexString(B478,"^.+[  ]cast.*?[  ](.+?)( on .+)*$",1,1)</f>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="479" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A479" s="1"/>
-      <c r="C479" s="3">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="D479" t="str">
-        <f>_xll.RegexString(B479,"^.+[  ]cast.*?[  ](.+?)( on .+)*$",1,1)</f>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="480" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A480" s="1"/>
-      <c r="C480" s="3">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="D480" t="str">
-        <f>_xll.RegexString(B480,"^.+[  ]cast.*?[  ](.+?)( on .+)*$",1,1)</f>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="481" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A481" s="1"/>
-      <c r="C481" s="3">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="D481" t="str">
-        <f>_xll.RegexString(B481,"^.+[  ]cast.*?[  ](.+?)( on .+)*$",1,1)</f>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="482" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A482" s="1"/>
-      <c r="C482" s="3">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="D482" t="str">
-        <f>_xll.RegexString(B482,"^.+[  ]cast.*?[  ](.+?)( on .+)*$",1,1)</f>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="483" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A483" s="1"/>
-      <c r="C483" s="3">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="D483" t="str">
-        <f>_xll.RegexString(B483,"^.+[  ]cast.*?[  ](.+?)( on .+)*$",1,1)</f>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="484" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A484" s="1"/>
-      <c r="C484" s="3">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="D484" t="str">
-        <f>_xll.RegexString(B484,"^.+[  ]cast.*?[  ](.+?)( on .+)*$",1,1)</f>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="485" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A485" s="1"/>
-      <c r="C485" s="3">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="D485" t="str">
-        <f>_xll.RegexString(B485,"^.+[  ]cast.*?[  ](.+?)( on .+)*$",1,1)</f>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="486" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A486" s="1"/>
-      <c r="C486" s="3">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="D486" t="str">
-        <f>_xll.RegexString(B486,"^.+[  ]cast.*?[  ](.+?)( on .+)*$",1,1)</f>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="487" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A487" s="1"/>
-      <c r="C487" s="3">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="D487" t="str">
-        <f>_xll.RegexString(B487,"^.+[  ]cast.*?[  ](.+?)( on .+)*$",1,1)</f>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="488" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A488" s="1"/>
-      <c r="C488" s="3">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="D488" t="str">
-        <f>_xll.RegexString(B488,"^.+[  ]cast.*?[  ](.+?)( on .+)*$",1,1)</f>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="489" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A489" s="1"/>
-      <c r="C489" s="3">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="D489" t="str">
-        <f>_xll.RegexString(B489,"^.+[  ]cast.*?[  ](.+?)( on .+)*$",1,1)</f>
-        <v>#N/A</v>
-      </c>
-    </row>
   </sheetData>
-  <autoFilter ref="A1:D489" xr:uid="{EB07EFDD-6FBD-4C01-BEED-7C7408552D3E}"/>
-  <phoneticPr fontId="2" type="noConversion"/>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <conditionalFormatting sqref="B1:B1048576">
+    <cfRule type="containsText" dxfId="4" priority="1" operator="containsText" text="begins">
+      <formula>NOT(ISERROR(SEARCH("begins",B1)))</formula>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
